--- a/Report/AA/df_ALL_LV.xlsx
+++ b/Report/AA/df_ALL_LV.xlsx
@@ -579,49 +579,49 @@
         <v>40968</v>
       </c>
       <c r="B3" t="n">
-        <v>104.6282987016055</v>
+        <v>104.6283153624771</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.6860986882919</v>
+        <v>100.6860825180477</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>105.7861825145736</v>
+        <v>105.786196455995</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.050054316294</v>
+        <v>110.050052312875</v>
       </c>
       <c r="I3" t="n">
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2181313504912</v>
+        <v>102.2181310100632</v>
       </c>
       <c r="K3" t="n">
         <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>113.1058109363459</v>
+        <v>113.10583727141</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>108.4470842109146</v>
+        <v>108.4470835437527</v>
       </c>
       <c r="O3" t="n">
         <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>108.4470842109146</v>
+        <v>108.4470835437527</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -632,49 +632,49 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>108.3637811926374</v>
+        <v>108.3638101178727</v>
       </c>
       <c r="C4" t="n">
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.1337005718545</v>
+        <v>101.1336851886807</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>114.1696952645126</v>
+        <v>114.1697110714788</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>103.144663741823</v>
+        <v>103.1446431805431</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.274772527257642</v>
+        <v>-6.274789504597091</v>
       </c>
       <c r="J4" t="n">
-        <v>104.8630771180443</v>
+        <v>104.8630820408986</v>
       </c>
       <c r="K4" t="n">
         <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>124.5158400709907</v>
+        <v>124.515868248318</v>
       </c>
       <c r="M4" t="n">
         <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>115.7220697751031</v>
+        <v>115.7220843296168</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>115.7220697751031</v>
+        <v>115.7220843296168</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
@@ -685,52 +685,52 @@
         <v>41029</v>
       </c>
       <c r="B5" t="n">
-        <v>108.2222536491505</v>
+        <v>108.2222793263556</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1306041021541092</v>
+        <v>-0.1306070646308865</v>
       </c>
       <c r="D5" t="n">
-        <v>101.8098931111754</v>
+        <v>101.8098752935466</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>111.2043681822482</v>
+        <v>111.2043816249698</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.597297886618919</v>
+        <v>-2.597299597835051</v>
       </c>
       <c r="H5" t="n">
-        <v>101.4833265638894</v>
+        <v>101.4832855548184</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.784392116502718</v>
+        <v>-7.784427701770682</v>
       </c>
       <c r="J5" t="n">
-        <v>102.8052079820518</v>
+        <v>102.8052066907449</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.962434435979755</v>
+        <v>-1.962440269828289</v>
       </c>
       <c r="L5" t="n">
-        <v>121.3126437447863</v>
+        <v>121.3126794779255</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.572521154238778</v>
+        <v>-2.572514503938147</v>
       </c>
       <c r="N5" t="n">
-        <v>113.8581500157054</v>
+        <v>113.8581410230387</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.610686503464723</v>
+        <v>-1.610706648930547</v>
       </c>
       <c r="P5" t="n">
-        <v>113.8581500157054</v>
+        <v>113.8581410230387</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.610686503464723</v>
+        <v>-1.610706648930547</v>
       </c>
     </row>
     <row r="6">
@@ -738,52 +738,52 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>101.5984002836092</v>
+        <v>101.5984379271586</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.243212293415079</v>
+        <v>-6.243202581521504</v>
       </c>
       <c r="D6" t="n">
-        <v>99.27844775541931</v>
+        <v>99.27842462834933</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.486443388160484</v>
+        <v>-2.486449038365228</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3542067626505</v>
+        <v>109.3542070857067</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.217834242883285</v>
+        <v>-4.217847221105077</v>
       </c>
       <c r="H6" t="n">
-        <v>104.395437872125</v>
+        <v>104.3953861360346</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.138222311019538</v>
+        <v>-5.138267595515487</v>
       </c>
       <c r="J6" t="n">
-        <v>107.5483771810608</v>
+        <v>107.5483736673008</v>
       </c>
       <c r="K6" t="n">
         <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>129.3989590019922</v>
+        <v>129.3989928410152</v>
       </c>
       <c r="M6" t="n">
         <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>100.9097937710747</v>
+        <v>100.9098094954815</v>
       </c>
       <c r="O6" t="n">
-        <v>-12.79987130615179</v>
+        <v>-12.79986868534512</v>
       </c>
       <c r="P6" t="n">
-        <v>100.9097937710747</v>
+        <v>100.9098094954815</v>
       </c>
       <c r="Q6" t="n">
-        <v>-12.79987130615179</v>
+        <v>-12.79986868534512</v>
       </c>
     </row>
     <row r="7">
@@ -791,52 +791,52 @@
         <v>41090</v>
       </c>
       <c r="B7" t="n">
-        <v>105.8282392235197</v>
+        <v>105.8282518410921</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.339842649649047</v>
+        <v>-2.339857074075293</v>
       </c>
       <c r="D7" t="n">
-        <v>101.1672870247337</v>
+        <v>101.1672971228615</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.631182360382177</v>
+        <v>-0.6311550513467876</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5021087063059</v>
+        <v>108.5021117551033</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.964177705016979</v>
+        <v>-4.964188192459506</v>
       </c>
       <c r="H7" t="n">
-        <v>103.9629584564899</v>
+        <v>103.9628806277891</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.531206592873779</v>
+        <v>-5.531275594290348</v>
       </c>
       <c r="J7" t="n">
-        <v>106.5584358726963</v>
+        <v>106.5584645763442</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.9204614093785181</v>
+        <v>-0.9204314832494502</v>
       </c>
       <c r="L7" t="n">
-        <v>127.7725081128679</v>
+        <v>127.7726092050228</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.256927336717783</v>
+        <v>-1.256875034561261</v>
       </c>
       <c r="N7" t="n">
-        <v>99.21626930771748</v>
+        <v>99.2163766495362</v>
       </c>
       <c r="O7" t="n">
-        <v>-14.26331252064825</v>
+        <v>-14.26323054557731</v>
       </c>
       <c r="P7" t="n">
-        <v>108.2429727749006</v>
+        <v>108.2429642257279</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6.462982398031325</v>
+        <v>-6.463001549977056</v>
       </c>
     </row>
     <row r="8">
@@ -844,52 +844,52 @@
         <v>41121</v>
       </c>
       <c r="B8" t="n">
-        <v>108.0446525964617</v>
+        <v>108.0446628193151</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2944974719997646</v>
+        <v>-0.2945146522722198</v>
       </c>
       <c r="D8" t="n">
-        <v>103.0995516512169</v>
+        <v>103.0995288832664</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
       </c>
       <c r="F8" t="n">
-        <v>109.1682796298748</v>
+        <v>109.168288941148</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.380685805502382</v>
+        <v>-4.380690888496291</v>
       </c>
       <c r="H8" t="n">
-        <v>106.5939759851589</v>
+        <v>106.5938810151706</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.140460359248868</v>
+        <v>-3.140544893044133</v>
       </c>
       <c r="J8" t="n">
-        <v>109.2022712027437</v>
+        <v>109.2023048540748</v>
       </c>
       <c r="K8" t="n">
         <v>-0</v>
       </c>
       <c r="L8" t="n">
-        <v>129.8604474639046</v>
+        <v>129.8605409536941</v>
       </c>
       <c r="M8" t="n">
         <v>-0</v>
       </c>
       <c r="N8" t="n">
-        <v>101.7271611441305</v>
+        <v>101.7272567234934</v>
       </c>
       <c r="O8" t="n">
-        <v>-12.09355195441163</v>
+        <v>-12.09348041663444</v>
       </c>
       <c r="P8" t="n">
-        <v>110.9823057349682</v>
+        <v>110.9822811731758</v>
       </c>
       <c r="Q8" t="n">
-        <v>-4.095816856150448</v>
+        <v>-4.095850142951445</v>
       </c>
     </row>
     <row r="9">
@@ -897,49 +897,49 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>111.0688324655076</v>
+        <v>111.0688320468262</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>105.1642139321289</v>
+        <v>105.164221655284</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>108.6146888109067</v>
+        <v>108.6147069220609</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.865570010269287</v>
+        <v>-4.865567318410791</v>
       </c>
       <c r="H9" t="n">
-        <v>106.5366967104435</v>
+        <v>106.5365178034823</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.192508743114945</v>
+        <v>-3.192669549491479</v>
       </c>
       <c r="J9" t="n">
-        <v>108.6599058104121</v>
+        <v>108.6599419716298</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4966612748599507</v>
+        <v>-0.4966588234284953</v>
       </c>
       <c r="L9" t="n">
-        <v>128.6953279065599</v>
+        <v>128.6954826866399</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.8972089501451954</v>
+        <v>-0.897161107213992</v>
       </c>
       <c r="N9" t="n">
-        <v>106.421423336673</v>
+        <v>106.4215239947458</v>
       </c>
       <c r="O9" t="n">
-        <v>-8.037055037561236</v>
+        <v>-8.036979621262107</v>
       </c>
       <c r="P9" t="n">
-        <v>116.1036522464934</v>
+        <v>116.1036272802103</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
@@ -950,49 +950,49 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>114.3134731652247</v>
+        <v>114.3134995563748</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.0329329372699</v>
+        <v>107.0329488134288</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
       </c>
       <c r="F10" t="n">
-        <v>112.4386404184762</v>
+        <v>112.4386756345089</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.516212198014388</v>
+        <v>-1.516194987903651</v>
       </c>
       <c r="H10" t="n">
-        <v>111.7193315142349</v>
+        <v>111.7191808457638</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>112.7660437480992</v>
+        <v>112.7660932353864</v>
       </c>
       <c r="K10" t="n">
         <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>130.7589056987173</v>
+        <v>130.7590796714158</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>111.5984504971142</v>
+        <v>111.5985929536564</v>
       </c>
       <c r="O10" t="n">
-        <v>-3.563381890768778</v>
+        <v>-3.56327091742945</v>
       </c>
       <c r="P10" t="n">
-        <v>121.7516857181468</v>
+        <v>121.7516997964335</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
@@ -1003,52 +1003,52 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>111.1191749910972</v>
+        <v>111.1191920591035</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.794332186469867</v>
+        <v>-2.794339697120368</v>
       </c>
       <c r="D11" t="n">
-        <v>104.879074873495</v>
+        <v>104.8790548986774</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.012332096923182</v>
+        <v>-2.01236529370592</v>
       </c>
       <c r="F11" t="n">
-        <v>106.1782465407849</v>
+        <v>106.1782723046207</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.999623416014919</v>
+        <v>-6.999613725793565</v>
       </c>
       <c r="H11" t="n">
-        <v>110.8429807264788</v>
+        <v>110.842831239884</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7844217969067044</v>
+        <v>-0.7844217969067027</v>
       </c>
       <c r="J11" t="n">
-        <v>108.1775842657591</v>
+        <v>108.1776307023216</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.069008124990149</v>
+        <v>-4.069009044666419</v>
       </c>
       <c r="L11" t="n">
-        <v>116.8726176365654</v>
+        <v>116.8727657251021</v>
       </c>
       <c r="M11" t="n">
-        <v>-10.61976466379078</v>
+        <v>-10.61977032968468</v>
       </c>
       <c r="N11" t="n">
-        <v>103.5791834595386</v>
+        <v>103.5793223359368</v>
       </c>
       <c r="O11" t="n">
-        <v>-10.49314650106351</v>
+        <v>-10.4930377499019</v>
       </c>
       <c r="P11" t="n">
-        <v>116.7002376784988</v>
+        <v>116.7002363594919</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4.148975851835028</v>
+        <v>-4.148988018555396</v>
       </c>
     </row>
     <row r="12">
@@ -1056,52 +1056,52 @@
         <v>41243</v>
       </c>
       <c r="B12" t="n">
-        <v>112.177885958558</v>
+        <v>112.1778984445801</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.868185042002876</v>
+        <v>-1.868196774731274</v>
       </c>
       <c r="D12" t="n">
-        <v>105.3451441172929</v>
+        <v>105.3451483442594</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.576887387516738</v>
+        <v>-1.576898037361811</v>
       </c>
       <c r="F12" t="n">
-        <v>107.1220145858281</v>
+        <v>107.1220228169573</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.172987203264561</v>
+        <v>-6.172992984197942</v>
       </c>
       <c r="H12" t="n">
-        <v>117.0456930033395</v>
+        <v>117.0455253648637</v>
       </c>
       <c r="I12" t="n">
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>109.4363336880983</v>
+        <v>109.4363853719912</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.952759491535299</v>
+        <v>-2.952756247788838</v>
       </c>
       <c r="L12" t="n">
-        <v>120.0380094887462</v>
+        <v>120.0381428087738</v>
       </c>
       <c r="M12" t="n">
-        <v>-8.198979757962494</v>
+        <v>-8.198999939111404</v>
       </c>
       <c r="N12" t="n">
-        <v>104.7221947664306</v>
+        <v>104.7223423472403</v>
       </c>
       <c r="O12" t="n">
-        <v>-9.505425395561835</v>
+        <v>-9.505309246803229</v>
       </c>
       <c r="P12" t="n">
-        <v>117.7940500367224</v>
+        <v>117.794040733193</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3.250579783007081</v>
+        <v>-3.250598611647832</v>
       </c>
     </row>
     <row r="13">
@@ -1109,52 +1109,52 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>113.2579748200907</v>
+        <v>113.2579995380452</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9233367825404251</v>
+        <v>-0.9233380330632359</v>
       </c>
       <c r="D13" t="n">
-        <v>104.7136396474212</v>
+        <v>104.7136249902626</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.166896885099905</v>
+        <v>-2.166925090711179</v>
       </c>
       <c r="F13" t="n">
-        <v>112.5403962450663</v>
+        <v>112.5404368539708</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.42708537118492</v>
+        <v>-1.427063449856601</v>
       </c>
       <c r="H13" t="n">
-        <v>127.0827731719461</v>
+        <v>127.0825911578809</v>
       </c>
       <c r="I13" t="n">
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>113.3802823975071</v>
+        <v>113.3803468329716</v>
       </c>
       <c r="K13" t="n">
         <v>-0</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1326292190227</v>
+        <v>125.1327497682177</v>
       </c>
       <c r="M13" t="n">
-        <v>-4.302786452387504</v>
+        <v>-4.302821584043395</v>
       </c>
       <c r="N13" t="n">
-        <v>116.043524749635</v>
+        <v>116.0436803379127</v>
       </c>
       <c r="O13" t="n">
         <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>120.2446351738115</v>
+        <v>120.2446177785998</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.237806717374024</v>
+        <v>-1.237832424806786</v>
       </c>
     </row>
     <row r="14">
@@ -1162,49 +1162,49 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>119.6534904966268</v>
+        <v>119.6534619603499</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>106.8656178541095</v>
+        <v>106.8656188323285</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1563211233859002</v>
+        <v>-0.1563350192210564</v>
       </c>
       <c r="F14" t="n">
-        <v>116.1412856000304</v>
+        <v>116.1413184224807</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.2070517645931</v>
+        <v>126.2068825307483</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6890952923793545</v>
+        <v>-0.689086222710619</v>
       </c>
       <c r="J14" t="n">
-        <v>111.4899056859721</v>
+        <v>111.4899769475787</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.667288766231279</v>
+        <v>-1.667281798121333</v>
       </c>
       <c r="L14" t="n">
-        <v>123.833713893215</v>
+        <v>123.8338242115994</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.296153075384938</v>
+        <v>-5.296194709551987</v>
       </c>
       <c r="N14" t="n">
-        <v>138.4503159051896</v>
+        <v>138.4504871921562</v>
       </c>
       <c r="O14" t="n">
         <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8178756527625</v>
+        <v>129.8178568726364</v>
       </c>
       <c r="Q14" t="n">
         <v>-0</v>
@@ -1215,49 +1215,49 @@
         <v>41333</v>
       </c>
       <c r="B15" t="n">
-        <v>121.7813135472071</v>
+        <v>121.7813350554132</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>106.6952674217583</v>
+        <v>106.6953027413275</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3154781488698722</v>
+        <v>-0.3154599362574726</v>
       </c>
       <c r="F15" t="n">
-        <v>117.2974701703686</v>
+        <v>117.2975011254989</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>126.2832516868312</v>
+        <v>126.2831445803476</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6291344335342597</v>
+        <v>-0.6290763905971108</v>
       </c>
       <c r="J15" t="n">
-        <v>112.38138449753</v>
+        <v>112.381484417933</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8810155336136971</v>
+        <v>-0.8809837356646384</v>
       </c>
       <c r="L15" t="n">
-        <v>124.8006041757191</v>
+        <v>124.8007252101804</v>
       </c>
       <c r="M15" t="n">
-        <v>-4.556708004827438</v>
+        <v>-4.55674242753022</v>
       </c>
       <c r="N15" t="n">
-        <v>141.9337987437691</v>
+        <v>141.9339890450836</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>132.6268136878678</v>
+        <v>132.6268415658843</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
@@ -1268,49 +1268,49 @@
         <v>41364</v>
       </c>
       <c r="B16" t="n">
-        <v>127.5667106424251</v>
+        <v>127.5667210035836</v>
       </c>
       <c r="C16" t="n">
         <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>109.3140067946052</v>
+        <v>109.3139940473352</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.6552783032649</v>
+        <v>126.6553171721025</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.6124298521131</v>
+        <v>135.6122990199297</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>118.4961085093753</v>
+        <v>118.4962179932028</v>
       </c>
       <c r="K16" t="n">
         <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>126.2882461978885</v>
+        <v>126.2883953962826</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.419009571041877</v>
+        <v>-3.419023968635763</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4013954271192</v>
+        <v>161.4015974863236</v>
       </c>
       <c r="O16" t="n">
         <v>-0</v>
       </c>
       <c r="P16" t="n">
-        <v>142.4246226440083</v>
+        <v>142.4246359739486</v>
       </c>
       <c r="Q16" t="n">
         <v>-0</v>
@@ -1321,49 +1321,49 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>131.4352383769193</v>
+        <v>131.4352839604186</v>
       </c>
       <c r="C17" t="n">
         <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>110.1864663649595</v>
+        <v>110.1864720200642</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
       </c>
       <c r="F17" t="n">
-        <v>129.4577045421843</v>
+        <v>129.4577664004045</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>137.6808488971461</v>
+        <v>137.6807392044742</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>120.269942479304</v>
+        <v>120.2700681857404</v>
       </c>
       <c r="K17" t="n">
         <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>128.4516055669562</v>
+        <v>128.4517839278832</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.764545305294442</v>
+        <v>-1.76453960163277</v>
       </c>
       <c r="N17" t="n">
-        <v>167.6380594188437</v>
+        <v>167.6383218628056</v>
       </c>
       <c r="O17" t="n">
         <v>-0</v>
       </c>
       <c r="P17" t="n">
-        <v>147.9280107233259</v>
+        <v>147.9280709635904</v>
       </c>
       <c r="Q17" t="n">
         <v>-0</v>
@@ -1374,52 +1374,52 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>133.8919952648396</v>
+        <v>133.8920738026563</v>
       </c>
       <c r="C18" t="n">
         <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>108.7909400651358</v>
+        <v>108.7909203902632</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.266513344026684</v>
+        <v>-1.266536267307711</v>
       </c>
       <c r="F18" t="n">
-        <v>128.9192244464523</v>
+        <v>128.9192733421443</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4159505976382578</v>
+        <v>-0.4159604118262367</v>
       </c>
       <c r="H18" t="n">
-        <v>134.4831231485607</v>
+        <v>134.483007684898</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.322563939865154</v>
+        <v>-2.322569981867332</v>
       </c>
       <c r="J18" t="n">
-        <v>116.5719331518558</v>
+        <v>116.5720440463166</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.074757708547679</v>
+        <v>-3.074766810402714</v>
       </c>
       <c r="L18" t="n">
-        <v>137.5881458558439</v>
+        <v>137.5883369032748</v>
       </c>
       <c r="M18" t="n">
         <v>-0</v>
       </c>
       <c r="N18" t="n">
-        <v>175.2680309396909</v>
+        <v>175.2682678842872</v>
       </c>
       <c r="O18" t="n">
         <v>-0</v>
       </c>
       <c r="P18" t="n">
-        <v>144.4922880893061</v>
+        <v>144.4923379926346</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2.322563939865159</v>
+        <v>-2.322569981867323</v>
       </c>
     </row>
     <row r="19">
@@ -1427,52 +1427,52 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>129.9782124718543</v>
+        <v>129.9782687986275</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.923089453737547</v>
+        <v>-2.92310432789132</v>
       </c>
       <c r="D19" t="n">
-        <v>104.5501033200702</v>
+        <v>104.5501131395027</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.115295218035678</v>
+        <v>-5.115291176157402</v>
       </c>
       <c r="F19" t="n">
-        <v>128.8958752228253</v>
+        <v>128.8958955455386</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4339867768750772</v>
+        <v>-0.4340186537191348</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3507335266526</v>
+        <v>134.3507109288483</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.418720829489677</v>
+        <v>-2.418659497956634</v>
       </c>
       <c r="J19" t="n">
-        <v>115.3022697684918</v>
+        <v>115.3023753810287</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.130435758433187</v>
+        <v>-4.130448148611569</v>
       </c>
       <c r="L19" t="n">
-        <v>134.5910156538332</v>
+        <v>134.5911929224116</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.178334611145177</v>
+        <v>-2.178341600981903</v>
       </c>
       <c r="N19" t="n">
-        <v>169.8146237634977</v>
+        <v>169.814871406629</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.111467132342965</v>
+        <v>-3.111456821869528</v>
       </c>
       <c r="P19" t="n">
-        <v>131.4332571091922</v>
+        <v>131.4333025023207</v>
       </c>
       <c r="Q19" t="n">
-        <v>-11.15052756640145</v>
+        <v>-11.15053306233507</v>
       </c>
     </row>
     <row r="20">
@@ -1480,52 +1480,52 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>138.8320951124194</v>
+        <v>138.832156627014</v>
       </c>
       <c r="C20" t="n">
         <v>-0</v>
       </c>
       <c r="D20" t="n">
-        <v>109.3476140148455</v>
+        <v>109.3476305598862</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7613025245183854</v>
+        <v>-0.76129260225817</v>
       </c>
       <c r="F20" t="n">
-        <v>128.9309371483534</v>
+        <v>128.9309479566611</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.4069030852152196</v>
+        <v>-0.406942324428794</v>
       </c>
       <c r="H20" t="n">
-        <v>134.5692035888898</v>
+        <v>134.5691544097676</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.260042215879125</v>
+        <v>-2.260000064413808</v>
       </c>
       <c r="J20" t="n">
-        <v>115.3022697684918</v>
+        <v>115.3023753810287</v>
       </c>
       <c r="K20" t="n">
-        <v>-4.130435758433187</v>
+        <v>-4.130448148611569</v>
       </c>
       <c r="L20" t="n">
-        <v>134.5910156538332</v>
+        <v>134.5911929224116</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.178334611145177</v>
+        <v>-2.178341600981903</v>
       </c>
       <c r="N20" t="n">
-        <v>187.4976120380059</v>
+        <v>187.4979168699222</v>
       </c>
       <c r="O20" t="n">
         <v>-0</v>
       </c>
       <c r="P20" t="n">
-        <v>145.1195503908538</v>
+        <v>145.1196248148941</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.898531805260907</v>
+        <v>-1.898521443835737</v>
       </c>
     </row>
     <row r="21">
@@ -1533,52 +1533,52 @@
         <v>41517</v>
       </c>
       <c r="B21" t="n">
-        <v>132.4101365384033</v>
+        <v>132.4101645796484</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.625701692980916</v>
+        <v>-4.625723754057135</v>
       </c>
       <c r="D21" t="n">
-        <v>107.4283022190436</v>
+        <v>107.4283019906284</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.503178690548344</v>
+        <v>-2.503183901680393</v>
       </c>
       <c r="F21" t="n">
-        <v>128.9309371483534</v>
+        <v>128.9309479566611</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4069030852152196</v>
+        <v>-0.406942324428794</v>
       </c>
       <c r="H21" t="n">
-        <v>134.4384186092987</v>
+        <v>134.4383959880905</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.355033625823724</v>
+        <v>-2.35497226054859</v>
       </c>
       <c r="J21" t="n">
-        <v>115.3022697684918</v>
+        <v>115.3023753810287</v>
       </c>
       <c r="K21" t="n">
-        <v>-4.130435758433187</v>
+        <v>-4.130448148611569</v>
       </c>
       <c r="L21" t="n">
-        <v>134.5910156538332</v>
+        <v>134.5911929224116</v>
       </c>
       <c r="M21" t="n">
-        <v>-2.178334611145177</v>
+        <v>-2.178341600981903</v>
       </c>
       <c r="N21" t="n">
-        <v>176.0999740398715</v>
+        <v>176.1001945002991</v>
       </c>
       <c r="O21" t="n">
-        <v>-6.078817684261532</v>
+        <v>-6.078852800018236</v>
       </c>
       <c r="P21" t="n">
-        <v>136.2979974983738</v>
+        <v>136.2980164384579</v>
       </c>
       <c r="Q21" t="n">
-        <v>-7.8619412024029</v>
+        <v>-7.861965919906422</v>
       </c>
     </row>
     <row r="22">
@@ -1586,49 +1586,49 @@
         <v>41547</v>
       </c>
       <c r="B22" t="n">
-        <v>139.0094241919209</v>
+        <v>139.0094385479699</v>
       </c>
       <c r="C22" t="n">
         <v>-0</v>
       </c>
       <c r="D22" t="n">
-        <v>109.2525468510128</v>
+        <v>109.2525185040828</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.8475809641207586</v>
+        <v>-0.8476117792493928</v>
       </c>
       <c r="F22" t="n">
-        <v>137.283066022272</v>
+        <v>137.2830775307405</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.7383806305288</v>
+        <v>134.7382518372326</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.137165982187849</v>
+        <v>-2.137181558033023</v>
       </c>
       <c r="J22" t="n">
-        <v>115.3022697684918</v>
+        <v>115.3023753810287</v>
       </c>
       <c r="K22" t="n">
-        <v>-4.130435758433187</v>
+        <v>-4.130448148611569</v>
       </c>
       <c r="L22" t="n">
-        <v>134.5910156538332</v>
+        <v>134.5911929224116</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.178334611145177</v>
+        <v>-2.178341600981903</v>
       </c>
       <c r="N22" t="n">
-        <v>187.5077068184083</v>
+        <v>187.5079415602329</v>
       </c>
       <c r="O22" t="n">
         <v>-0</v>
       </c>
       <c r="P22" t="n">
-        <v>157.1904006749028</v>
+        <v>157.1904404031963</v>
       </c>
       <c r="Q22" t="n">
         <v>-0</v>
@@ -1639,49 +1639,49 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>148.0141416000307</v>
+        <v>148.0141571785618</v>
       </c>
       <c r="C23" t="n">
         <v>-0</v>
       </c>
       <c r="D23" t="n">
-        <v>113.3671905062196</v>
+        <v>113.3671883418336</v>
       </c>
       <c r="E23" t="n">
         <v>-0</v>
       </c>
       <c r="F23" t="n">
-        <v>143.7070545250709</v>
+        <v>143.7070702228276</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
       </c>
       <c r="H23" t="n">
-        <v>144.0389421338334</v>
+        <v>144.0387727313493</v>
       </c>
       <c r="I23" t="n">
         <v>-0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.4444116024018</v>
+        <v>121.4445329031522</v>
       </c>
       <c r="K23" t="n">
         <v>-0</v>
       </c>
       <c r="L23" t="n">
-        <v>148.1359208786626</v>
+        <v>148.1361159871102</v>
       </c>
       <c r="M23" t="n">
         <v>-0</v>
       </c>
       <c r="N23" t="n">
-        <v>199.7053182852839</v>
+        <v>199.7055210264231</v>
       </c>
       <c r="O23" t="n">
         <v>-0</v>
       </c>
       <c r="P23" t="n">
-        <v>168.0407536505328</v>
+        <v>168.0407591166335</v>
       </c>
       <c r="Q23" t="n">
         <v>-0</v>
@@ -1692,49 +1692,49 @@
         <v>41608</v>
       </c>
       <c r="B24" t="n">
-        <v>153.6445854115892</v>
+        <v>153.6446128684792</v>
       </c>
       <c r="C24" t="n">
         <v>-0</v>
       </c>
       <c r="D24" t="n">
-        <v>114.381897727937</v>
+        <v>114.3818867816637</v>
       </c>
       <c r="E24" t="n">
         <v>-0</v>
       </c>
       <c r="F24" t="n">
-        <v>153.4961452646867</v>
+        <v>153.4961764259963</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
       </c>
       <c r="H24" t="n">
-        <v>152.3549312314249</v>
+        <v>152.3547382805718</v>
       </c>
       <c r="I24" t="n">
         <v>-0</v>
       </c>
       <c r="J24" t="n">
-        <v>125.786148222023</v>
+        <v>125.7862830952825</v>
       </c>
       <c r="K24" t="n">
         <v>-0</v>
       </c>
       <c r="L24" t="n">
-        <v>158.3661125434668</v>
+        <v>158.3663340548799</v>
       </c>
       <c r="M24" t="n">
         <v>-0</v>
       </c>
       <c r="N24" t="n">
-        <v>222.5756772920383</v>
+        <v>222.5759795710962</v>
       </c>
       <c r="O24" t="n">
         <v>-0</v>
       </c>
       <c r="P24" t="n">
-        <v>177.7424708015133</v>
+        <v>177.7424605209179</v>
       </c>
       <c r="Q24" t="n">
         <v>-0</v>
@@ -1745,49 +1745,49 @@
         <v>41639</v>
       </c>
       <c r="B25" t="n">
-        <v>158.3853350680769</v>
+        <v>158.3853934138398</v>
       </c>
       <c r="C25" t="n">
         <v>-0</v>
       </c>
       <c r="D25" t="n">
-        <v>115.7361228087786</v>
+        <v>115.7361290833368</v>
       </c>
       <c r="E25" t="n">
         <v>-0</v>
       </c>
       <c r="F25" t="n">
-        <v>157.1603867746823</v>
+        <v>157.1604115924755</v>
       </c>
       <c r="G25" t="n">
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.1656784771117</v>
+        <v>160.1654626586879</v>
       </c>
       <c r="I25" t="n">
         <v>-0</v>
       </c>
       <c r="J25" t="n">
-        <v>125.786148222023</v>
+        <v>125.7862830952825</v>
       </c>
       <c r="K25" t="n">
         <v>-0</v>
       </c>
       <c r="L25" t="n">
-        <v>158.3661125434668</v>
+        <v>158.3663340548799</v>
       </c>
       <c r="M25" t="n">
         <v>-0</v>
       </c>
       <c r="N25" t="n">
-        <v>233.9864163098974</v>
+        <v>233.9867151296941</v>
       </c>
       <c r="O25" t="n">
         <v>-0</v>
       </c>
       <c r="P25" t="n">
-        <v>186.8547555371198</v>
+        <v>186.854729591673</v>
       </c>
       <c r="Q25" t="n">
         <v>-0</v>
@@ -1798,52 +1798,52 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>153.4507855353167</v>
+        <v>153.450793629192</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.115534358429847</v>
+        <v>-3.115564938336362</v>
       </c>
       <c r="D26" t="n">
-        <v>114.0677973249087</v>
+        <v>114.0677982245316</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.441490732004491</v>
+        <v>-1.441495297984172</v>
       </c>
       <c r="F26" t="n">
-        <v>152.7091178698326</v>
+        <v>152.7091331543171</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.832309716335452</v>
+        <v>-2.832315335048104</v>
       </c>
       <c r="H26" t="n">
-        <v>163.1812752947261</v>
+        <v>163.1811265825446</v>
       </c>
       <c r="I26" t="n">
         <v>-0</v>
       </c>
       <c r="J26" t="n">
-        <v>125.786148222023</v>
+        <v>125.7862830952825</v>
       </c>
       <c r="K26" t="n">
         <v>-0</v>
       </c>
       <c r="L26" t="n">
-        <v>158.3661125434668</v>
+        <v>158.3663340548799</v>
       </c>
       <c r="M26" t="n">
         <v>-0</v>
       </c>
       <c r="N26" t="n">
-        <v>217.0579995962691</v>
+        <v>217.0582587653843</v>
       </c>
       <c r="O26" t="n">
-        <v>-7.234786095962027</v>
+        <v>-7.23479380225784</v>
       </c>
       <c r="P26" t="n">
-        <v>173.3362136638764</v>
+        <v>173.3361751959491</v>
       </c>
       <c r="Q26" t="n">
-        <v>-7.234786095962035</v>
+        <v>-7.234793802257837</v>
       </c>
     </row>
     <row r="27">
@@ -1851,49 +1851,49 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>161.6714224774446</v>
+        <v>161.671368443928</v>
       </c>
       <c r="C27" t="n">
         <v>-0</v>
       </c>
       <c r="D27" t="n">
-        <v>119.6204795560951</v>
+        <v>119.6204443712055</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
       </c>
       <c r="F27" t="n">
-        <v>157.2896498921999</v>
+        <v>157.2896433725815</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>163.7645784058883</v>
+        <v>163.7643582069863</v>
       </c>
       <c r="I27" t="n">
         <v>-0</v>
       </c>
       <c r="J27" t="n">
-        <v>126.4631234161235</v>
+        <v>126.463224523844</v>
       </c>
       <c r="K27" t="n">
         <v>-0</v>
       </c>
       <c r="L27" t="n">
-        <v>159.822825621163</v>
+        <v>159.8229873071404</v>
       </c>
       <c r="M27" t="n">
         <v>-0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.2357368872014</v>
+        <v>247.2360081997798</v>
       </c>
       <c r="O27" t="n">
         <v>-0</v>
       </c>
       <c r="P27" t="n">
-        <v>189.0410869956502</v>
+        <v>189.0409743491544</v>
       </c>
       <c r="Q27" t="n">
         <v>-0</v>
@@ -1904,49 +1904,49 @@
         <v>41729</v>
       </c>
       <c r="B28" t="n">
-        <v>162.76794058143</v>
+        <v>162.767946529441</v>
       </c>
       <c r="C28" t="n">
         <v>-0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.9646017583856</v>
+        <v>119.9646063326783</v>
       </c>
       <c r="E28" t="n">
         <v>-0</v>
       </c>
       <c r="F28" t="n">
-        <v>152.7530006034362</v>
+        <v>152.75301061168</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.88426434407662</v>
+        <v>-2.884253955713605</v>
       </c>
       <c r="H28" t="n">
-        <v>166.2585752909113</v>
+        <v>166.2584152494688</v>
       </c>
       <c r="I28" t="n">
         <v>-0</v>
       </c>
       <c r="J28" t="n">
-        <v>125.2148259211142</v>
+        <v>125.2149545621534</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.9870841880931812</v>
+        <v>-0.987061627117751</v>
       </c>
       <c r="L28" t="n">
-        <v>150.8864753290282</v>
+        <v>150.8866163164319</v>
       </c>
       <c r="M28" t="n">
-        <v>-5.591410524374727</v>
+        <v>-5.591417818724048</v>
       </c>
       <c r="N28" t="n">
-        <v>240.2526997005604</v>
+        <v>240.2530343423752</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.824444910173689</v>
+        <v>-2.824416195784094</v>
       </c>
       <c r="P28" t="n">
-        <v>191.9200238615942</v>
+        <v>191.9199828132388</v>
       </c>
       <c r="Q28" t="n">
         <v>-0</v>
@@ -1957,49 +1957,49 @@
         <v>41759</v>
       </c>
       <c r="B29" t="n">
-        <v>164.4669774262506</v>
+        <v>164.4670096414939</v>
       </c>
       <c r="C29" t="n">
         <v>-0</v>
       </c>
       <c r="D29" t="n">
-        <v>121.2333194175857</v>
+        <v>121.2333225058599</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
       </c>
       <c r="F29" t="n">
-        <v>151.9661714474047</v>
+        <v>151.966203446316</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.384506512948383</v>
+        <v>-3.384482164318661</v>
       </c>
       <c r="H29" t="n">
-        <v>168.3109721132794</v>
+        <v>168.3108351986066</v>
       </c>
       <c r="I29" t="n">
         <v>-0</v>
       </c>
       <c r="J29" t="n">
-        <v>126.2696908778044</v>
+        <v>126.2698141451728</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1529556862854076</v>
+        <v>-0.1529380413945642</v>
       </c>
       <c r="L29" t="n">
-        <v>152.2250552991553</v>
+        <v>152.2251073123232</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.753870601698109</v>
+        <v>-4.753934413837393</v>
       </c>
       <c r="N29" t="n">
-        <v>243.2185249313373</v>
+        <v>243.2188999786216</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.624850843345877</v>
+        <v>-1.624807102496252</v>
       </c>
       <c r="P29" t="n">
-        <v>194.2892011893389</v>
+        <v>194.2891886111711</v>
       </c>
       <c r="Q29" t="n">
         <v>-0</v>
@@ -2010,49 +2010,49 @@
         <v>41790</v>
       </c>
       <c r="B30" t="n">
-        <v>170.0216309365603</v>
+        <v>170.021645667312</v>
       </c>
       <c r="C30" t="n">
         <v>-0</v>
       </c>
       <c r="D30" t="n">
-        <v>123.7889089840843</v>
+        <v>123.7889184553415</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.2617502579436</v>
+        <v>158.2617883494269</v>
       </c>
       <c r="G30" t="n">
         <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>175.7310781348398</v>
+        <v>175.7309221600397</v>
       </c>
       <c r="I30" t="n">
         <v>-0</v>
       </c>
       <c r="J30" t="n">
-        <v>131.4321184597701</v>
+        <v>131.4322484422576</v>
       </c>
       <c r="K30" t="n">
         <v>-0</v>
       </c>
       <c r="L30" t="n">
-        <v>165.9047227963526</v>
+        <v>165.9047805522163</v>
       </c>
       <c r="M30" t="n">
         <v>-0</v>
       </c>
       <c r="N30" t="n">
-        <v>247.069074626153</v>
+        <v>247.0694003106798</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.06741026323569717</v>
+        <v>-0.06738819733951706</v>
       </c>
       <c r="P30" t="n">
-        <v>202.8545754698635</v>
+        <v>202.8545473027849</v>
       </c>
       <c r="Q30" t="n">
         <v>-0</v>
@@ -2063,49 +2063,49 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>174.1049732249577</v>
+        <v>174.1049968871647</v>
       </c>
       <c r="C31" t="n">
         <v>-0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.1094450984403</v>
+        <v>127.1094375110851</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
       </c>
       <c r="F31" t="n">
-        <v>165.2586001379259</v>
+        <v>165.2586487216252</v>
       </c>
       <c r="G31" t="n">
         <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>182.9332843825393</v>
+        <v>182.9331344894437</v>
       </c>
       <c r="I31" t="n">
         <v>-0</v>
       </c>
       <c r="J31" t="n">
-        <v>134.4943110821009</v>
+        <v>134.494448790603</v>
       </c>
       <c r="K31" t="n">
         <v>-0</v>
       </c>
       <c r="L31" t="n">
-        <v>176.2337063569768</v>
+        <v>176.2337684489262</v>
       </c>
       <c r="M31" t="n">
         <v>-0</v>
       </c>
       <c r="N31" t="n">
-        <v>257.1950150788737</v>
+        <v>257.1953716494945</v>
       </c>
       <c r="O31" t="n">
         <v>-0</v>
       </c>
       <c r="P31" t="n">
-        <v>211.1684178836819</v>
+        <v>211.1684029617749</v>
       </c>
       <c r="Q31" t="n">
         <v>-0</v>
@@ -2116,52 +2116,52 @@
         <v>41851</v>
       </c>
       <c r="B32" t="n">
-        <v>170.8690204708033</v>
+        <v>170.8690252963492</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.858621666121654</v>
+        <v>-1.858632232659404</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9045622997572</v>
+        <v>124.9045752780447</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.734633328762859</v>
+        <v>-1.734617252828389</v>
       </c>
       <c r="F32" t="n">
-        <v>158.3827842277524</v>
+        <v>158.3828353365602</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.160640296138825</v>
+        <v>-4.160637544995992</v>
       </c>
       <c r="H32" t="n">
-        <v>177.6718181633089</v>
+        <v>177.6717103628116</v>
       </c>
       <c r="I32" t="n">
-        <v>-2.87616670579638</v>
+        <v>-2.876146052663698</v>
       </c>
       <c r="J32" t="n">
-        <v>130.2441311509927</v>
+        <v>130.2442718722577</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.16011874176128</v>
+        <v>-3.160113266059347</v>
       </c>
       <c r="L32" t="n">
-        <v>179.922689359458</v>
+        <v>179.9227530000346</v>
       </c>
       <c r="M32" t="n">
         <v>-0</v>
       </c>
       <c r="N32" t="n">
-        <v>211.3238511127323</v>
+        <v>211.3241195213323</v>
       </c>
       <c r="O32" t="n">
-        <v>-17.83516836516998</v>
+        <v>-17.83517791707211</v>
       </c>
       <c r="P32" t="n">
-        <v>205.0948621553545</v>
+        <v>205.0948912755169</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2.876166705796385</v>
+        <v>-2.876146052663702</v>
       </c>
     </row>
     <row r="33">
@@ -2169,49 +2169,49 @@
         <v>41882</v>
       </c>
       <c r="B33" t="n">
-        <v>180.3297652400415</v>
+        <v>180.329783080571</v>
       </c>
       <c r="C33" t="n">
         <v>-0</v>
       </c>
       <c r="D33" t="n">
-        <v>130.6415247155448</v>
+        <v>130.6415100624463</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
       </c>
       <c r="F33" t="n">
-        <v>169.8111869291868</v>
+        <v>169.811245461723</v>
       </c>
       <c r="G33" t="n">
         <v>-0</v>
       </c>
       <c r="H33" t="n">
-        <v>181.2323407385269</v>
+        <v>181.2323212757686</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.9298163807388482</v>
+        <v>-0.9297458431584483</v>
       </c>
       <c r="J33" t="n">
-        <v>133.4287449613188</v>
+        <v>133.428914589025</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.792275979711615</v>
+        <v>-0.7922514357725532</v>
       </c>
       <c r="L33" t="n">
-        <v>186.7906691674245</v>
+        <v>186.7907455149002</v>
       </c>
       <c r="M33" t="n">
         <v>-0</v>
       </c>
       <c r="N33" t="n">
-        <v>227.9554674005069</v>
+        <v>227.9556929149104</v>
       </c>
       <c r="O33" t="n">
-        <v>-11.36862923622372</v>
+        <v>-11.36866443087936</v>
       </c>
       <c r="P33" t="n">
-        <v>221.2362443609165</v>
+        <v>221.2362136414778</v>
       </c>
       <c r="Q33" t="n">
         <v>-0</v>
@@ -2222,52 +2222,52 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>176.3171422138385</v>
+        <v>176.3171768361275</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.225158459482081</v>
+        <v>-2.225148933191249</v>
       </c>
       <c r="D34" t="n">
-        <v>127.1543245344615</v>
+        <v>127.1543117025099</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.669289254451259</v>
+        <v>-2.669288159842599</v>
       </c>
       <c r="F34" t="n">
-        <v>164.1026175033456</v>
+        <v>164.1026648348153</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.361715755642018</v>
+        <v>-3.361721193072818</v>
       </c>
       <c r="H34" t="n">
-        <v>178.1847770685076</v>
+        <v>178.1847285119761</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.595759065967401</v>
+        <v>-2.59570579748724</v>
       </c>
       <c r="J34" t="n">
-        <v>131.274564746371</v>
+        <v>131.2747607466615</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.393964703655351</v>
+        <v>-2.393918911072885</v>
       </c>
       <c r="L34" t="n">
-        <v>183.1132373982892</v>
+        <v>183.1133309178943</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.968744897979455</v>
+        <v>-1.968734900044927</v>
       </c>
       <c r="N34" t="n">
-        <v>221.2679511711698</v>
+        <v>221.2681255588859</v>
       </c>
       <c r="O34" t="n">
-        <v>-13.96880258222974</v>
+        <v>-13.96885405059709</v>
       </c>
       <c r="P34" t="n">
-        <v>214.7458495853362</v>
+        <v>214.7457765683774</v>
       </c>
       <c r="Q34" t="n">
-        <v>-2.933694157722212</v>
+        <v>-2.93371368379069</v>
       </c>
     </row>
     <row r="35">
@@ -2275,49 +2275,49 @@
         <v>41943</v>
       </c>
       <c r="B35" t="n">
-        <v>182.1272182857044</v>
+        <v>182.1271838418485</v>
       </c>
       <c r="C35" t="n">
         <v>-0</v>
       </c>
       <c r="D35" t="n">
-        <v>130.0031880532862</v>
+        <v>130.0031734717585</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.4886169720144538</v>
+        <v>-0.488616972034904</v>
       </c>
       <c r="F35" t="n">
-        <v>168.5723680576471</v>
+        <v>168.5724130200668</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.7295272437241234</v>
+        <v>-0.729534983556454</v>
       </c>
       <c r="H35" t="n">
-        <v>180.922323614277</v>
+        <v>180.9220466720991</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.09928642841022</v>
+        <v>-1.099356780256018</v>
       </c>
       <c r="J35" t="n">
-        <v>133.7202684828362</v>
+        <v>133.7204158274151</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.5755206990072568</v>
+        <v>-0.5755129450680607</v>
       </c>
       <c r="L35" t="n">
-        <v>187.3073492417833</v>
+        <v>187.3074447089962</v>
       </c>
       <c r="M35" t="n">
         <v>-0</v>
       </c>
       <c r="N35" t="n">
-        <v>230.9503725853113</v>
+        <v>230.9505862256208</v>
       </c>
       <c r="O35" t="n">
-        <v>-10.20418007927331</v>
+        <v>-10.20422150505881</v>
       </c>
       <c r="P35" t="n">
-        <v>224.1428716195601</v>
+        <v>224.1428260969477</v>
       </c>
       <c r="Q35" t="n">
         <v>-0</v>
@@ -2328,49 +2328,49 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>189.3155324338046</v>
+        <v>189.3155737748723</v>
       </c>
       <c r="C36" t="n">
         <v>-0</v>
       </c>
       <c r="D36" t="n">
-        <v>134.1419083990583</v>
+        <v>134.1418920579815</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
       </c>
       <c r="F36" t="n">
-        <v>175.660644804513</v>
+        <v>175.6606630613701</v>
       </c>
       <c r="G36" t="n">
         <v>-0</v>
       </c>
       <c r="H36" t="n">
-        <v>183.2536380218146</v>
+        <v>183.253554947608</v>
       </c>
       <c r="I36" t="n">
         <v>-0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.0237004027526</v>
+        <v>136.0238750603111</v>
       </c>
       <c r="K36" t="n">
         <v>-0</v>
       </c>
       <c r="L36" t="n">
-        <v>191.5820650659543</v>
+        <v>191.5820907601937</v>
       </c>
       <c r="M36" t="n">
         <v>-0</v>
       </c>
       <c r="N36" t="n">
-        <v>243.7349849061433</v>
+        <v>243.735211194161</v>
       </c>
       <c r="O36" t="n">
-        <v>-5.233394655259029</v>
+        <v>-5.233438054895086</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5506442767597</v>
+        <v>236.550597031284</v>
       </c>
       <c r="Q36" t="n">
         <v>-0</v>
@@ -2381,52 +2381,52 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>188.3948484366626</v>
+        <v>188.3948496544089</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4863224825274029</v>
+        <v>-0.4863435702117057</v>
       </c>
       <c r="D37" t="n">
-        <v>134.6322361259024</v>
+        <v>134.6322324882753</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
       </c>
       <c r="F37" t="n">
-        <v>173.3121658847199</v>
+        <v>173.3121823461151</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.336940851154583</v>
+        <v>-1.336941734322425</v>
       </c>
       <c r="H37" t="n">
-        <v>183.4909432868373</v>
+        <v>183.4907545318794</v>
       </c>
       <c r="I37" t="n">
         <v>-0</v>
       </c>
       <c r="J37" t="n">
-        <v>137.5488076464889</v>
+        <v>137.5489608731643</v>
       </c>
       <c r="K37" t="n">
         <v>-0</v>
       </c>
       <c r="L37" t="n">
-        <v>195.7237111748608</v>
+        <v>195.7237659374575</v>
       </c>
       <c r="M37" t="n">
         <v>-0</v>
       </c>
       <c r="N37" t="n">
-        <v>241.6886629522982</v>
+        <v>241.688887215907</v>
       </c>
       <c r="O37" t="n">
-        <v>-6.02902514336067</v>
+        <v>-6.029068227059602</v>
       </c>
       <c r="P37" t="n">
-        <v>234.5646397777907</v>
+        <v>234.5645928080788</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.8395684167511424</v>
+        <v>-0.8395684678583162</v>
       </c>
     </row>
     <row r="38">
@@ -2434,52 +2434,52 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>184.6861053448877</v>
+        <v>184.6861831563212</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.445349850274763</v>
+        <v>-2.445330051956656</v>
       </c>
       <c r="D38" t="n">
-        <v>135.0723894796659</v>
+        <v>135.0724073528062</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
       </c>
       <c r="F38" t="n">
-        <v>182.1083656092702</v>
+        <v>182.1083912408676</v>
       </c>
       <c r="G38" t="n">
         <v>-0</v>
       </c>
       <c r="H38" t="n">
-        <v>191.3852120469681</v>
+        <v>191.3851520792973</v>
       </c>
       <c r="I38" t="n">
         <v>-0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.742041158286</v>
+        <v>145.7422801227153</v>
       </c>
       <c r="K38" t="n">
         <v>-0</v>
       </c>
       <c r="L38" t="n">
-        <v>210.9792715716507</v>
+        <v>210.9794242809602</v>
       </c>
       <c r="M38" t="n">
         <v>-0</v>
       </c>
       <c r="N38" t="n">
-        <v>226.8267937128675</v>
+        <v>226.8270477845403</v>
       </c>
       <c r="O38" t="n">
-        <v>-11.80746887986658</v>
+        <v>-11.80749236278643</v>
       </c>
       <c r="P38" t="n">
-        <v>220.1408394969322</v>
+        <v>220.1408377287508</v>
       </c>
       <c r="Q38" t="n">
-        <v>-6.937121152216505</v>
+        <v>-6.937103312558146</v>
       </c>
     </row>
     <row r="39">
@@ -2487,49 +2487,49 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>194.8389853519809</v>
+        <v>194.8390079581229</v>
       </c>
       <c r="C39" t="n">
         <v>-0</v>
       </c>
       <c r="D39" t="n">
-        <v>138.8964969950073</v>
+        <v>138.8964897284034</v>
       </c>
       <c r="E39" t="n">
         <v>-0</v>
       </c>
       <c r="F39" t="n">
-        <v>173.1698386672555</v>
+        <v>173.1698669007929</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.908356028625867</v>
+        <v>-4.90835390899263</v>
       </c>
       <c r="H39" t="n">
-        <v>186.6547020826817</v>
+        <v>186.6545105928069</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.471721777085647</v>
+        <v>-2.471791272778748</v>
       </c>
       <c r="J39" t="n">
-        <v>140.8691591067969</v>
+        <v>140.8693232765166</v>
       </c>
       <c r="K39" t="n">
-        <v>-3.343497876633148</v>
+        <v>-3.343543714353584</v>
       </c>
       <c r="L39" t="n">
-        <v>200.6072078011516</v>
+        <v>200.6072521918742</v>
       </c>
       <c r="M39" t="n">
-        <v>-4.916152991350434</v>
+        <v>-4.916200773812633</v>
       </c>
       <c r="N39" t="n">
-        <v>252.6889880495064</v>
+        <v>252.6892677064278</v>
       </c>
       <c r="O39" t="n">
-        <v>-1.751988477687056</v>
+        <v>-1.752015953540403</v>
       </c>
       <c r="P39" t="n">
-        <v>245.2407189217036</v>
+        <v>245.2407136683148</v>
       </c>
       <c r="Q39" t="n">
         <v>-0</v>
@@ -2540,52 +2540,52 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>191.434253583996</v>
+        <v>191.4343062170229</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.74745919654335</v>
+        <v>-1.747443582668909</v>
       </c>
       <c r="D40" t="n">
-        <v>136.5981695395434</v>
+        <v>136.5982003941533</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.654705125894215</v>
+        <v>-1.654677766690941</v>
       </c>
       <c r="F40" t="n">
-        <v>168.5817298512822</v>
+        <v>168.5817454876698</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.427794825752579</v>
+        <v>-7.427799268901657</v>
       </c>
       <c r="H40" t="n">
-        <v>180.2409030958148</v>
+        <v>180.2407079794453</v>
       </c>
       <c r="I40" t="n">
-        <v>-5.822972857703566</v>
+        <v>-5.823045298328307</v>
       </c>
       <c r="J40" t="n">
-        <v>138.8100055669723</v>
+        <v>138.8101583587217</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.756373340335662</v>
+        <v>-4.756424668364374</v>
       </c>
       <c r="L40" t="n">
-        <v>190.6685261083229</v>
+        <v>190.6685467849681</v>
       </c>
       <c r="M40" t="n">
-        <v>-9.626891453376791</v>
+        <v>-9.62694706614813</v>
       </c>
       <c r="N40" t="n">
-        <v>244.0061295012849</v>
+        <v>244.0063857314001</v>
       </c>
       <c r="O40" t="n">
-        <v>-5.127970918699266</v>
+        <v>-5.128002822721228</v>
       </c>
       <c r="P40" t="n">
-        <v>236.8137966046769</v>
+        <v>236.8137781218179</v>
       </c>
       <c r="Q40" t="n">
-        <v>-3.436183988563971</v>
+        <v>-3.436189456655302</v>
       </c>
     </row>
     <row r="41">
@@ -2593,52 +2593,52 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>193.0454589292898</v>
+        <v>193.0455247487429</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9205172257754631</v>
+        <v>-0.9204949399893587</v>
       </c>
       <c r="D41" t="n">
-        <v>136.7627315663717</v>
+        <v>136.7627453356673</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.536226956618154</v>
+        <v>-1.536211891969587</v>
       </c>
       <c r="F41" t="n">
-        <v>163.0313925520457</v>
+        <v>163.0313509778933</v>
       </c>
       <c r="G41" t="n">
-        <v>-10.47561598469115</v>
+        <v>-10.47565141451488</v>
       </c>
       <c r="H41" t="n">
-        <v>179.0999821145329</v>
+        <v>179.0998030252058</v>
       </c>
       <c r="I41" t="n">
-        <v>-6.419111383287166</v>
+        <v>-6.419175636468025</v>
       </c>
       <c r="J41" t="n">
-        <v>136.3829992159503</v>
+        <v>136.3831441549529</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.421648734952992</v>
+        <v>-6.421702720639415</v>
       </c>
       <c r="L41" t="n">
-        <v>185.9124338816202</v>
+        <v>185.9124347126911</v>
       </c>
       <c r="M41" t="n">
-        <v>-11.88118505827598</v>
+        <v>-11.88124844576674</v>
       </c>
       <c r="N41" t="n">
-        <v>248.4975006237404</v>
+        <v>248.497776134059</v>
       </c>
       <c r="O41" t="n">
-        <v>-3.381680804531177</v>
+        <v>-3.381707633249547</v>
       </c>
       <c r="P41" t="n">
-        <v>241.1727799205599</v>
+        <v>241.1727752320188</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.658753496984516</v>
+        <v>-1.658753302193452</v>
       </c>
     </row>
     <row r="42">
@@ -2646,49 +2646,49 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>195.4087707369345</v>
+        <v>195.408759421054</v>
       </c>
       <c r="C42" t="n">
         <v>-0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.7169533375278</v>
+        <v>137.7169241318213</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.8492249142337758</v>
+        <v>-0.8492407539518018</v>
       </c>
       <c r="F42" t="n">
-        <v>164.9313723239547</v>
+        <v>164.9313297542715</v>
       </c>
       <c r="G42" t="n">
-        <v>-9.432292266117145</v>
+        <v>-9.432328389457165</v>
       </c>
       <c r="H42" t="n">
-        <v>163.6908611608283</v>
+        <v>163.6907133987037</v>
       </c>
       <c r="I42" t="n">
-        <v>-14.47047584812524</v>
+        <v>-14.47052625541133</v>
       </c>
       <c r="J42" t="n">
-        <v>136.0003493935658</v>
+        <v>136.0004892429582</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.684201543561517</v>
+        <v>-6.684258590955509</v>
       </c>
       <c r="L42" t="n">
-        <v>194.146674811606</v>
+        <v>194.1466546740138</v>
       </c>
       <c r="M42" t="n">
-        <v>-7.978317791436752</v>
+        <v>-7.978393942591447</v>
       </c>
       <c r="N42" t="n">
-        <v>263.8502254253436</v>
+        <v>263.8504962102262</v>
       </c>
       <c r="O42" t="n">
         <v>-0</v>
       </c>
       <c r="P42" t="n">
-        <v>246.7405791939799</v>
+        <v>246.7405161340173</v>
       </c>
       <c r="Q42" t="n">
         <v>-0</v>
@@ -2699,52 +2699,52 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>189.2953096182246</v>
+        <v>189.2953378924188</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.128550011166081</v>
+        <v>-3.128529932203457</v>
       </c>
       <c r="D43" t="n">
-        <v>133.5673595138936</v>
+        <v>133.5673693041841</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.836768814482991</v>
+        <v>-3.836756734918087</v>
       </c>
       <c r="F43" t="n">
-        <v>162.2414921846408</v>
+        <v>162.241476338372</v>
       </c>
       <c r="G43" t="n">
-        <v>-10.90936891238459</v>
+        <v>-10.9093901533721</v>
       </c>
       <c r="H43" t="n">
-        <v>163.7428634569658</v>
+        <v>163.7428112949262</v>
       </c>
       <c r="I43" t="n">
-        <v>-14.44330431507873</v>
+        <v>-14.44330476217819</v>
       </c>
       <c r="J43" t="n">
-        <v>132.5613255015751</v>
+        <v>132.5615040665469</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.043866513709471</v>
+        <v>-9.043893127697798</v>
       </c>
       <c r="L43" t="n">
-        <v>187.8207824387984</v>
+        <v>187.8208099562244</v>
       </c>
       <c r="M43" t="n">
-        <v>-10.97666560337299</v>
+        <v>-10.9767169967701</v>
       </c>
       <c r="N43" t="n">
-        <v>268.5671959332472</v>
+        <v>268.5674955669724</v>
       </c>
       <c r="O43" t="n">
         <v>-0</v>
       </c>
       <c r="P43" t="n">
-        <v>236.6435935668667</v>
+        <v>236.6435895072192</v>
       </c>
       <c r="Q43" t="n">
-        <v>-4.092146358777591</v>
+        <v>-4.092123492727865</v>
       </c>
     </row>
     <row r="44">
@@ -2752,52 +2752,52 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>195.2448052242232</v>
+        <v>195.2448773374745</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.08390898325235442</v>
+        <v>-0.0838662934378939</v>
       </c>
       <c r="D44" t="n">
-        <v>136.4292195366249</v>
+        <v>136.4292462895864</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.776342464901142</v>
+        <v>-1.77631806508672</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2120976913693</v>
+        <v>162.2120099809774</v>
       </c>
       <c r="G44" t="n">
-        <v>-10.92551012213798</v>
+        <v>-10.9255708231336</v>
       </c>
       <c r="H44" t="n">
-        <v>163.8162531516373</v>
+        <v>163.8162328329798</v>
       </c>
       <c r="I44" t="n">
-        <v>-14.40495772921322</v>
+        <v>-14.40494152592091</v>
       </c>
       <c r="J44" t="n">
-        <v>135.6294744246817</v>
+        <v>135.6296925679429</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.938675109278418</v>
+        <v>-6.938678018662506</v>
       </c>
       <c r="L44" t="n">
-        <v>192.568072104627</v>
+        <v>192.5682010295601</v>
       </c>
       <c r="M44" t="n">
-        <v>-8.726544238148543</v>
+        <v>-8.726549195092129</v>
       </c>
       <c r="N44" t="n">
-        <v>257.8413212896</v>
+        <v>257.8416312101502</v>
       </c>
       <c r="O44" t="n">
-        <v>-3.993739669647957</v>
+        <v>-3.993731383680207</v>
       </c>
       <c r="P44" t="n">
-        <v>246.6183267581924</v>
+        <v>246.6183213135177</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.0495469517769943</v>
+        <v>-0.04952361388155024</v>
       </c>
     </row>
     <row r="45">
@@ -2805,52 +2805,52 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>180.4782539270362</v>
+        <v>180.4782609091939</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.640658478937082</v>
+        <v>-7.640649557417658</v>
       </c>
       <c r="D45" t="n">
-        <v>128.3606219324601</v>
+        <v>128.3606347172487</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.585414528435478</v>
+        <v>-7.585400489066611</v>
       </c>
       <c r="F45" t="n">
-        <v>150.9372782366154</v>
+        <v>150.9372247364584</v>
       </c>
       <c r="G45" t="n">
-        <v>-17.11677948916151</v>
+        <v>-17.11682053309685</v>
       </c>
       <c r="H45" t="n">
-        <v>163.9457980042105</v>
+        <v>163.9456847238665</v>
       </c>
       <c r="I45" t="n">
-        <v>-14.33726971341114</v>
+        <v>-14.33730206200202</v>
       </c>
       <c r="J45" t="n">
-        <v>135.2422089355645</v>
+        <v>135.2424048469694</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.204394929063711</v>
+        <v>-7.204412656989405</v>
       </c>
       <c r="L45" t="n">
-        <v>191.7336718952883</v>
+        <v>191.7337173854259</v>
       </c>
       <c r="M45" t="n">
-        <v>-9.122033426789212</v>
+        <v>-9.122077643886715</v>
       </c>
       <c r="N45" t="n">
-        <v>225.6734908165012</v>
+        <v>225.6737206636919</v>
       </c>
       <c r="O45" t="n">
-        <v>-15.97131212086206</v>
+        <v>-15.97132028681562</v>
       </c>
       <c r="P45" t="n">
-        <v>215.8506573751825</v>
+        <v>215.8506130039735</v>
       </c>
       <c r="Q45" t="n">
-        <v>-12.51918996044532</v>
+        <v>-12.51918558574541</v>
       </c>
     </row>
     <row r="46">
@@ -2858,52 +2858,52 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>175.9245663335006</v>
+        <v>175.9245808209413</v>
       </c>
       <c r="C46" t="n">
-        <v>-9.970997888147073</v>
+        <v>-9.97098526076274</v>
       </c>
       <c r="D46" t="n">
-        <v>125.4125858973226</v>
+        <v>125.4125788104454</v>
       </c>
       <c r="E46" t="n">
-        <v>-9.707884208317635</v>
+        <v>-9.707884586805797</v>
       </c>
       <c r="F46" t="n">
-        <v>155.6640788582172</v>
+        <v>155.6640233447773</v>
       </c>
       <c r="G46" t="n">
-        <v>-14.52118174943789</v>
+        <v>-14.52122426424233</v>
       </c>
       <c r="H46" t="n">
-        <v>166.5348241323708</v>
+        <v>166.534696003699</v>
       </c>
       <c r="I46" t="n">
-        <v>-12.98448696678759</v>
+        <v>-12.98452664985315</v>
       </c>
       <c r="J46" t="n">
-        <v>137.2058247341502</v>
+        <v>137.2059956468873</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.857072095528645</v>
+        <v>-5.857109185227805</v>
       </c>
       <c r="L46" t="n">
-        <v>195.2570955160718</v>
+        <v>195.257155193325</v>
       </c>
       <c r="M46" t="n">
-        <v>-7.452000349825597</v>
+        <v>-7.452039051304806</v>
       </c>
       <c r="N46" t="n">
-        <v>230.1122629704699</v>
+        <v>230.1125298985613</v>
       </c>
       <c r="O46" t="n">
-        <v>-14.31855176100337</v>
+        <v>-14.31854796397787</v>
       </c>
       <c r="P46" t="n">
-        <v>203.895636318222</v>
+        <v>203.8956224061666</v>
       </c>
       <c r="Q46" t="n">
-        <v>-17.36436828336796</v>
+        <v>-17.36435280235022</v>
       </c>
     </row>
     <row r="47">
@@ -2911,52 +2911,52 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>192.5719370341724</v>
+        <v>192.5719372201439</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.451743282588462</v>
+        <v>-1.451737480609795</v>
       </c>
       <c r="D47" t="n">
-        <v>135.3768699532011</v>
+        <v>135.3768566084915</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.533992662127943</v>
+        <v>-2.533997170694632</v>
       </c>
       <c r="F47" t="n">
-        <v>156.5947025182384</v>
+        <v>156.5946390435264</v>
       </c>
       <c r="G47" t="n">
-        <v>-14.01015434171411</v>
+        <v>-14.01020130016694</v>
       </c>
       <c r="H47" t="n">
-        <v>165.4741300398791</v>
+        <v>165.4740290961626</v>
       </c>
       <c r="I47" t="n">
-        <v>-13.53870642875486</v>
+        <v>-13.53873208115899</v>
       </c>
       <c r="J47" t="n">
-        <v>136.7409435846957</v>
+        <v>136.741153833578</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.176047420534249</v>
+        <v>-6.176056997021225</v>
       </c>
       <c r="L47" t="n">
-        <v>194.310382193708</v>
+        <v>194.3104426466672</v>
       </c>
       <c r="M47" t="n">
-        <v>-7.900723731658994</v>
+        <v>-7.900761740678139</v>
       </c>
       <c r="N47" t="n">
-        <v>229.1715134306453</v>
+        <v>229.1717629323883</v>
       </c>
       <c r="O47" t="n">
-        <v>-14.66883636540398</v>
+        <v>-14.66883866620412</v>
       </c>
       <c r="P47" t="n">
-        <v>204.0355281907157</v>
+        <v>204.0353458352357</v>
       </c>
       <c r="Q47" t="n">
-        <v>-17.30767235076109</v>
+        <v>-17.30772512268969</v>
       </c>
     </row>
     <row r="48">
@@ -2964,52 +2964,52 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>192.9311136958332</v>
+        <v>192.9311031785243</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.267935431842388</v>
+        <v>-1.267935096599709</v>
       </c>
       <c r="D48" t="n">
-        <v>134.3695382186243</v>
+        <v>134.3694928690345</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.259231783610624</v>
+        <v>-3.259259372372159</v>
       </c>
       <c r="F48" t="n">
-        <v>156.8949053669786</v>
+        <v>156.8947538480648</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.84530587484887</v>
+        <v>-13.84540120364562</v>
       </c>
       <c r="H48" t="n">
-        <v>165.2189537559374</v>
+        <v>165.2188665216857</v>
       </c>
       <c r="I48" t="n">
-        <v>-13.67203767269606</v>
+        <v>-13.67205620359204</v>
       </c>
       <c r="J48" t="n">
-        <v>135.9712612573556</v>
+        <v>135.9714544928936</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.704160188286836</v>
+        <v>-6.704180572442383</v>
       </c>
       <c r="L48" t="n">
-        <v>192.9093565048523</v>
+        <v>192.9094615090278</v>
       </c>
       <c r="M48" t="n">
-        <v>-8.564782185562564</v>
+        <v>-8.564798597548897</v>
       </c>
       <c r="N48" t="n">
-        <v>230.5402726991511</v>
+        <v>230.5404412550529</v>
       </c>
       <c r="O48" t="n">
-        <v>-14.15918392488552</v>
+        <v>-14.15921693414186</v>
       </c>
       <c r="P48" t="n">
-        <v>205.2541592331818</v>
+        <v>205.2539023944243</v>
       </c>
       <c r="Q48" t="n">
-        <v>-16.813780731293</v>
+        <v>-16.81386356388241</v>
       </c>
     </row>
     <row r="49">
@@ -3017,52 +3017,52 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>188.1796235757453</v>
+        <v>188.1795932035247</v>
       </c>
       <c r="C49" t="n">
-        <v>-3.699499840220235</v>
+        <v>-3.699509806493544</v>
       </c>
       <c r="D49" t="n">
-        <v>131.6749590286017</v>
+        <v>131.6749378686424</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.199222530907447</v>
+        <v>-5.199232805582038</v>
       </c>
       <c r="F49" t="n">
-        <v>156.1841331230466</v>
+        <v>156.183843591362</v>
       </c>
       <c r="G49" t="n">
-        <v>-14.2356076830904</v>
+        <v>-14.23577874301038</v>
       </c>
       <c r="H49" t="n">
-        <v>163.4328951565072</v>
+        <v>163.4327689745043</v>
       </c>
       <c r="I49" t="n">
-        <v>-14.60526473884574</v>
+        <v>-14.60530391261043</v>
       </c>
       <c r="J49" t="n">
-        <v>135.5513918041812</v>
+        <v>135.5515701826313</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.992251016326248</v>
+        <v>-6.992281122199666</v>
       </c>
       <c r="L49" t="n">
-        <v>192.1356568006182</v>
+        <v>192.1356336607492</v>
       </c>
       <c r="M49" t="n">
-        <v>-8.931500535886999</v>
+        <v>-8.931577420135937</v>
       </c>
       <c r="N49" t="n">
-        <v>221.7956254617994</v>
+        <v>221.7958793832406</v>
       </c>
       <c r="O49" t="n">
-        <v>-17.41522091293418</v>
+        <v>-17.41521850400858</v>
       </c>
       <c r="P49" t="n">
-        <v>197.4686422149225</v>
+        <v>197.4684768129174</v>
       </c>
       <c r="Q49" t="n">
-        <v>-19.96912592975691</v>
+        <v>-19.96917251090522</v>
       </c>
     </row>
     <row r="50">
@@ -3070,52 +3070,52 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>178.9859491279205</v>
+        <v>178.9859836743019</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.404342111707436</v>
+        <v>-8.404319128481525</v>
       </c>
       <c r="D50" t="n">
-        <v>127.6129152344037</v>
+        <v>127.612915478007</v>
       </c>
       <c r="E50" t="n">
-        <v>-8.123733862783636</v>
+        <v>-8.123728880737106</v>
       </c>
       <c r="F50" t="n">
-        <v>156.2974389611801</v>
+        <v>156.2971838152629</v>
       </c>
       <c r="G50" t="n">
-        <v>-14.17338877417069</v>
+        <v>-14.1735409608145</v>
       </c>
       <c r="H50" t="n">
-        <v>164.4984184948832</v>
+        <v>164.4983240102341</v>
       </c>
       <c r="I50" t="n">
-        <v>-14.04852196495027</v>
+        <v>-14.04854440219222</v>
       </c>
       <c r="J50" t="n">
-        <v>140.1184951400369</v>
+        <v>140.1186812781698</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.858561313918737</v>
+        <v>-3.858591233656016</v>
       </c>
       <c r="L50" t="n">
-        <v>199.9750419262671</v>
+        <v>199.9751013188623</v>
       </c>
       <c r="M50" t="n">
-        <v>-5.215787107145472</v>
+        <v>-5.215827562143485</v>
       </c>
       <c r="N50" t="n">
-        <v>198.8063374763367</v>
+        <v>198.8066035633789</v>
       </c>
       <c r="O50" t="n">
-        <v>-25.97519708782666</v>
+        <v>-25.97518059894827</v>
       </c>
       <c r="P50" t="n">
-        <v>177.000864843186</v>
+        <v>177.0007508488293</v>
       </c>
       <c r="Q50" t="n">
-        <v>-28.26438787596696</v>
+        <v>-28.26441574245099</v>
       </c>
     </row>
     <row r="51">
@@ -3123,52 +3123,52 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>179.5144964957516</v>
+        <v>179.5145080081352</v>
       </c>
       <c r="C51" t="n">
-        <v>-8.133859182083603</v>
+        <v>-8.133847970791773</v>
       </c>
       <c r="D51" t="n">
-        <v>129.9207081116161</v>
+        <v>129.9207148053839</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.46221400653025</v>
+        <v>-6.462204293694257</v>
       </c>
       <c r="F51" t="n">
-        <v>163.9554960519676</v>
+        <v>163.9552442638661</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.968168950706616</v>
+        <v>-9.968319885375875</v>
       </c>
       <c r="H51" t="n">
-        <v>166.9428444009849</v>
+        <v>166.9426839292492</v>
       </c>
       <c r="I51" t="n">
-        <v>-12.771293761184</v>
+        <v>-12.77135027691219</v>
       </c>
       <c r="J51" t="n">
-        <v>142.65132006426</v>
+        <v>142.6514909181588</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.120679159878994</v>
+        <v>-2.120722416277589</v>
       </c>
       <c r="L51" t="n">
-        <v>205.0796264818436</v>
+        <v>205.0796600772027</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.796315034106805</v>
+        <v>-2.796369467716834</v>
       </c>
       <c r="N51" t="n">
-        <v>204.9413469516894</v>
+        <v>204.9416195457703</v>
       </c>
       <c r="O51" t="n">
-        <v>-23.69084904821069</v>
+        <v>-23.69083268505058</v>
       </c>
       <c r="P51" t="n">
-        <v>178.5710697616913</v>
+        <v>178.5708818257947</v>
       </c>
       <c r="Q51" t="n">
-        <v>-27.62800900240079</v>
+        <v>-27.62806667357224</v>
       </c>
     </row>
     <row r="52">
@@ -3176,52 +3176,52 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>193.2621705808371</v>
+        <v>193.2621352352193</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.098517813710244</v>
+        <v>-1.09853017448887</v>
       </c>
       <c r="D52" t="n">
-        <v>137.5483995843585</v>
+        <v>137.5483956744001</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.9705769690486183</v>
+        <v>-0.9705746031734664</v>
       </c>
       <c r="F52" t="n">
-        <v>163.2651805937373</v>
+        <v>163.2649404309876</v>
       </c>
       <c r="G52" t="n">
-        <v>-10.34723745528671</v>
+        <v>-10.34738195284835</v>
       </c>
       <c r="H52" t="n">
-        <v>166.832476978917</v>
+        <v>166.832277944203</v>
       </c>
       <c r="I52" t="n">
-        <v>-12.82896144662715</v>
+        <v>-12.82903812983429</v>
       </c>
       <c r="J52" t="n">
-        <v>142.9955000351783</v>
+        <v>142.9956592405183</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.884522201884654</v>
+        <v>-1.884573838068373</v>
       </c>
       <c r="L52" t="n">
-        <v>204.9068695297065</v>
+        <v>204.9068688761466</v>
       </c>
       <c r="M52" t="n">
-        <v>-2.878198411014003</v>
+        <v>-2.878269018654109</v>
       </c>
       <c r="N52" t="n">
-        <v>204.7501305389799</v>
+        <v>204.7503753177414</v>
       </c>
       <c r="O52" t="n">
-        <v>-23.76204777076688</v>
+        <v>-23.76204168509179</v>
       </c>
       <c r="P52" t="n">
-        <v>180.1329611137205</v>
+        <v>180.1328298231447</v>
       </c>
       <c r="Q52" t="n">
-        <v>-26.99499948401048</v>
+        <v>-26.99503403595645</v>
       </c>
     </row>
     <row r="53">
@@ -3229,52 +3229,52 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>193.8199910091918</v>
+        <v>193.820053954141</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.8130544610413397</v>
+        <v>-0.8130165053091039</v>
       </c>
       <c r="D53" t="n">
-        <v>138.6057387808136</v>
+        <v>138.6057531819906</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.209334447220937</v>
+        <v>-0.2093188582240871</v>
       </c>
       <c r="F53" t="n">
-        <v>164.116757067573</v>
+        <v>164.1164946708387</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.879616722440856</v>
+        <v>-9.879773495023452</v>
       </c>
       <c r="H53" t="n">
-        <v>167.2657132747607</v>
+        <v>167.2655396026871</v>
       </c>
       <c r="I53" t="n">
-        <v>-12.60259270517109</v>
+        <v>-12.60265606530265</v>
       </c>
       <c r="J53" t="n">
-        <v>145.1109709269398</v>
+        <v>145.1111374721993</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.4330049355222236</v>
+        <v>-0.4330539154352328</v>
       </c>
       <c r="L53" t="n">
-        <v>206.9809104263022</v>
+        <v>206.9808007215424</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.895144065842801</v>
+        <v>-1.895267073102335</v>
       </c>
       <c r="N53" t="n">
-        <v>205.9692445250274</v>
+        <v>205.9695034687581</v>
       </c>
       <c r="O53" t="n">
-        <v>-23.30811519653304</v>
+        <v>-23.30810434303071</v>
       </c>
       <c r="P53" t="n">
-        <v>181.2055006606493</v>
+        <v>181.2053797680173</v>
       </c>
       <c r="Q53" t="n">
-        <v>-26.56031640495134</v>
+        <v>-26.56034663168349</v>
       </c>
     </row>
     <row r="54">
@@ -3282,52 +3282,52 @@
         <v>42521</v>
       </c>
       <c r="B54" t="n">
-        <v>197.3978914178284</v>
+        <v>197.3979204426505</v>
       </c>
       <c r="C54" t="n">
         <v>-0</v>
       </c>
       <c r="D54" t="n">
-        <v>139.7545701209681</v>
+        <v>139.7545879307713</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
       </c>
       <c r="F54" t="n">
-        <v>163.9851223858444</v>
+        <v>163.9848411354196</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.951900431807106</v>
+        <v>-9.952067547220638</v>
       </c>
       <c r="H54" t="n">
-        <v>153.6351711087244</v>
+        <v>153.6350007584288</v>
       </c>
       <c r="I54" t="n">
-        <v>-19.72463835344785</v>
+        <v>-19.72470220951484</v>
       </c>
       <c r="J54" t="n">
-        <v>146.1634554228544</v>
+        <v>146.1636233935688</v>
       </c>
       <c r="K54" t="n">
         <v>-0</v>
       </c>
       <c r="L54" t="n">
-        <v>200.2849601096259</v>
+        <v>200.2848936622409</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.068892020699257</v>
+        <v>-5.068992227638981</v>
       </c>
       <c r="N54" t="n">
-        <v>218.8998672819136</v>
+        <v>218.9001556428348</v>
       </c>
       <c r="O54" t="n">
-        <v>-18.49344573850283</v>
+        <v>-18.49342930323157</v>
       </c>
       <c r="P54" t="n">
-        <v>186.9633782699733</v>
+        <v>186.9632870312996</v>
       </c>
       <c r="Q54" t="n">
-        <v>-24.22674094357685</v>
+        <v>-24.22675855563569</v>
       </c>
     </row>
     <row r="55">
@@ -3335,52 +3335,52 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>200.0201265801502</v>
+        <v>200.0200338157752</v>
       </c>
       <c r="C55" t="n">
         <v>-0</v>
       </c>
       <c r="D55" t="n">
-        <v>143.6526345077666</v>
+        <v>143.6525666458683</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
       </c>
       <c r="F55" t="n">
-        <v>166.6868024407661</v>
+        <v>166.6864968529691</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.468344173486496</v>
+        <v>-8.46852486193265</v>
       </c>
       <c r="H55" t="n">
-        <v>158.389182488005</v>
+        <v>158.389030073575</v>
       </c>
       <c r="I55" t="n">
-        <v>-17.24063693639274</v>
+        <v>-17.24069064252742</v>
       </c>
       <c r="J55" t="n">
-        <v>152.5538012641395</v>
+        <v>152.5539547012035</v>
       </c>
       <c r="K55" t="n">
         <v>-0</v>
       </c>
       <c r="L55" t="n">
-        <v>211.6095399732247</v>
+        <v>211.6094407426721</v>
       </c>
       <c r="M55" t="n">
         <v>-0</v>
       </c>
       <c r="N55" t="n">
-        <v>219.2553297077235</v>
+        <v>219.2554374002801</v>
       </c>
       <c r="O55" t="n">
-        <v>-18.36109062172294</v>
+        <v>-18.3611416052377</v>
       </c>
       <c r="P55" t="n">
-        <v>187.266980354354</v>
+        <v>187.2667342581833</v>
       </c>
       <c r="Q55" t="n">
-        <v>-24.1036958873593</v>
+        <v>-24.10377622924755</v>
       </c>
     </row>
     <row r="56">
@@ -3388,52 +3388,52 @@
         <v>42582</v>
       </c>
       <c r="B56" t="n">
-        <v>209.0133091060041</v>
+        <v>209.0133325596238</v>
       </c>
       <c r="C56" t="n">
         <v>-0</v>
       </c>
       <c r="D56" t="n">
-        <v>149.6416770798978</v>
+        <v>149.6416872081357</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
       </c>
       <c r="F56" t="n">
-        <v>170.7046495327406</v>
+        <v>170.7043391004338</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.262049543071109</v>
+        <v>-6.262233202285583</v>
       </c>
       <c r="H56" t="n">
-        <v>160.4348712130738</v>
+        <v>160.4346922633729</v>
       </c>
       <c r="I56" t="n">
-        <v>-16.17175146546788</v>
+        <v>-16.17181870153677</v>
       </c>
       <c r="J56" t="n">
-        <v>154.405035601947</v>
+        <v>154.4051880370114</v>
       </c>
       <c r="K56" t="n">
         <v>-0</v>
       </c>
       <c r="L56" t="n">
-        <v>215.4865722198045</v>
+        <v>215.4864422636637</v>
       </c>
       <c r="M56" t="n">
         <v>-0</v>
       </c>
       <c r="N56" t="n">
-        <v>235.4694093558195</v>
+        <v>235.4697175858411</v>
       </c>
       <c r="O56" t="n">
-        <v>-12.32383815991222</v>
+        <v>-12.323821209733</v>
       </c>
       <c r="P56" t="n">
-        <v>201.1154999728806</v>
+        <v>201.1154001553662</v>
       </c>
       <c r="Q56" t="n">
-        <v>-18.49111296169497</v>
+        <v>-18.49113258475546</v>
       </c>
     </row>
     <row r="57">
@@ -3441,52 +3441,52 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>208.3165127845772</v>
+        <v>208.3166151289708</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.333374139860886</v>
+        <v>-0.3333363580786158</v>
       </c>
       <c r="D57" t="n">
-        <v>148.6974227855147</v>
+        <v>148.6974120766169</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6310102324494473</v>
+        <v>-0.6310241144270227</v>
       </c>
       <c r="F57" t="n">
-        <v>171.3909814886812</v>
+        <v>171.3906689916978</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.885168473580237</v>
+        <v>-5.885353319602857</v>
       </c>
       <c r="H57" t="n">
-        <v>162.3162314200624</v>
+        <v>162.3160391338577</v>
       </c>
       <c r="I57" t="n">
-        <v>-15.1887286985224</v>
+        <v>-15.18880259498672</v>
       </c>
       <c r="J57" t="n">
-        <v>153.1374166517237</v>
+        <v>153.1375673401658</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.8209699543032819</v>
+        <v>-0.8209702750025458</v>
       </c>
       <c r="L57" t="n">
-        <v>219.6086857320084</v>
+        <v>219.6085945138162</v>
       </c>
       <c r="M57" t="n">
         <v>-0</v>
       </c>
       <c r="N57" t="n">
-        <v>235.7010808276628</v>
+        <v>235.7013893354896</v>
       </c>
       <c r="O57" t="n">
-        <v>-12.23757614602838</v>
+        <v>-12.23755918864984</v>
       </c>
       <c r="P57" t="n">
-        <v>201.3133716370458</v>
+        <v>201.313271699584</v>
       </c>
       <c r="Q57" t="n">
-        <v>-18.41091874929116</v>
+        <v>-18.41093840046902</v>
       </c>
     </row>
     <row r="58">
@@ -3494,52 +3494,52 @@
         <v>42643</v>
       </c>
       <c r="B58" t="n">
-        <v>208.153372290767</v>
+        <v>208.1533876074732</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.4114268220120809</v>
+        <v>-0.411430668857091</v>
       </c>
       <c r="D58" t="n">
-        <v>148.1647352430736</v>
+        <v>148.1647446615993</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9869856216831716</v>
+        <v>-0.9869860291551701</v>
       </c>
       <c r="F58" t="n">
-        <v>173.7100069560141</v>
+        <v>173.7096816207734</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.611736877192932</v>
+        <v>-4.611928952238959</v>
       </c>
       <c r="H58" t="n">
-        <v>170.7098894722645</v>
+        <v>170.70968782374</v>
       </c>
       <c r="I58" t="n">
-        <v>-10.80298856613313</v>
+        <v>-10.80306598026519</v>
       </c>
       <c r="J58" t="n">
-        <v>157.4330140739324</v>
+        <v>157.433172273898</v>
       </c>
       <c r="K58" t="n">
         <v>-0</v>
       </c>
       <c r="L58" t="n">
-        <v>228.6720081734217</v>
+        <v>228.6719536407632</v>
       </c>
       <c r="M58" t="n">
         <v>-0</v>
       </c>
       <c r="N58" t="n">
-        <v>235.0478733466385</v>
+        <v>235.0481552005232</v>
       </c>
       <c r="O58" t="n">
-        <v>-12.48079553056808</v>
+        <v>-12.48078822632151</v>
       </c>
       <c r="P58" t="n">
-        <v>200.7554641386084</v>
+        <v>200.755342443135</v>
       </c>
       <c r="Q58" t="n">
-        <v>-18.63702971176841</v>
+        <v>-18.63705823890932</v>
       </c>
     </row>
     <row r="59">
@@ -3547,52 +3547,52 @@
         <v>42674</v>
       </c>
       <c r="B59" t="n">
-        <v>202.2595156106254</v>
+        <v>202.2595428894716</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.231274373993792</v>
+        <v>-3.23127218127371</v>
       </c>
       <c r="D59" t="n">
-        <v>143.5557899256889</v>
+        <v>143.5557992356391</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.066973367960488</v>
+        <v>-4.066973639525853</v>
       </c>
       <c r="F59" t="n">
-        <v>167.2958832614</v>
+        <v>167.2955615455635</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.13388352496213</v>
+        <v>-8.134073116769102</v>
       </c>
       <c r="H59" t="n">
-        <v>166.1657319757179</v>
+        <v>166.1655466337919</v>
       </c>
       <c r="I59" t="n">
-        <v>-13.17733998437722</v>
+        <v>-13.17740962217179</v>
       </c>
       <c r="J59" t="n">
-        <v>153.1659596825388</v>
+        <v>153.1661141259205</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.710393634075912</v>
+        <v>-2.710393296626039</v>
       </c>
       <c r="L59" t="n">
-        <v>221.6697222630327</v>
+        <v>221.6696504138232</v>
       </c>
       <c r="M59" t="n">
-        <v>-3.06215262913971</v>
+        <v>-3.062160932048696</v>
       </c>
       <c r="N59" t="n">
-        <v>202.7817626940993</v>
+        <v>202.782048164136</v>
       </c>
       <c r="O59" t="n">
-        <v>-24.49496224233541</v>
+        <v>-24.49494018773823</v>
       </c>
       <c r="P59" t="n">
-        <v>193.372453625206</v>
+        <v>193.3723364052221</v>
       </c>
       <c r="Q59" t="n">
-        <v>-21.62924547843324</v>
+        <v>-21.62927295645611</v>
       </c>
     </row>
     <row r="60">
@@ -3600,52 +3600,52 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>207.7728096680704</v>
+        <v>207.7728696787622</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5935026067189877</v>
+        <v>-0.5934850498150597</v>
       </c>
       <c r="D60" t="n">
-        <v>144.3954230459165</v>
+        <v>144.3954297062799</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.505877597977055</v>
+        <v>-3.505879678139933</v>
       </c>
       <c r="F60" t="n">
-        <v>165.0231409640445</v>
+        <v>165.0228250887359</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.381899940765811</v>
+        <v>-9.382086149744334</v>
       </c>
       <c r="H60" t="n">
-        <v>165.3848800346001</v>
+        <v>165.3846314898651</v>
       </c>
       <c r="I60" t="n">
-        <v>-13.58534012857133</v>
+        <v>-13.58544291808978</v>
       </c>
       <c r="J60" t="n">
-        <v>146.2976229497178</v>
+        <v>146.2977542757375</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.073097844004489</v>
+        <v>-7.073107806522063</v>
       </c>
       <c r="L60" t="n">
-        <v>207.1909933297965</v>
+        <v>207.1909030751766</v>
       </c>
       <c r="M60" t="n">
-        <v>-9.393810381607469</v>
+        <v>-9.393828243288919</v>
       </c>
       <c r="N60" t="n">
-        <v>217.4356813924655</v>
+        <v>217.4360338347142</v>
       </c>
       <c r="O60" t="n">
-        <v>-19.03862992764409</v>
+        <v>-19.03858902370694</v>
       </c>
       <c r="P60" t="n">
-        <v>207.3464134935892</v>
+        <v>207.3463319951803</v>
       </c>
       <c r="Q60" t="n">
-        <v>-15.96582363106971</v>
+        <v>-15.96583518429536</v>
       </c>
     </row>
     <row r="61">
@@ -3653,52 +3653,52 @@
         <v>42735</v>
       </c>
       <c r="B61" t="n">
-        <v>212.9482963554979</v>
+        <v>212.9483397247774</v>
       </c>
       <c r="C61" t="n">
         <v>-0</v>
       </c>
       <c r="D61" t="n">
-        <v>146.9312953726195</v>
+        <v>146.9313249520887</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.811247882387183</v>
+        <v>-1.811234761258173</v>
       </c>
       <c r="F61" t="n">
-        <v>165.1532616007626</v>
+        <v>165.1529819753536</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.310447629235368</v>
+        <v>-9.310613942598463</v>
       </c>
       <c r="H61" t="n">
-        <v>165.5043937756032</v>
+        <v>165.5042572266673</v>
       </c>
       <c r="I61" t="n">
-        <v>-13.52289343286016</v>
+        <v>-13.52293768427066</v>
       </c>
       <c r="J61" t="n">
-        <v>148.7069407468047</v>
+        <v>148.707063129293</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.542721378014074</v>
+        <v>-5.542738559204965</v>
       </c>
       <c r="L61" t="n">
-        <v>207.7144574765685</v>
+        <v>207.7143735189528</v>
       </c>
       <c r="M61" t="n">
-        <v>-9.164895548107161</v>
+        <v>-9.164910601469812</v>
       </c>
       <c r="N61" t="n">
-        <v>226.1320705693776</v>
+        <v>226.1324584255742</v>
       </c>
       <c r="O61" t="n">
-        <v>-15.80056164953852</v>
+        <v>-15.80051117199185</v>
       </c>
       <c r="P61" t="n">
-        <v>215.6392801226064</v>
+        <v>215.6392156933728</v>
       </c>
       <c r="Q61" t="n">
-        <v>-12.60485777125563</v>
+        <v>-12.60486154764782</v>
       </c>
     </row>
     <row r="62">
@@ -3706,52 +3706,52 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>217.5653211241463</v>
+        <v>217.5653458603403</v>
       </c>
       <c r="C62" t="n">
         <v>-0</v>
       </c>
       <c r="D62" t="n">
-        <v>150.7373081265733</v>
+        <v>150.7373092373554</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
       </c>
       <c r="F62" t="n">
-        <v>165.2430657332549</v>
+        <v>165.242846711443</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.261134061354062</v>
+        <v>-9.261267102797698</v>
       </c>
       <c r="H62" t="n">
-        <v>165.6807890732746</v>
+        <v>165.6807003829175</v>
       </c>
       <c r="I62" t="n">
-        <v>-13.43072575920095</v>
+        <v>-13.43074497531009</v>
       </c>
       <c r="J62" t="n">
-        <v>148.9395986814854</v>
+        <v>148.9397171087158</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.394939201544094</v>
+        <v>-5.394959043577828</v>
       </c>
       <c r="L62" t="n">
-        <v>207.5219356555536</v>
+        <v>207.5218626172082</v>
       </c>
       <c r="M62" t="n">
-        <v>-9.249086797640814</v>
+        <v>-9.249097096000312</v>
       </c>
       <c r="N62" t="n">
-        <v>233.9727862322732</v>
+        <v>233.9730924406559</v>
       </c>
       <c r="O62" t="n">
-        <v>-12.881100232946</v>
+        <v>-12.881083413793</v>
       </c>
       <c r="P62" t="n">
-        <v>223.1161774814625</v>
+        <v>223.1160201349937</v>
       </c>
       <c r="Q62" t="n">
-        <v>-9.574591171703723</v>
+        <v>-9.574631831519689</v>
       </c>
     </row>
     <row r="63">
@@ -3759,52 +3759,52 @@
         <v>42794</v>
       </c>
       <c r="B63" t="n">
-        <v>228.5367762395643</v>
+        <v>228.5367859779849</v>
       </c>
       <c r="C63" t="n">
         <v>-0</v>
       </c>
       <c r="D63" t="n">
-        <v>157.9857182970421</v>
+        <v>157.9857192872507</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
       </c>
       <c r="F63" t="n">
-        <v>170.4238990995191</v>
+        <v>170.4236398720866</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.416216229638319</v>
+        <v>-6.416371749353382</v>
       </c>
       <c r="H63" t="n">
-        <v>165.7416271899252</v>
+        <v>165.7414102841603</v>
       </c>
       <c r="I63" t="n">
-        <v>-13.39893745330215</v>
+        <v>-13.3990236528443</v>
       </c>
       <c r="J63" t="n">
-        <v>149.7052117906633</v>
+        <v>149.7053346729286</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.908628808719929</v>
+        <v>-4.908646309638428</v>
       </c>
       <c r="L63" t="n">
-        <v>209.0051820760546</v>
+        <v>209.0051028434618</v>
       </c>
       <c r="M63" t="n">
-        <v>-8.600451911216037</v>
+        <v>-8.600464763683899</v>
       </c>
       <c r="N63" t="n">
-        <v>252.2973329825888</v>
+        <v>252.2976881591487</v>
       </c>
       <c r="O63" t="n">
-        <v>-6.058023167767033</v>
+        <v>-6.05799572784359</v>
       </c>
       <c r="P63" t="n">
-        <v>240.590444001296</v>
+        <v>240.5902981583517</v>
       </c>
       <c r="Q63" t="n">
-        <v>-2.49255116964318</v>
+        <v>-2.492585357292972</v>
       </c>
     </row>
     <row r="64">
@@ -3812,52 +3812,52 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>228.5733011016948</v>
+        <v>228.5733575264541</v>
       </c>
       <c r="C64" t="n">
         <v>-0</v>
       </c>
       <c r="D64" t="n">
-        <v>157.7181879285551</v>
+        <v>157.7181924813796</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1693383246098384</v>
+        <v>-0.1693360685244024</v>
       </c>
       <c r="F64" t="n">
-        <v>173.6530999505206</v>
+        <v>173.6528379483504</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.642985856504307</v>
+        <v>-4.643143149473747</v>
       </c>
       <c r="H64" t="n">
-        <v>165.7035722317049</v>
+        <v>165.7033858196691</v>
       </c>
       <c r="I64" t="n">
-        <v>-13.41882141288986</v>
+        <v>-13.41889168548843</v>
       </c>
       <c r="J64" t="n">
-        <v>149.7022978781358</v>
+        <v>149.7024220614491</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.91047969910949</v>
+        <v>-4.910496371755169</v>
       </c>
       <c r="L64" t="n">
-        <v>217.0783515868065</v>
+        <v>217.0782692937243</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.069993778085294</v>
+        <v>-5.070007127000911</v>
       </c>
       <c r="N64" t="n">
-        <v>252.2394044788778</v>
+        <v>252.2398059167558</v>
       </c>
       <c r="O64" t="n">
-        <v>-6.07959263142016</v>
+        <v>-6.07954794222108</v>
       </c>
       <c r="P64" t="n">
-        <v>240.5352034473694</v>
+        <v>240.5351018303275</v>
       </c>
       <c r="Q64" t="n">
-        <v>-2.514939280308664</v>
+        <v>-2.514955549626595</v>
       </c>
     </row>
     <row r="65">
@@ -3865,52 +3865,52 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>232.1648688184168</v>
+        <v>232.1649327684912</v>
       </c>
       <c r="C65" t="n">
         <v>-0</v>
       </c>
       <c r="D65" t="n">
-        <v>160.1102504344049</v>
+        <v>160.1102543793356</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
       </c>
       <c r="F65" t="n">
-        <v>180.6450356287914</v>
+        <v>180.6447935168057</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.8035490163139918</v>
+        <v>-0.8036959275127622</v>
       </c>
       <c r="H65" t="n">
-        <v>171.8001560725269</v>
+        <v>171.7999026476509</v>
       </c>
       <c r="I65" t="n">
-        <v>-10.23331727930726</v>
+        <v>-10.23342156842535</v>
       </c>
       <c r="J65" t="n">
-        <v>153.5425482880142</v>
+        <v>153.5426948791446</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.471188021650456</v>
+        <v>-2.471192912243918</v>
       </c>
       <c r="L65" t="n">
-        <v>228.6345081978766</v>
+        <v>228.6344679569259</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.01639902314437847</v>
+        <v>-0.01639277718165042</v>
       </c>
       <c r="N65" t="n">
-        <v>259.2030076724708</v>
+        <v>259.2034390993805</v>
       </c>
       <c r="O65" t="n">
-        <v>-3.486720791881051</v>
+        <v>-3.486667829188851</v>
       </c>
       <c r="P65" t="n">
-        <v>244.9864430903343</v>
+        <v>244.986316678798</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.7109232333715544</v>
+        <v>-0.7109490904470949</v>
       </c>
     </row>
     <row r="66">
@@ -3918,49 +3918,49 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>236.5799335547237</v>
+        <v>236.5799251567595</v>
       </c>
       <c r="C66" t="n">
         <v>-0</v>
       </c>
       <c r="D66" t="n">
-        <v>162.8854679730421</v>
+        <v>162.8854248419066</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
       </c>
       <c r="F66" t="n">
-        <v>186.8010632646406</v>
+        <v>186.8007579366784</v>
       </c>
       <c r="G66" t="n">
         <v>-0</v>
       </c>
       <c r="H66" t="n">
-        <v>183.6495645188161</v>
+        <v>183.6492949027963</v>
       </c>
       <c r="I66" t="n">
-        <v>-4.041925415979182</v>
+        <v>-4.042036225096408</v>
       </c>
       <c r="J66" t="n">
-        <v>157.2852822529692</v>
+        <v>157.2854005158152</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.09383789151990597</v>
+        <v>-0.09386316488981501</v>
       </c>
       <c r="L66" t="n">
-        <v>246.0599066061513</v>
+        <v>246.0597978486711</v>
       </c>
       <c r="M66" t="n">
         <v>-0</v>
       </c>
       <c r="N66" t="n">
-        <v>242.3902315455749</v>
+        <v>242.3906165901315</v>
       </c>
       <c r="O66" t="n">
-        <v>-9.746895668590366</v>
+        <v>-9.746852991862967</v>
       </c>
       <c r="P66" t="n">
-        <v>251.2238308039631</v>
+        <v>251.2235901303588</v>
       </c>
       <c r="Q66" t="n">
         <v>-0</v>
@@ -3971,49 +3971,49 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>237.6802602593629</v>
+        <v>237.6802430215089</v>
       </c>
       <c r="C67" t="n">
         <v>-0</v>
       </c>
       <c r="D67" t="n">
-        <v>163.6496520357443</v>
+        <v>163.6496293062046</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
       </c>
       <c r="F67" t="n">
-        <v>182.2428336593139</v>
+        <v>182.2425520932651</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.44015185227775</v>
+        <v>-2.440143120274932</v>
       </c>
       <c r="H67" t="n">
-        <v>187.5048869698288</v>
+        <v>187.5046314977947</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.027494724193791</v>
+        <v>-2.027597511793787</v>
       </c>
       <c r="J67" t="n">
-        <v>157.0743026057852</v>
+        <v>157.0744275491876</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.2278502195091188</v>
+        <v>-0.227871114790317</v>
       </c>
       <c r="L67" t="n">
-        <v>233.4043244766155</v>
+        <v>233.404251472123</v>
       </c>
       <c r="M67" t="n">
-        <v>-5.143293072037374</v>
+        <v>-5.143280815150245</v>
       </c>
       <c r="N67" t="n">
-        <v>265.9042478746252</v>
+        <v>265.9046904553228</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.9915388397933449</v>
+        <v>-0.9914845078434227</v>
       </c>
       <c r="P67" t="n">
-        <v>253.8352727502908</v>
+        <v>253.8350967822873</v>
       </c>
       <c r="Q67" t="n">
         <v>-0</v>
@@ -4024,49 +4024,49 @@
         <v>42947</v>
       </c>
       <c r="B68" t="n">
-        <v>243.9426846064379</v>
+        <v>243.9427072805101</v>
       </c>
       <c r="C68" t="n">
         <v>-0</v>
       </c>
       <c r="D68" t="n">
-        <v>167.4843327889653</v>
+        <v>167.4843360347002</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
       </c>
       <c r="F68" t="n">
-        <v>189.0659076877629</v>
+        <v>189.0656488924692</v>
       </c>
       <c r="G68" t="n">
         <v>-0</v>
       </c>
       <c r="H68" t="n">
-        <v>207.693347200485</v>
+        <v>207.6930194087566</v>
       </c>
       <c r="I68" t="n">
         <v>-0</v>
       </c>
       <c r="J68" t="n">
-        <v>163.0704458806474</v>
+        <v>163.0705894386121</v>
       </c>
       <c r="K68" t="n">
         <v>-0</v>
       </c>
       <c r="L68" t="n">
-        <v>252.5510877218207</v>
+        <v>252.5510074589067</v>
       </c>
       <c r="M68" t="n">
         <v>-0</v>
       </c>
       <c r="N68" t="n">
-        <v>271.5323572070993</v>
+        <v>271.532827553984</v>
       </c>
       <c r="O68" t="n">
         <v>-0</v>
       </c>
       <c r="P68" t="n">
-        <v>267.2376020365903</v>
+        <v>267.237390948819</v>
       </c>
       <c r="Q68" t="n">
         <v>-0</v>
@@ -4077,52 +4077,52 @@
         <v>42978</v>
       </c>
       <c r="B69" t="n">
-        <v>245.7072341175773</v>
+        <v>245.7072504854192</v>
       </c>
       <c r="C69" t="n">
         <v>-0</v>
       </c>
       <c r="D69" t="n">
-        <v>169.5904557707495</v>
+        <v>169.5904618996971</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
       </c>
       <c r="F69" t="n">
-        <v>194.0099004657663</v>
+        <v>194.0095975748007</v>
       </c>
       <c r="G69" t="n">
         <v>-0</v>
       </c>
       <c r="H69" t="n">
-        <v>218.5038949204389</v>
+        <v>218.503550066979</v>
       </c>
       <c r="I69" t="n">
         <v>-0</v>
       </c>
       <c r="J69" t="n">
-        <v>163.9982581348209</v>
+        <v>163.9983855991691</v>
       </c>
       <c r="K69" t="n">
         <v>-0</v>
       </c>
       <c r="L69" t="n">
-        <v>261.5780223741111</v>
+        <v>261.5778922561408</v>
       </c>
       <c r="M69" t="n">
         <v>-0</v>
       </c>
       <c r="N69" t="n">
-        <v>259.2268521631373</v>
+        <v>259.2272836297348</v>
       </c>
       <c r="O69" t="n">
-        <v>-4.531874274776184</v>
+        <v>-4.531880743518131</v>
       </c>
       <c r="P69" t="n">
-        <v>266.6314777034228</v>
+        <v>266.6312412070623</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.2268110208100421</v>
+        <v>-0.226820707837579</v>
       </c>
     </row>
     <row r="70">
@@ -4130,49 +4130,49 @@
         <v>43008</v>
       </c>
       <c r="B70" t="n">
-        <v>250.4142888170259</v>
+        <v>250.414297172248</v>
       </c>
       <c r="C70" t="n">
         <v>-0</v>
       </c>
       <c r="D70" t="n">
-        <v>171.8161799302605</v>
+        <v>171.8161818053316</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
       </c>
       <c r="F70" t="n">
-        <v>191.5347862474738</v>
+        <v>191.5345113223354</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.275766964649938</v>
+        <v>-1.275754541736519</v>
       </c>
       <c r="H70" t="n">
-        <v>217.0451242632989</v>
+        <v>217.0447817121418</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.6676176906004783</v>
+        <v>-0.6676176906004784</v>
       </c>
       <c r="J70" t="n">
-        <v>161.6574363009515</v>
+        <v>161.6575651759605</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.427345546527103</v>
+        <v>-1.427343576984858</v>
       </c>
       <c r="L70" t="n">
-        <v>259.958841131748</v>
+        <v>259.9587116275995</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.6190050783575768</v>
+        <v>-0.6190051516111107</v>
       </c>
       <c r="N70" t="n">
-        <v>309.5459396919656</v>
+        <v>309.5464549114817</v>
       </c>
       <c r="O70" t="n">
         <v>-0</v>
       </c>
       <c r="P70" t="n">
-        <v>278.3724730640538</v>
+        <v>278.3722800859551</v>
       </c>
       <c r="Q70" t="n">
         <v>-0</v>
@@ -4183,49 +4183,49 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>257.6201690660441</v>
+        <v>257.6202022147993</v>
       </c>
       <c r="C71" t="n">
         <v>-0</v>
       </c>
       <c r="D71" t="n">
-        <v>176.0937832907797</v>
+        <v>176.0937788620079</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
       </c>
       <c r="F71" t="n">
-        <v>199.3621745325113</v>
+        <v>199.361894917322</v>
       </c>
       <c r="G71" t="n">
         <v>-0</v>
       </c>
       <c r="H71" t="n">
-        <v>223.9765465021988</v>
+        <v>223.9761930115345</v>
       </c>
       <c r="I71" t="n">
         <v>-0</v>
       </c>
       <c r="J71" t="n">
-        <v>167.7561073275815</v>
+        <v>167.7562622914464</v>
       </c>
       <c r="K71" t="n">
         <v>-0</v>
       </c>
       <c r="L71" t="n">
-        <v>283.6797673962363</v>
+        <v>283.6796598549624</v>
       </c>
       <c r="M71" t="n">
         <v>-0</v>
       </c>
       <c r="N71" t="n">
-        <v>315.5556712662643</v>
+        <v>315.5561596914814</v>
       </c>
       <c r="O71" t="n">
         <v>-0</v>
       </c>
       <c r="P71" t="n">
-        <v>287.2624085419548</v>
+        <v>287.2622094010239</v>
       </c>
       <c r="Q71" t="n">
         <v>-0</v>
@@ -4236,49 +4236,49 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>267.3729288220677</v>
+        <v>267.3729209956503</v>
       </c>
       <c r="C72" t="n">
         <v>-0</v>
       </c>
       <c r="D72" t="n">
-        <v>182.3552724640318</v>
+        <v>182.3552664644114</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
       </c>
       <c r="F72" t="n">
-        <v>208.7926306557937</v>
+        <v>208.7923237803889</v>
       </c>
       <c r="G72" t="n">
         <v>-0</v>
       </c>
       <c r="H72" t="n">
-        <v>222.533497658041</v>
+        <v>222.5331072525346</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.6442856927181442</v>
+        <v>-0.6443031911545968</v>
       </c>
       <c r="J72" t="n">
-        <v>172.8622156645076</v>
+        <v>172.8623592562888</v>
       </c>
       <c r="K72" t="n">
         <v>-0</v>
       </c>
       <c r="L72" t="n">
-        <v>294.2044299939234</v>
+        <v>294.2043184628141</v>
       </c>
       <c r="M72" t="n">
         <v>-0</v>
       </c>
       <c r="N72" t="n">
-        <v>341.4544678354474</v>
+        <v>341.4550361646778</v>
       </c>
       <c r="O72" t="n">
         <v>-0</v>
       </c>
       <c r="P72" t="n">
-        <v>290.0686038077029</v>
+        <v>290.0683768926365</v>
       </c>
       <c r="Q72" t="n">
         <v>-0</v>
@@ -4289,49 +4289,49 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>271.7924658574259</v>
+        <v>271.7924650360694</v>
       </c>
       <c r="C73" t="n">
         <v>-0</v>
       </c>
       <c r="D73" t="n">
-        <v>185.8426578312103</v>
+        <v>185.8426589833157</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
       </c>
       <c r="F73" t="n">
-        <v>209.3127278674781</v>
+        <v>209.3124162176203</v>
       </c>
       <c r="G73" t="n">
         <v>-0</v>
       </c>
       <c r="H73" t="n">
-        <v>227.792942805292</v>
+        <v>227.7925266208808</v>
       </c>
       <c r="I73" t="n">
         <v>-0</v>
       </c>
       <c r="J73" t="n">
-        <v>175.8617585610783</v>
+        <v>175.8619071215121</v>
       </c>
       <c r="K73" t="n">
         <v>-0</v>
       </c>
       <c r="L73" t="n">
-        <v>296.8356033821815</v>
+        <v>296.8354908536103</v>
       </c>
       <c r="M73" t="n">
         <v>-0</v>
       </c>
       <c r="N73" t="n">
-        <v>349.5245384664495</v>
+        <v>349.5250948305368</v>
       </c>
       <c r="O73" t="n">
         <v>-0</v>
       </c>
       <c r="P73" t="n">
-        <v>297.7687616709526</v>
+        <v>297.7685294178518</v>
       </c>
       <c r="Q73" t="n">
         <v>-0</v>
@@ -4342,49 +4342,49 @@
         <v>43131</v>
       </c>
       <c r="B74" t="n">
-        <v>287.6653552737796</v>
+        <v>287.6654156155657</v>
       </c>
       <c r="C74" t="n">
         <v>-0</v>
       </c>
       <c r="D74" t="n">
-        <v>197.7846824716306</v>
+        <v>197.78465825009</v>
       </c>
       <c r="E74" t="n">
         <v>-0</v>
       </c>
       <c r="F74" t="n">
-        <v>230.9301712639962</v>
+        <v>230.92979937676</v>
       </c>
       <c r="G74" t="n">
         <v>-0</v>
       </c>
       <c r="H74" t="n">
-        <v>266.0735659053015</v>
+        <v>266.0731237610025</v>
       </c>
       <c r="I74" t="n">
         <v>-0</v>
       </c>
       <c r="J74" t="n">
-        <v>191.2392481672838</v>
+        <v>191.239411490745</v>
       </c>
       <c r="K74" t="n">
         <v>-0</v>
       </c>
       <c r="L74" t="n">
-        <v>349.7826473709162</v>
+        <v>349.7825457257763</v>
       </c>
       <c r="M74" t="n">
         <v>-0</v>
       </c>
       <c r="N74" t="n">
-        <v>375.0910775384322</v>
+        <v>375.0916390834403</v>
       </c>
       <c r="O74" t="n">
         <v>-0</v>
       </c>
       <c r="P74" t="n">
-        <v>326.5264387515894</v>
+        <v>326.5261607338256</v>
       </c>
       <c r="Q74" t="n">
         <v>-0</v>
@@ -4395,52 +4395,52 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>272.0390508706112</v>
+        <v>272.0390639288903</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.432112041540894</v>
+        <v>-5.432127339060577</v>
       </c>
       <c r="D75" t="n">
-        <v>186.4788479851873</v>
+        <v>186.4788609678909</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.716233605736853</v>
+        <v>-5.716215495290594</v>
       </c>
       <c r="F75" t="n">
-        <v>224.3026121015517</v>
+        <v>224.3022685304808</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.869940781738725</v>
+        <v>-2.869933141658547</v>
       </c>
       <c r="H75" t="n">
-        <v>265.80591077603</v>
+        <v>265.8053918533868</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1005944083023596</v>
+        <v>-0.1006234315707374</v>
       </c>
       <c r="J75" t="n">
-        <v>187.2902669474269</v>
+        <v>187.290385794778</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.064942870096695</v>
+        <v>-2.064964363351468</v>
       </c>
       <c r="L75" t="n">
-        <v>341.156716423037</v>
+        <v>341.1564306536532</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.466083155558045</v>
+        <v>-2.466136511821784</v>
       </c>
       <c r="N75" t="n">
-        <v>344.8124431442106</v>
+        <v>344.8130512969269</v>
       </c>
       <c r="O75" t="n">
-        <v>-8.07234194770181</v>
+        <v>-8.072317437013794</v>
       </c>
       <c r="P75" t="n">
-        <v>293.3237551888095</v>
+        <v>293.3235001883746</v>
       </c>
       <c r="Q75" t="n">
-        <v>-10.16845180737092</v>
+        <v>-10.16845341605473</v>
       </c>
     </row>
     <row r="76">
@@ -4448,52 +4448,52 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>264.0188494349957</v>
+        <v>264.0188219058344</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.22014379043971</v>
+        <v>-8.220172612383966</v>
       </c>
       <c r="D76" t="n">
-        <v>181.1795554759851</v>
+        <v>181.1795233536798</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.395557627687982</v>
+        <v>-8.395562650473027</v>
       </c>
       <c r="F76" t="n">
-        <v>224.6772360442503</v>
+        <v>224.6768919266899</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.707716876283596</v>
+        <v>-2.707709211606992</v>
       </c>
       <c r="H76" t="n">
-        <v>266.4628520152696</v>
+        <v>266.4623318737671</v>
       </c>
       <c r="I76" t="n">
         <v>-0</v>
       </c>
       <c r="J76" t="n">
-        <v>189.1482279029863</v>
+        <v>189.1483856523662</v>
       </c>
       <c r="K76" t="n">
-        <v>-1.093405398910765</v>
+        <v>-1.093407379827636</v>
       </c>
       <c r="L76" t="n">
-        <v>346.5111462981585</v>
+        <v>346.5108560695085</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.9352954176965068</v>
+        <v>-0.9353496039887471</v>
       </c>
       <c r="N76" t="n">
-        <v>325.6980175034663</v>
+        <v>325.698474843642</v>
       </c>
       <c r="O76" t="n">
-        <v>-13.16828444950282</v>
+        <v>-13.16829251659501</v>
       </c>
       <c r="P76" t="n">
-        <v>287.1950728732896</v>
+        <v>287.1948996078154</v>
       </c>
       <c r="Q76" t="n">
-        <v>-12.04538475618563</v>
+        <v>-12.04536293129415</v>
       </c>
     </row>
     <row r="77">
@@ -4501,52 +4501,52 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>262.9713953055693</v>
+        <v>262.9714045097116</v>
       </c>
       <c r="C77" t="n">
-        <v>-8.584266236964231</v>
+        <v>-8.584282213074566</v>
       </c>
       <c r="D77" t="n">
-        <v>180.537091318498</v>
+        <v>180.5370765221519</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.720387715366439</v>
+        <v>-8.720384017919804</v>
       </c>
       <c r="F77" t="n">
-        <v>223.6304694003434</v>
+        <v>223.6301164985551</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.160999631922423</v>
+        <v>-3.160996501060279</v>
       </c>
       <c r="H77" t="n">
-        <v>263.9552906883881</v>
+        <v>263.95467063158</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.9410547503776318</v>
+        <v>-0.9410940843132219</v>
       </c>
       <c r="J77" t="n">
-        <v>189.9025558487833</v>
+        <v>189.902708606012</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.6989633829407651</v>
+        <v>-0.6989683111410442</v>
       </c>
       <c r="L77" t="n">
-        <v>351.9899821084059</v>
+        <v>351.9896952363883</v>
       </c>
       <c r="M77" t="n">
         <v>-0</v>
       </c>
       <c r="N77" t="n">
-        <v>331.5019681431316</v>
+        <v>331.5024342970929</v>
       </c>
       <c r="O77" t="n">
-        <v>-11.62094008776692</v>
+        <v>-11.62094812160044</v>
       </c>
       <c r="P77" t="n">
-        <v>294.9850116280929</v>
+        <v>294.9847813047907</v>
       </c>
       <c r="Q77" t="n">
-        <v>-9.659685520133984</v>
+        <v>-9.65967913815842</v>
       </c>
     </row>
     <row r="78">
@@ -4554,52 +4554,52 @@
         <v>43251</v>
       </c>
       <c r="B78" t="n">
-        <v>270.9636044339829</v>
+        <v>270.9635860625062</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.805965346053287</v>
+        <v>-5.805991490954778</v>
       </c>
       <c r="D78" t="n">
-        <v>185.7336737213535</v>
+        <v>185.7336711382884</v>
       </c>
       <c r="E78" t="n">
-        <v>-6.092993956701185</v>
+        <v>-6.092983762453239</v>
       </c>
       <c r="F78" t="n">
-        <v>229.0667334640879</v>
+        <v>229.0664141146989</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8069269553253905</v>
+        <v>-0.8069055042225354</v>
       </c>
       <c r="H78" t="n">
-        <v>264.8851836122183</v>
+        <v>264.884612342706</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5920781794232386</v>
+        <v>-0.5920985228818368</v>
       </c>
       <c r="J78" t="n">
-        <v>191.8999991369023</v>
+        <v>191.9001495334254</v>
       </c>
       <c r="K78" t="n">
         <v>-0</v>
       </c>
       <c r="L78" t="n">
-        <v>358.4465228068805</v>
+        <v>358.4462511411137</v>
       </c>
       <c r="M78" t="n">
         <v>-0</v>
       </c>
       <c r="N78" t="n">
-        <v>392.6851709102296</v>
+        <v>392.6858044951395</v>
       </c>
       <c r="O78" t="n">
         <v>-0</v>
       </c>
       <c r="P78" t="n">
-        <v>282.6603113283879</v>
+        <v>282.660115377801</v>
       </c>
       <c r="Q78" t="n">
-        <v>-13.4341732298662</v>
+        <v>-13.43415953485665</v>
       </c>
     </row>
     <row r="79">
@@ -4607,52 +4607,52 @@
         <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>272.8493414490213</v>
+        <v>272.8493485941651</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.150433847224145</v>
+        <v>-5.150451259389714</v>
       </c>
       <c r="D79" t="n">
-        <v>186.4223284540997</v>
+        <v>186.4223289989121</v>
       </c>
       <c r="E79" t="n">
-        <v>-5.744809899098533</v>
+        <v>-5.744798080754467</v>
       </c>
       <c r="F79" t="n">
-        <v>230.8108630744436</v>
+        <v>230.8105131638638</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.05166418441537374</v>
+        <v>-0.05165475101878816</v>
       </c>
       <c r="H79" t="n">
-        <v>265.4081206894859</v>
+        <v>265.4076119873028</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.3958267795329313</v>
+        <v>-0.3958232591629119</v>
       </c>
       <c r="J79" t="n">
-        <v>191.167527759159</v>
+        <v>191.1676857061042</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.3816943100769322</v>
+        <v>-0.3816900763767321</v>
       </c>
       <c r="L79" t="n">
-        <v>354.5812305616709</v>
+        <v>354.5810186104615</v>
       </c>
       <c r="M79" t="n">
-        <v>-1.078345582750163</v>
+        <v>-1.078329740748366</v>
       </c>
       <c r="N79" t="n">
-        <v>396.6814100636179</v>
+        <v>396.6820500963312</v>
       </c>
       <c r="O79" t="n">
         <v>-0</v>
       </c>
       <c r="P79" t="n">
-        <v>285.5368605003902</v>
+        <v>285.5366625556731</v>
       </c>
       <c r="Q79" t="n">
-        <v>-12.55321878617695</v>
+        <v>-12.5532049517974</v>
       </c>
     </row>
     <row r="80">
@@ -4660,52 +4660,52 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>284.0813784703264</v>
+        <v>284.0814055167304</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.245884058593785</v>
+        <v>-1.245895371595495</v>
       </c>
       <c r="D80" t="n">
-        <v>193.6329928563696</v>
+        <v>193.6330067806412</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.099095624281432</v>
+        <v>-2.09907659480809</v>
       </c>
       <c r="F80" t="n">
-        <v>231.1059234572807</v>
+        <v>231.1055563117887</v>
       </c>
       <c r="G80" t="n">
         <v>-0</v>
       </c>
       <c r="H80" t="n">
-        <v>265.2487157666401</v>
+        <v>265.2482074007545</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.455649348285077</v>
+        <v>-0.4556458184820446</v>
       </c>
       <c r="J80" t="n">
-        <v>188.3626384372801</v>
+        <v>188.362775222644</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.843335443216219</v>
+        <v>-1.843341091386333</v>
       </c>
       <c r="L80" t="n">
-        <v>348.2023489705037</v>
+        <v>348.2020683743982</v>
       </c>
       <c r="M80" t="n">
-        <v>-2.857936452042515</v>
+        <v>-2.857941109469895</v>
       </c>
       <c r="N80" t="n">
-        <v>424.8044700639552</v>
+        <v>424.8051830750881</v>
       </c>
       <c r="O80" t="n">
         <v>-0</v>
       </c>
       <c r="P80" t="n">
-        <v>305.7802347963336</v>
+        <v>305.7800426869736</v>
       </c>
       <c r="Q80" t="n">
-        <v>-6.353606168791362</v>
+        <v>-6.353585268704906</v>
       </c>
     </row>
     <row r="81">
@@ -4713,52 +4713,52 @@
         <v>43343</v>
       </c>
       <c r="B81" t="n">
-        <v>296.112458688626</v>
+        <v>296.1124828655586</v>
       </c>
       <c r="C81" t="n">
         <v>-0</v>
       </c>
       <c r="D81" t="n">
-        <v>201.2167988836845</v>
+        <v>201.2167714663379</v>
       </c>
       <c r="E81" t="n">
         <v>-0</v>
       </c>
       <c r="F81" t="n">
-        <v>253.0926943670369</v>
+        <v>253.0923104998153</v>
       </c>
       <c r="G81" t="n">
         <v>-0</v>
       </c>
       <c r="H81" t="n">
-        <v>281.5624965447986</v>
+        <v>281.5619386173403</v>
       </c>
       <c r="I81" t="n">
         <v>-0</v>
       </c>
       <c r="J81" t="n">
-        <v>195.3494789383223</v>
+        <v>195.3496266821269</v>
       </c>
       <c r="K81" t="n">
         <v>-0</v>
       </c>
       <c r="L81" t="n">
-        <v>389.2259264109641</v>
+        <v>389.2256455297195</v>
       </c>
       <c r="M81" t="n">
         <v>-0</v>
       </c>
       <c r="N81" t="n">
-        <v>450.9315220957628</v>
+        <v>450.9322496592893</v>
       </c>
       <c r="O81" t="n">
         <v>-0</v>
       </c>
       <c r="P81" t="n">
-        <v>324.5868544715441</v>
+        <v>324.5866294559262</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.5940052779373143</v>
+        <v>-0.5939895515693325</v>
       </c>
     </row>
     <row r="82">
@@ -4766,49 +4766,49 @@
         <v>43373</v>
       </c>
       <c r="B82" t="n">
-        <v>296.5119198265687</v>
+        <v>296.5119946464735</v>
       </c>
       <c r="C82" t="n">
         <v>-0</v>
       </c>
       <c r="D82" t="n">
-        <v>201.3693079769549</v>
+        <v>201.3693072083517</v>
       </c>
       <c r="E82" t="n">
         <v>-0</v>
       </c>
       <c r="F82" t="n">
-        <v>246.2193957958843</v>
+        <v>246.2190395827758</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.715723813499289</v>
+        <v>-2.715717005967448</v>
       </c>
       <c r="H82" t="n">
-        <v>278.1694618034251</v>
+        <v>278.1690446555455</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.205073396851957</v>
+        <v>-1.205025785252167</v>
       </c>
       <c r="J82" t="n">
-        <v>197.0192436222055</v>
+        <v>197.0193416999512</v>
       </c>
       <c r="K82" t="n">
         <v>-0</v>
       </c>
       <c r="L82" t="n">
-        <v>396.7756218193369</v>
+        <v>396.775275615085</v>
       </c>
       <c r="M82" t="n">
         <v>-0</v>
       </c>
       <c r="N82" t="n">
-        <v>454.958814310394</v>
+        <v>454.9595483718271</v>
       </c>
       <c r="O82" t="n">
         <v>-0</v>
       </c>
       <c r="P82" t="n">
-        <v>327.4857560739636</v>
+        <v>327.4855290487199</v>
       </c>
       <c r="Q82" t="n">
         <v>-0</v>
@@ -4819,52 +4819,52 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>269.4542033939139</v>
+        <v>269.4542558321532</v>
       </c>
       <c r="C83" t="n">
-        <v>-9.12533851876209</v>
+        <v>-9.125343764450665</v>
       </c>
       <c r="D83" t="n">
-        <v>182.6715855399613</v>
+        <v>182.6715912128932</v>
       </c>
       <c r="E83" t="n">
-        <v>-9.285289116220937</v>
+        <v>-9.285285952795407</v>
       </c>
       <c r="F83" t="n">
-        <v>246.6481428897933</v>
+        <v>246.6478215927715</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.546320625082008</v>
+        <v>-2.54629976482374</v>
       </c>
       <c r="H83" t="n">
-        <v>278.5953989287117</v>
+        <v>278.5949274426174</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.053797168478651</v>
+        <v>-1.053768555967823</v>
       </c>
       <c r="J83" t="n">
-        <v>192.4424201884729</v>
+        <v>192.442577320051</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.323033704519176</v>
+        <v>-2.323002574473248</v>
       </c>
       <c r="L83" t="n">
-        <v>382.1341111952181</v>
+        <v>382.1338737368715</v>
       </c>
       <c r="M83" t="n">
-        <v>-3.69012354060038</v>
+        <v>-3.690099352969082</v>
       </c>
       <c r="N83" t="n">
-        <v>391.2032360195556</v>
+        <v>391.2038948161766</v>
       </c>
       <c r="O83" t="n">
-        <v>-14.01348348146112</v>
+        <v>-14.01347741437983</v>
       </c>
       <c r="P83" t="n">
-        <v>281.5935937424007</v>
+        <v>281.5934184001152</v>
       </c>
       <c r="Q83" t="n">
-        <v>-14.01348348146112</v>
+        <v>-14.01347741437982</v>
       </c>
     </row>
     <row r="84">
@@ -4872,52 +4872,52 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>276.0180045579364</v>
+        <v>276.0180341531324</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.9116665800887</v>
+        <v>-6.911680088279619</v>
       </c>
       <c r="D84" t="n">
-        <v>186.8504453915947</v>
+        <v>186.8504419800131</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.210067279479255</v>
+        <v>-7.21006861950231</v>
       </c>
       <c r="F84" t="n">
-        <v>247.1089539851258</v>
+        <v>247.1086319881515</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.364248559949944</v>
+        <v>-2.364227700101578</v>
       </c>
       <c r="H84" t="n">
-        <v>279.6570246941543</v>
+        <v>279.65660502877</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.676749167246129</v>
+        <v>-0.6767014028695786</v>
       </c>
       <c r="J84" t="n">
-        <v>186.2452853117205</v>
+        <v>186.2454096385748</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.468480191277477</v>
+        <v>-5.46846414591336</v>
       </c>
       <c r="L84" t="n">
-        <v>370.0652550434666</v>
+        <v>370.0649148992741</v>
       </c>
       <c r="M84" t="n">
-        <v>-6.731856824619202</v>
+        <v>-6.731861171138803</v>
       </c>
       <c r="N84" t="n">
-        <v>398.194779773528</v>
+        <v>398.195477762215</v>
       </c>
       <c r="O84" t="n">
-        <v>-12.47674135578764</v>
+        <v>-12.47672915377967</v>
       </c>
       <c r="P84" t="n">
-        <v>290.4536004390801</v>
+        <v>290.4533792170837</v>
       </c>
       <c r="Q84" t="n">
-        <v>-11.30802025677101</v>
+        <v>-11.30802632385228</v>
       </c>
     </row>
     <row r="85">
@@ -4925,52 +4925,52 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>249.0576993045524</v>
+        <v>249.0577096160425</v>
       </c>
       <c r="C85" t="n">
-        <v>-16.00415273347948</v>
+        <v>-16.004170450848</v>
       </c>
       <c r="D85" t="n">
-        <v>169.1229680520623</v>
+        <v>169.1229526884464</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.01353267230919</v>
+        <v>-16.01353998131444</v>
       </c>
       <c r="F85" t="n">
-        <v>218.2588445509502</v>
+        <v>218.2585627645245</v>
       </c>
       <c r="G85" t="n">
-        <v>-13.76327748345452</v>
+        <v>-13.76325802490795</v>
       </c>
       <c r="H85" t="n">
-        <v>287.4992868251606</v>
+        <v>287.4988319095986</v>
       </c>
       <c r="I85" t="n">
         <v>-0</v>
       </c>
       <c r="J85" t="n">
-        <v>186.3587544444356</v>
+        <v>186.3588735044966</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.410887272621899</v>
+        <v>-5.410873929164696</v>
       </c>
       <c r="L85" t="n">
-        <v>370.5161763483204</v>
+        <v>370.5158145586856</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.618210400782439</v>
+        <v>-6.618220103480925</v>
       </c>
       <c r="N85" t="n">
-        <v>421.503309317661</v>
+        <v>421.5039294322763</v>
       </c>
       <c r="O85" t="n">
-        <v>-7.353523866428087</v>
+        <v>-7.353537047255987</v>
       </c>
       <c r="P85" t="n">
-        <v>239.0384605182603</v>
+        <v>239.0382550703281</v>
       </c>
       <c r="Q85" t="n">
-        <v>-27.00798245885457</v>
+        <v>-27.00799459301714</v>
       </c>
     </row>
     <row r="86">
@@ -4978,52 +4978,52 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>273.2129795694118</v>
+        <v>273.2129917497648</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.857674076234297</v>
+        <v>-7.857693218949772</v>
       </c>
       <c r="D86" t="n">
-        <v>184.7656306942673</v>
+        <v>184.7656150745019</v>
       </c>
       <c r="E86" t="n">
-        <v>-8.245386275344302</v>
+        <v>-8.245393681903272</v>
       </c>
       <c r="F86" t="n">
-        <v>221.1162856923832</v>
+        <v>221.116019506992</v>
       </c>
       <c r="G86" t="n">
-        <v>-12.63426775499149</v>
+        <v>-12.63424041989873</v>
       </c>
       <c r="H86" t="n">
-        <v>289.3756104584987</v>
+        <v>289.3751079594615</v>
       </c>
       <c r="I86" t="n">
         <v>-0</v>
       </c>
       <c r="J86" t="n">
-        <v>187.1080099808773</v>
+        <v>187.1081264154249</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.030591661560447</v>
+        <v>-5.030579840034412</v>
       </c>
       <c r="L86" t="n">
-        <v>372.2573247242619</v>
+        <v>372.2569254685945</v>
       </c>
       <c r="M86" t="n">
-        <v>-6.179385966973268</v>
+        <v>-6.17940472941059</v>
       </c>
       <c r="N86" t="n">
-        <v>423.0989928435063</v>
+        <v>423.0995869788545</v>
       </c>
       <c r="O86" t="n">
-        <v>-7.002792442911428</v>
+        <v>-7.002811899869017</v>
       </c>
       <c r="P86" t="n">
-        <v>241.2157019574063</v>
+        <v>241.2155692043772</v>
       </c>
       <c r="Q86" t="n">
-        <v>-26.34314699692558</v>
+        <v>-26.34313647230145</v>
       </c>
     </row>
     <row r="87">
@@ -5031,52 +5031,52 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>283.4243096436658</v>
+        <v>283.4243180958517</v>
       </c>
       <c r="C87" t="n">
-        <v>-4.413856343636356</v>
+        <v>-4.41387761268341</v>
       </c>
       <c r="D87" t="n">
-        <v>191.0862817607831</v>
+        <v>191.0862731271807</v>
       </c>
       <c r="E87" t="n">
-        <v>-5.106550903650428</v>
+        <v>-5.106554828900231</v>
       </c>
       <c r="F87" t="n">
-        <v>233.6749834306433</v>
+        <v>233.6747146019672</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.672173621982929</v>
+        <v>-7.672139805236079</v>
       </c>
       <c r="H87" t="n">
-        <v>280.7508069231495</v>
+        <v>280.7503484902907</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.980487374759629</v>
+        <v>-2.980477322320013</v>
       </c>
       <c r="J87" t="n">
-        <v>194.7019654867039</v>
+        <v>194.702097560594</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.176168425428076</v>
+        <v>-1.176150584690418</v>
       </c>
       <c r="L87" t="n">
-        <v>393.18126855316</v>
+        <v>393.1807729714645</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.9058906516725233</v>
+        <v>-0.9059290899737221</v>
       </c>
       <c r="N87" t="n">
-        <v>449.3703473390711</v>
+        <v>449.371041028959</v>
       </c>
       <c r="O87" t="n">
-        <v>-1.228345686585634</v>
+        <v>-1.228352578348513</v>
       </c>
       <c r="P87" t="n">
-        <v>240.9412608557572</v>
+        <v>240.9410537724128</v>
       </c>
       <c r="Q87" t="n">
-        <v>-26.42694945140153</v>
+        <v>-26.42696168215478</v>
       </c>
     </row>
     <row r="88">
@@ -5084,52 +5084,52 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>292.3996472989288</v>
+        <v>292.3996706511899</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.386882702740986</v>
+        <v>-1.386899710477679</v>
       </c>
       <c r="D88" t="n">
-        <v>196.6479012625283</v>
+        <v>196.6478880211646</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.344650613273671</v>
+        <v>-2.344656816195887</v>
       </c>
       <c r="F88" t="n">
-        <v>234.8119007410426</v>
+        <v>234.8116336519438</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.222963772902677</v>
+        <v>-7.222928587506323</v>
       </c>
       <c r="H88" t="n">
-        <v>290.4214894603935</v>
+        <v>290.420976611775</v>
       </c>
       <c r="I88" t="n">
         <v>-0</v>
       </c>
       <c r="J88" t="n">
-        <v>197.3507793977088</v>
+        <v>197.35091924519</v>
       </c>
       <c r="K88" t="n">
         <v>-0</v>
       </c>
       <c r="L88" t="n">
-        <v>423.1488399133555</v>
+        <v>423.148381162871</v>
       </c>
       <c r="M88" t="n">
         <v>-0</v>
       </c>
       <c r="N88" t="n">
-        <v>464.8492626746797</v>
+        <v>464.8499184363208</v>
       </c>
       <c r="O88" t="n">
         <v>-0</v>
       </c>
       <c r="P88" t="n">
-        <v>249.240672242657</v>
+        <v>249.2404248783124</v>
       </c>
       <c r="Q88" t="n">
-        <v>-23.89266781228638</v>
+        <v>-23.89269058626619</v>
       </c>
     </row>
     <row r="89">
@@ -5137,52 +5137,52 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>306.5303314585217</v>
+        <v>306.5303963977057</v>
       </c>
       <c r="C89" t="n">
         <v>-0</v>
       </c>
       <c r="D89" t="n">
-        <v>205.2701765134781</v>
+        <v>205.2701609319796</v>
       </c>
       <c r="E89" t="n">
         <v>-0</v>
       </c>
       <c r="F89" t="n">
-        <v>251.9760077762431</v>
+        <v>251.9757046143297</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.4412164458506161</v>
+        <v>-0.4411852273506014</v>
       </c>
       <c r="H89" t="n">
-        <v>312.8317667300527</v>
+        <v>312.8312157726405</v>
       </c>
       <c r="I89" t="n">
         <v>-0</v>
       </c>
       <c r="J89" t="n">
-        <v>204.6725720070258</v>
+        <v>204.6727184578882</v>
       </c>
       <c r="K89" t="n">
         <v>-0</v>
       </c>
       <c r="L89" t="n">
-        <v>469.0256556593366</v>
+        <v>469.0251073440512</v>
       </c>
       <c r="M89" t="n">
         <v>-0</v>
       </c>
       <c r="N89" t="n">
-        <v>500.7192008273001</v>
+        <v>500.7199095354568</v>
       </c>
       <c r="O89" t="n">
         <v>-0</v>
       </c>
       <c r="P89" t="n">
-        <v>268.473245500966</v>
+        <v>268.4729803061019</v>
       </c>
       <c r="Q89" t="n">
-        <v>-18.01987093437723</v>
+        <v>-18.01989508178811</v>
       </c>
     </row>
     <row r="90">
@@ -5190,52 +5190,52 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>283.4899340259875</v>
+        <v>283.4899549011426</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.516514702771559</v>
+        <v>-7.516527485473058</v>
       </c>
       <c r="D90" t="n">
-        <v>191.2668673314015</v>
+        <v>191.2668539435724</v>
       </c>
       <c r="E90" t="n">
-        <v>-6.821891723348856</v>
+        <v>-6.821891172505852</v>
       </c>
       <c r="F90" t="n">
-        <v>213.4010396556331</v>
+        <v>213.4007699759037</v>
       </c>
       <c r="G90" t="n">
-        <v>-15.68265524639866</v>
+        <v>-15.68263391547823</v>
       </c>
       <c r="H90" t="n">
-        <v>272.8680164416548</v>
+        <v>272.867533442809</v>
       </c>
       <c r="I90" t="n">
-        <v>-12.77483764073205</v>
+        <v>-12.77483841602185</v>
       </c>
       <c r="J90" t="n">
-        <v>185.5040137071119</v>
+        <v>185.5041366071926</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.365474871374516</v>
+        <v>-9.365479676588945</v>
       </c>
       <c r="L90" t="n">
-        <v>391.8114509694116</v>
+        <v>391.810992921531</v>
       </c>
       <c r="M90" t="n">
         <v>-16.4626825330867</v>
       </c>
       <c r="N90" t="n">
-        <v>436.7531358856415</v>
+        <v>436.7537501754515</v>
       </c>
       <c r="O90" t="n">
-        <v>-12.77483764073205</v>
+        <v>-12.77483841602185</v>
       </c>
       <c r="P90" t="n">
-        <v>234.1762242794136</v>
+        <v>234.1759908813192</v>
       </c>
       <c r="Q90" t="n">
-        <v>-28.49269932017312</v>
+        <v>-28.49272101837485</v>
       </c>
     </row>
     <row r="91">
@@ -5243,52 +5243,52 @@
         <v>43646</v>
       </c>
       <c r="B91" t="n">
-        <v>309.9211110764104</v>
+        <v>309.9211418448605</v>
       </c>
       <c r="C91" t="n">
         <v>-0</v>
       </c>
       <c r="D91" t="n">
-        <v>209.1549533719411</v>
+        <v>209.1549474928773</v>
       </c>
       <c r="E91" t="n">
         <v>-0</v>
       </c>
       <c r="F91" t="n">
-        <v>217.9263867532782</v>
+        <v>217.9261042434881</v>
       </c>
       <c r="G91" t="n">
-        <v>-13.89463560048884</v>
+        <v>-13.89461662698472</v>
       </c>
       <c r="H91" t="n">
-        <v>276.1892067365548</v>
+        <v>276.1886978305588</v>
       </c>
       <c r="I91" t="n">
-        <v>-11.71318385486005</v>
+        <v>-11.71319104187887</v>
       </c>
       <c r="J91" t="n">
-        <v>188.8517590584448</v>
+        <v>188.8518633381626</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.729815868067509</v>
+        <v>-7.729830941284336</v>
       </c>
       <c r="L91" t="n">
-        <v>395.8828427374407</v>
+        <v>395.882338446814</v>
       </c>
       <c r="M91" t="n">
-        <v>-15.59462942790939</v>
+        <v>-15.59463827244192</v>
       </c>
       <c r="N91" t="n">
-        <v>440.9027685225042</v>
+        <v>440.9033353154121</v>
       </c>
       <c r="O91" t="n">
-        <v>-11.94610316639862</v>
+        <v>-11.946114600384</v>
       </c>
       <c r="P91" t="n">
-        <v>267.1716208090096</v>
+        <v>267.1713731141897</v>
       </c>
       <c r="Q91" t="n">
-        <v>-18.41733087509671</v>
+        <v>-18.41734995428066</v>
       </c>
     </row>
     <row r="92">
@@ -5296,52 +5296,52 @@
         <v>43677</v>
       </c>
       <c r="B92" t="n">
-        <v>315.0855354829122</v>
+        <v>315.0855441997238</v>
       </c>
       <c r="C92" t="n">
         <v>-0</v>
       </c>
       <c r="D92" t="n">
-        <v>212.4831833449182</v>
+        <v>212.483175483169</v>
       </c>
       <c r="E92" t="n">
         <v>-0</v>
       </c>
       <c r="F92" t="n">
-        <v>222.156761128683</v>
+        <v>222.1564728916296</v>
       </c>
       <c r="G92" t="n">
-        <v>-12.22316326266234</v>
+        <v>-12.22314401693692</v>
       </c>
       <c r="H92" t="n">
-        <v>283.1371844906648</v>
+        <v>283.136662782331</v>
       </c>
       <c r="I92" t="n">
-        <v>-9.492188900691749</v>
+        <v>-9.49219626851143</v>
       </c>
       <c r="J92" t="n">
-        <v>191.1277740667437</v>
+        <v>191.1278866468296</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.617788503589598</v>
+        <v>-6.617800317068386</v>
       </c>
       <c r="L92" t="n">
-        <v>412.9535122078866</v>
+        <v>412.9529848147744</v>
       </c>
       <c r="M92" t="n">
-        <v>-11.95502693186925</v>
+        <v>-11.95503644715237</v>
       </c>
       <c r="N92" t="n">
-        <v>451.994377291785</v>
+        <v>451.9949583432679</v>
       </c>
       <c r="O92" t="n">
-        <v>-9.730967667109796</v>
+        <v>-9.73097938873523</v>
       </c>
       <c r="P92" t="n">
-        <v>273.892746879954</v>
+        <v>273.8924929539779</v>
       </c>
       <c r="Q92" t="n">
-        <v>-16.36498937740225</v>
+        <v>-16.36500893655334</v>
       </c>
     </row>
     <row r="93">
@@ -5349,52 +5349,52 @@
         <v>43708</v>
       </c>
       <c r="B93" t="n">
-        <v>310.8483657132527</v>
+        <v>310.8484080622633</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.34476810024471</v>
+        <v>-1.344757389051979</v>
       </c>
       <c r="D93" t="n">
-        <v>212.5820132503684</v>
+        <v>212.5820284382172</v>
       </c>
       <c r="E93" t="n">
         <v>-0</v>
       </c>
       <c r="F93" t="n">
-        <v>232.461599507038</v>
+        <v>232.4613152364213</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.151596359426943</v>
+        <v>-8.151569371132258</v>
       </c>
       <c r="H93" t="n">
-        <v>294.1400328076845</v>
+        <v>294.1395296494911</v>
       </c>
       <c r="I93" t="n">
-        <v>-5.975011463109359</v>
+        <v>-5.975006706726532</v>
       </c>
       <c r="J93" t="n">
-        <v>203.1604013025399</v>
+        <v>203.160567572386</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.7388243034508454</v>
+        <v>-0.7388140915386882</v>
       </c>
       <c r="L93" t="n">
-        <v>448.7211666994551</v>
+        <v>448.7207131063732</v>
       </c>
       <c r="M93" t="n">
-        <v>-4.329078530115443</v>
+        <v>-4.32906339548766</v>
       </c>
       <c r="N93" t="n">
-        <v>433.729903741831</v>
+        <v>433.7304882020811</v>
       </c>
       <c r="O93" t="n">
-        <v>-13.37861559428675</v>
+        <v>-13.37862147233675</v>
       </c>
       <c r="P93" t="n">
-        <v>262.825116214089</v>
+        <v>262.8248888422214</v>
       </c>
       <c r="Q93" t="n">
-        <v>-19.74456557593635</v>
+        <v>-19.74457936945328</v>
       </c>
     </row>
     <row r="94">
@@ -5402,52 +5402,52 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>316.7952290980713</v>
+        <v>316.7952931267722</v>
       </c>
       <c r="C94" t="n">
         <v>-0</v>
       </c>
       <c r="D94" t="n">
-        <v>215.4437174863289</v>
+        <v>215.443728714167</v>
       </c>
       <c r="E94" t="n">
         <v>-0</v>
       </c>
       <c r="F94" t="n">
-        <v>225.9239042475391</v>
+        <v>225.9236089595157</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.7347192250826</v>
+        <v>-10.73470050774988</v>
       </c>
       <c r="H94" t="n">
-        <v>291.916570812518</v>
+        <v>291.9159383077453</v>
       </c>
       <c r="I94" t="n">
-        <v>-6.685764727845809</v>
+        <v>-6.685802570321504</v>
       </c>
       <c r="J94" t="n">
-        <v>200.0304493851409</v>
+        <v>200.0305802732829</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.268072647137866</v>
+        <v>-2.268078627958632</v>
       </c>
       <c r="L94" t="n">
-        <v>439.5736931667276</v>
+        <v>439.5731509361902</v>
       </c>
       <c r="M94" t="n">
-        <v>-6.279392638171711</v>
+        <v>-6.279398681797355</v>
       </c>
       <c r="N94" t="n">
-        <v>449.4401839383948</v>
+        <v>449.4408154829134</v>
       </c>
       <c r="O94" t="n">
-        <v>-10.24107260200547</v>
+        <v>-10.24107351755149</v>
       </c>
       <c r="P94" t="n">
-        <v>272.3449952512408</v>
+        <v>272.3447753468009</v>
       </c>
       <c r="Q94" t="n">
-        <v>-16.83760585002943</v>
+        <v>-16.83761534810158</v>
       </c>
     </row>
     <row r="95">
@@ -5455,52 +5455,52 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>325.3083310806179</v>
+        <v>325.3083548478155</v>
       </c>
       <c r="C95" t="n">
         <v>-0</v>
       </c>
       <c r="D95" t="n">
-        <v>220.9329662002359</v>
+        <v>220.9329365219822</v>
       </c>
       <c r="E95" t="n">
         <v>-0</v>
       </c>
       <c r="F95" t="n">
-        <v>230.9880189578321</v>
+        <v>230.9877342566623</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.733825946452825</v>
+        <v>-8.733800011347677</v>
       </c>
       <c r="H95" t="n">
-        <v>293.2160181688731</v>
+        <v>293.2155166511249</v>
       </c>
       <c r="I95" t="n">
-        <v>-6.270382565753424</v>
+        <v>-6.270377805190623</v>
       </c>
       <c r="J95" t="n">
-        <v>199.7102815345896</v>
+        <v>199.7104175868029</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.424501936813415</v>
+        <v>-2.424505282615998</v>
       </c>
       <c r="L95" t="n">
-        <v>436.9637079608317</v>
+        <v>436.9631047254186</v>
       </c>
       <c r="M95" t="n">
-        <v>-6.835862241572588</v>
+        <v>-6.835881942480674</v>
       </c>
       <c r="N95" t="n">
-        <v>467.4248317093047</v>
+        <v>467.4253788205473</v>
       </c>
       <c r="O95" t="n">
-        <v>-6.64930944589017</v>
+        <v>-6.649332307516696</v>
       </c>
       <c r="P95" t="n">
-        <v>283.2430613049765</v>
+        <v>283.2427661237077</v>
       </c>
       <c r="Q95" t="n">
-        <v>-13.50980735754346</v>
+        <v>-13.50983753496791</v>
       </c>
     </row>
     <row r="96">
@@ -5508,52 +5508,52 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>339.8148919565964</v>
+        <v>339.8148786677069</v>
       </c>
       <c r="C96" t="n">
         <v>-0</v>
       </c>
       <c r="D96" t="n">
-        <v>229.8020817334494</v>
+        <v>229.8020535308321</v>
       </c>
       <c r="E96" t="n">
         <v>-0</v>
       </c>
       <c r="F96" t="n">
-        <v>249.000343893358</v>
+        <v>249.0000393717017</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.616937416512007</v>
+        <v>-1.616908518489554</v>
       </c>
       <c r="H96" t="n">
-        <v>298.2383693125547</v>
+        <v>298.2378592045587</v>
       </c>
       <c r="I96" t="n">
-        <v>-4.664934629254248</v>
+        <v>-4.664929787150131</v>
       </c>
       <c r="J96" t="n">
-        <v>205.2234417838608</v>
+        <v>205.2235828875558</v>
       </c>
       <c r="K96" t="n">
         <v>-0</v>
       </c>
       <c r="L96" t="n">
-        <v>472.0824223867031</v>
+        <v>472.0818050250605</v>
       </c>
       <c r="M96" t="n">
         <v>-0</v>
       </c>
       <c r="N96" t="n">
-        <v>500.4549751508743</v>
+        <v>500.4555109467718</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.05276923193464431</v>
+        <v>-0.05280368997716288</v>
       </c>
       <c r="P96" t="n">
-        <v>303.2581702787996</v>
+        <v>303.2578239549067</v>
       </c>
       <c r="Q96" t="n">
-        <v>-7.39805788368157</v>
+        <v>-7.398099440970675</v>
       </c>
     </row>
     <row r="97">
@@ -5561,52 +5561,52 @@
         <v>43830</v>
       </c>
       <c r="B97" t="n">
-        <v>351.8664605261918</v>
+        <v>351.8665381926535</v>
       </c>
       <c r="C97" t="n">
         <v>-0</v>
       </c>
       <c r="D97" t="n">
-        <v>237.7525506981221</v>
+        <v>237.7525132784185</v>
       </c>
       <c r="E97" t="n">
         <v>-0</v>
       </c>
       <c r="F97" t="n">
-        <v>265.409110219096</v>
+        <v>265.4087863704467</v>
       </c>
       <c r="G97" t="n">
         <v>-0</v>
       </c>
       <c r="H97" t="n">
-        <v>315.0860213477453</v>
+        <v>315.0855501385809</v>
       </c>
       <c r="I97" t="n">
         <v>-0</v>
       </c>
       <c r="J97" t="n">
-        <v>211.1687212642427</v>
+        <v>211.1688670702087</v>
       </c>
       <c r="K97" t="n">
         <v>-0</v>
       </c>
       <c r="L97" t="n">
-        <v>507.994133476384</v>
+        <v>507.9934691515165</v>
       </c>
       <c r="M97" t="n">
         <v>-0</v>
       </c>
       <c r="N97" t="n">
-        <v>528.725956178757</v>
+        <v>528.7266358708421</v>
       </c>
       <c r="O97" t="n">
         <v>-0</v>
       </c>
       <c r="P97" t="n">
-        <v>320.3893936739066</v>
+        <v>320.3890966408873</v>
       </c>
       <c r="Q97" t="n">
-        <v>-2.166922459508233</v>
+        <v>-2.16694533906471</v>
       </c>
     </row>
     <row r="98">
@@ -5614,52 +5614,52 @@
         <v>43861</v>
       </c>
       <c r="B98" t="n">
-        <v>355.8207615392043</v>
+        <v>355.820768149175</v>
       </c>
       <c r="C98" t="n">
         <v>-0</v>
       </c>
       <c r="D98" t="n">
-        <v>240.831357661838</v>
+        <v>240.8313596071552</v>
       </c>
       <c r="E98" t="n">
         <v>-0</v>
       </c>
       <c r="F98" t="n">
-        <v>268.2426651528825</v>
+        <v>268.2423505869276</v>
       </c>
       <c r="G98" t="n">
         <v>-0</v>
       </c>
       <c r="H98" t="n">
-        <v>275.27005177455</v>
+        <v>275.2696401099179</v>
       </c>
       <c r="I98" t="n">
         <v>-12.63653950844498</v>
       </c>
       <c r="J98" t="n">
-        <v>210.4483306998114</v>
+        <v>210.4484851563403</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.34114454078165</v>
+        <v>-0.3411402087169131</v>
       </c>
       <c r="L98" t="n">
-        <v>536.5424903735632</v>
+        <v>536.5417887148326</v>
       </c>
       <c r="M98" t="n">
         <v>-0</v>
       </c>
       <c r="N98" t="n">
-        <v>477.535272677942</v>
+        <v>477.535779789009</v>
       </c>
       <c r="O98" t="n">
-        <v>-9.681893408597473</v>
+        <v>-9.681913603145595</v>
       </c>
       <c r="P98" t="n">
-        <v>318.9875487523731</v>
+        <v>318.9872530190043</v>
       </c>
       <c r="Q98" t="n">
-        <v>-2.594985328055354</v>
+        <v>-2.59500810750368</v>
       </c>
     </row>
     <row r="99">
@@ -5667,52 +5667,52 @@
         <v>43890</v>
       </c>
       <c r="B99" t="n">
-        <v>327.6343498794593</v>
+        <v>327.6343591089297</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.921519682498772</v>
+        <v>-7.92151879915801</v>
       </c>
       <c r="D99" t="n">
-        <v>219.4820592048195</v>
+        <v>219.4820573743006</v>
       </c>
       <c r="E99" t="n">
-        <v>-8.864833327475537</v>
+        <v>-8.864834823703896</v>
       </c>
       <c r="F99" t="n">
-        <v>272.7028173092418</v>
+        <v>272.7024823007338</v>
       </c>
       <c r="G99" t="n">
         <v>-0</v>
       </c>
       <c r="H99" t="n">
-        <v>278.2741661639236</v>
+        <v>278.2737327305376</v>
       </c>
       <c r="I99" t="n">
-        <v>-11.68311276595613</v>
+        <v>-11.68311824894942</v>
       </c>
       <c r="J99" t="n">
-        <v>217.9399557641501</v>
+        <v>217.9401006886372</v>
       </c>
       <c r="K99" t="n">
         <v>-0</v>
       </c>
       <c r="L99" t="n">
-        <v>562.1969709085679</v>
+        <v>562.1961433356292</v>
       </c>
       <c r="M99" t="n">
         <v>-0</v>
       </c>
       <c r="N99" t="n">
-        <v>403.7014195305721</v>
+        <v>403.7018482349408</v>
       </c>
       <c r="O99" t="n">
-        <v>-23.64637770987648</v>
+        <v>-23.64639478205567</v>
       </c>
       <c r="P99" t="n">
-        <v>269.6674646079164</v>
+        <v>269.6672145991994</v>
       </c>
       <c r="Q99" t="n">
-        <v>-17.65520801857069</v>
+        <v>-17.65522727598715</v>
       </c>
     </row>
     <row r="100">
@@ -5720,52 +5720,52 @@
         <v>43921</v>
       </c>
       <c r="B100" t="n">
-        <v>280.2685190882232</v>
+        <v>280.2685061883386</v>
       </c>
       <c r="C100" t="n">
-        <v>-21.2332304962078</v>
+        <v>-21.23323558482166</v>
       </c>
       <c r="D100" t="n">
-        <v>183.3482048886395</v>
+        <v>183.3482044442526</v>
       </c>
       <c r="E100" t="n">
-        <v>-23.86863294351939</v>
+        <v>-23.86863374299315</v>
       </c>
       <c r="F100" t="n">
-        <v>282.5012642968841</v>
+        <v>282.5009399356618</v>
       </c>
       <c r="G100" t="n">
         <v>-0</v>
       </c>
       <c r="H100" t="n">
-        <v>288.6333840382882</v>
+        <v>288.6329171614619</v>
       </c>
       <c r="I100" t="n">
-        <v>-8.395369999693683</v>
+        <v>-8.395381179963509</v>
       </c>
       <c r="J100" t="n">
-        <v>220.6914166426238</v>
+        <v>220.6915830503736</v>
       </c>
       <c r="K100" t="n">
         <v>-0</v>
       </c>
       <c r="L100" t="n">
-        <v>574.2681697986708</v>
+        <v>574.2674266305464</v>
       </c>
       <c r="M100" t="n">
         <v>-0</v>
       </c>
       <c r="N100" t="n">
-        <v>429.4440528064715</v>
+        <v>429.444594629401</v>
       </c>
       <c r="O100" t="n">
-        <v>-18.77757318551604</v>
+        <v>-18.7775751221457</v>
       </c>
       <c r="P100" t="n">
-        <v>189.3158670311833</v>
+        <v>189.3156915164356</v>
       </c>
       <c r="Q100" t="n">
-        <v>-42.1911141111048</v>
+        <v>-42.19112763047579</v>
       </c>
     </row>
     <row r="101">
@@ -5773,52 +5773,52 @@
         <v>43951</v>
       </c>
       <c r="B101" t="n">
-        <v>312.1118907312654</v>
+        <v>312.1119351178029</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.28395741127184</v>
+        <v>-12.28394656633633</v>
       </c>
       <c r="D101" t="n">
-        <v>208.6346802997234</v>
+        <v>208.6346861953673</v>
       </c>
       <c r="E101" t="n">
-        <v>-13.3689722446042</v>
+        <v>-13.36897049632872</v>
       </c>
       <c r="F101" t="n">
-        <v>289.1845490621023</v>
+        <v>289.184216216297</v>
       </c>
       <c r="G101" t="n">
         <v>-0</v>
       </c>
       <c r="H101" t="n">
-        <v>289.4278561644476</v>
+        <v>289.4274816593264</v>
       </c>
       <c r="I101" t="n">
-        <v>-8.143225482853122</v>
+        <v>-8.143206969652997</v>
       </c>
       <c r="J101" t="n">
-        <v>224.0185718103465</v>
+        <v>224.0187793961188</v>
       </c>
       <c r="K101" t="n">
         <v>-0</v>
       </c>
       <c r="L101" t="n">
-        <v>579.4618059167238</v>
+        <v>579.4611917997241</v>
       </c>
       <c r="M101" t="n">
         <v>-0</v>
       </c>
       <c r="N101" t="n">
-        <v>434.6788112374243</v>
+        <v>434.6794422893864</v>
       </c>
       <c r="O101" t="n">
-        <v>-17.78750292893437</v>
+        <v>-17.78748926211269</v>
       </c>
       <c r="P101" t="n">
-        <v>192.5703631618455</v>
+        <v>192.5701584497092</v>
       </c>
       <c r="Q101" t="n">
-        <v>-41.19733161207997</v>
+        <v>-41.19735335815079</v>
       </c>
     </row>
     <row r="102">
@@ -5826,52 +5826,52 @@
         <v>43982</v>
       </c>
       <c r="B102" t="n">
-        <v>326.9201423490765</v>
+        <v>326.9201697058267</v>
       </c>
       <c r="C102" t="n">
-        <v>-8.122240834152004</v>
+        <v>-8.122234852585116</v>
       </c>
       <c r="D102" t="n">
-        <v>218.9861186850254</v>
+        <v>218.9861171984844</v>
       </c>
       <c r="E102" t="n">
-        <v>-9.070761876236416</v>
+        <v>-9.07076322797197</v>
       </c>
       <c r="F102" t="n">
-        <v>307.6490986727723</v>
+        <v>307.6487592985875</v>
       </c>
       <c r="G102" t="n">
         <v>-0</v>
       </c>
       <c r="H102" t="n">
-        <v>296.5484509988618</v>
+        <v>296.5480119518639</v>
       </c>
       <c r="I102" t="n">
-        <v>-5.883336324979145</v>
+        <v>-5.883334916045414</v>
       </c>
       <c r="J102" t="n">
-        <v>224.7845711245863</v>
+        <v>224.7847487011913</v>
       </c>
       <c r="K102" t="n">
         <v>-0</v>
       </c>
       <c r="L102" t="n">
-        <v>573.2879597661945</v>
+        <v>573.2872921629553</v>
       </c>
       <c r="M102" t="n">
-        <v>-1.065444881351975</v>
+        <v>-1.065455240858086</v>
       </c>
       <c r="N102" t="n">
-        <v>427.0201609698745</v>
+        <v>427.020741534767</v>
       </c>
       <c r="O102" t="n">
-        <v>-19.23601329201565</v>
+        <v>-19.23600731189944</v>
       </c>
       <c r="P102" t="n">
-        <v>193.8655149349798</v>
+        <v>193.8653223159994</v>
       </c>
       <c r="Q102" t="n">
-        <v>-40.80184822108883</v>
+        <v>-40.80186600026588</v>
       </c>
     </row>
     <row r="103">
@@ -5879,52 +5879,52 @@
         <v>44012</v>
       </c>
       <c r="B103" t="n">
-        <v>332.0240602966978</v>
+        <v>332.0240786848347</v>
       </c>
       <c r="C103" t="n">
-        <v>-6.687833823851955</v>
+        <v>-6.687830389473991</v>
       </c>
       <c r="D103" t="n">
-        <v>223.4976128185585</v>
+        <v>223.4976290794299</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.197461747327161</v>
+        <v>-7.197455744966179</v>
       </c>
       <c r="F103" t="n">
-        <v>326.4503147890347</v>
+        <v>326.4499546748335</v>
       </c>
       <c r="G103" t="n">
         <v>-0</v>
       </c>
       <c r="H103" t="n">
-        <v>296.6750327698987</v>
+        <v>296.6745744374875</v>
       </c>
       <c r="I103" t="n">
-        <v>-5.843162606546494</v>
+        <v>-5.843167258224245</v>
       </c>
       <c r="J103" t="n">
-        <v>226.6629471360864</v>
+        <v>226.6631314835112</v>
       </c>
       <c r="K103" t="n">
         <v>-0</v>
       </c>
       <c r="L103" t="n">
-        <v>574.65604824783</v>
+        <v>574.6554408980776</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.8293484781608845</v>
+        <v>-0.8293481892584668</v>
       </c>
       <c r="N103" t="n">
-        <v>439.6385523907074</v>
+        <v>439.6391501112186</v>
       </c>
       <c r="O103" t="n">
-        <v>-16.84944776154134</v>
+        <v>-16.84944160471346</v>
       </c>
       <c r="P103" t="n">
-        <v>199.5942162330515</v>
+        <v>199.5940179222047</v>
       </c>
       <c r="Q103" t="n">
-        <v>-39.05255036864183</v>
+        <v>-39.05256867319131</v>
       </c>
     </row>
     <row r="104">
@@ -5932,52 +5932,52 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>353.8742355607134</v>
+        <v>353.8742369160349</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.5470523895431668</v>
+        <v>-0.5470538561493076</v>
       </c>
       <c r="D104" t="n">
-        <v>243.1453113566888</v>
+        <v>243.1452844346702</v>
       </c>
       <c r="E104" t="n">
         <v>-0</v>
       </c>
       <c r="F104" t="n">
-        <v>364.6084062285518</v>
+        <v>364.6079940358076</v>
       </c>
       <c r="G104" t="n">
         <v>-0</v>
       </c>
       <c r="H104" t="n">
-        <v>346.2242287292347</v>
+        <v>346.2236938484122</v>
       </c>
       <c r="I104" t="n">
         <v>-0</v>
       </c>
       <c r="J104" t="n">
-        <v>252.1435961175348</v>
+        <v>252.1438043607379</v>
       </c>
       <c r="K104" t="n">
         <v>-0</v>
       </c>
       <c r="L104" t="n">
-        <v>660.2182439293401</v>
+        <v>660.2175461495322</v>
       </c>
       <c r="M104" t="n">
         <v>-0</v>
       </c>
       <c r="N104" t="n">
-        <v>491.0257883520174</v>
+        <v>491.0264021459401</v>
       </c>
       <c r="O104" t="n">
-        <v>-7.130379620325192</v>
+        <v>-7.130382917593628</v>
       </c>
       <c r="P104" t="n">
-        <v>222.9238242264958</v>
+        <v>222.9235783150777</v>
       </c>
       <c r="Q104" t="n">
-        <v>-31.92869610605359</v>
+        <v>-31.92872400724813</v>
       </c>
     </row>
     <row r="105">
@@ -5985,52 +5985,52 @@
         <v>44074</v>
       </c>
       <c r="B105" t="n">
-        <v>380.3490187856056</v>
+        <v>380.3490478959513</v>
       </c>
       <c r="C105" t="n">
         <v>-0</v>
       </c>
       <c r="D105" t="n">
-        <v>261.4364614538131</v>
+        <v>261.4364446213046</v>
       </c>
       <c r="E105" t="n">
         <v>-0</v>
       </c>
       <c r="F105" t="n">
-        <v>418.8518942764402</v>
+        <v>418.8514321732855</v>
       </c>
       <c r="G105" t="n">
         <v>-0</v>
       </c>
       <c r="H105" t="n">
-        <v>366.891246648462</v>
+        <v>366.8906798392225</v>
       </c>
       <c r="I105" t="n">
         <v>-0</v>
       </c>
       <c r="J105" t="n">
-        <v>263.7453973317042</v>
+        <v>263.7456164610446</v>
       </c>
       <c r="K105" t="n">
         <v>-0</v>
       </c>
       <c r="L105" t="n">
-        <v>810.5650362311327</v>
+        <v>810.5641795509055</v>
       </c>
       <c r="M105" t="n">
         <v>-0</v>
       </c>
       <c r="N105" t="n">
-        <v>561.1823577600919</v>
+        <v>561.1831207282255</v>
       </c>
       <c r="O105" t="n">
         <v>-0</v>
       </c>
       <c r="P105" t="n">
-        <v>254.7746376013883</v>
+        <v>254.7743844649244</v>
       </c>
       <c r="Q105" t="n">
-        <v>-22.20283390162267</v>
+        <v>-22.20285726670333</v>
       </c>
     </row>
     <row r="106">
@@ -6038,52 +6038,52 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>363.0140763593449</v>
+        <v>363.0140900998196</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.557640895619627</v>
+        <v>-4.557644587787664</v>
       </c>
       <c r="D106" t="n">
-        <v>247.4909744105624</v>
+        <v>247.4909419568771</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.334178318395856</v>
+        <v>-5.334184636968993</v>
       </c>
       <c r="F106" t="n">
-        <v>377.0142539009249</v>
+        <v>377.0138178814768</v>
       </c>
       <c r="G106" t="n">
-        <v>-9.98864776481175</v>
+        <v>-9.988652557477673</v>
       </c>
       <c r="H106" t="n">
-        <v>337.6612953254761</v>
+        <v>337.6607385058157</v>
       </c>
       <c r="I106" t="n">
-        <v>-7.966925237383138</v>
+        <v>-7.966934822714975</v>
       </c>
       <c r="J106" t="n">
-        <v>248.5413243904234</v>
+        <v>248.541527540129</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.764678017170914</v>
+        <v>-5.764679286399158</v>
       </c>
       <c r="L106" t="n">
-        <v>713.2131739203413</v>
+        <v>713.2124201305817</v>
       </c>
       <c r="M106" t="n">
         <v>-12.01037029224037</v>
       </c>
       <c r="N106" t="n">
-        <v>516.4733788719614</v>
+        <v>516.4740272637299</v>
       </c>
       <c r="O106" t="n">
-        <v>-7.966925237383143</v>
+        <v>-7.966934822714977</v>
       </c>
       <c r="P106" t="n">
-        <v>234.4769326998719</v>
+        <v>234.4766753096306</v>
       </c>
       <c r="Q106" t="n">
-        <v>-28.40087596148318</v>
+        <v>-28.40090492219961</v>
       </c>
     </row>
     <row r="107">
@@ -6091,52 +6091,52 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>349.7638848871878</v>
+        <v>349.7639191168344</v>
       </c>
       <c r="C107" t="n">
-        <v>-8.041333719243259</v>
+        <v>-8.041331757844645</v>
       </c>
       <c r="D107" t="n">
-        <v>237.7657911290058</v>
+        <v>237.765799183628</v>
       </c>
       <c r="E107" t="n">
-        <v>-9.054081513029164</v>
+        <v>-9.054072576592736</v>
       </c>
       <c r="F107" t="n">
-        <v>362.8786932684125</v>
+        <v>362.8782927022321</v>
       </c>
       <c r="G107" t="n">
-        <v>-13.36348283794214</v>
+        <v>-13.36348288953598</v>
       </c>
       <c r="H107" t="n">
-        <v>345.4410403826502</v>
+        <v>345.4404707338174</v>
       </c>
       <c r="I107" t="n">
-        <v>-5.84647534160563</v>
+        <v>-5.846485147784328</v>
       </c>
       <c r="J107" t="n">
-        <v>245.3577247593351</v>
+        <v>245.3579243936358</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.971751074481697</v>
+        <v>-6.971752673707356</v>
       </c>
       <c r="L107" t="n">
-        <v>665.3543410249757</v>
+        <v>665.3536378168646</v>
       </c>
       <c r="M107" t="n">
-        <v>-17.91474942977309</v>
+        <v>-17.9147494297731</v>
       </c>
       <c r="N107" t="n">
-        <v>543.3097074219073</v>
+        <v>543.3103895045789</v>
       </c>
       <c r="O107" t="n">
-        <v>-3.18482042263795</v>
+        <v>-3.184830506030524</v>
       </c>
       <c r="P107" t="n">
-        <v>221.8705955780408</v>
+        <v>221.8703995550196</v>
       </c>
       <c r="Q107" t="n">
-        <v>-32.25030662770853</v>
+        <v>-32.25031951808411</v>
       </c>
     </row>
     <row r="108">
@@ -6144,52 +6144,52 @@
         <v>44165</v>
       </c>
       <c r="B108" t="n">
-        <v>394.2041742329454</v>
+        <v>394.2042685022082</v>
       </c>
       <c r="C108" t="n">
         <v>-0</v>
       </c>
       <c r="D108" t="n">
-        <v>269.3470831544116</v>
+        <v>269.347079638267</v>
       </c>
       <c r="E108" t="n">
         <v>-0</v>
       </c>
       <c r="F108" t="n">
-        <v>418.6363424741735</v>
+        <v>418.6358929806802</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.0514625348988881</v>
+        <v>-0.05145958114238726</v>
       </c>
       <c r="H108" t="n">
-        <v>423.205083738428</v>
+        <v>423.204377293593</v>
       </c>
       <c r="I108" t="n">
         <v>-0</v>
       </c>
       <c r="J108" t="n">
-        <v>250.7905453973241</v>
+        <v>250.7906987695501</v>
       </c>
       <c r="K108" t="n">
-        <v>-4.911877919176425</v>
+        <v>-4.911898770233375</v>
       </c>
       <c r="L108" t="n">
-        <v>681.0996997161053</v>
+        <v>681.0988657384426</v>
       </c>
       <c r="M108" t="n">
-        <v>-15.97223303844929</v>
+        <v>-15.97224711856787</v>
       </c>
       <c r="N108" t="n">
-        <v>878.8486158108273</v>
+        <v>878.84978357517</v>
       </c>
       <c r="O108" t="n">
         <v>-0</v>
       </c>
       <c r="P108" t="n">
-        <v>271.8170483642846</v>
+        <v>271.816802715961</v>
       </c>
       <c r="Q108" t="n">
-        <v>-16.99881801793726</v>
+        <v>-16.99883548884295</v>
       </c>
     </row>
     <row r="109">
@@ -6197,52 +6197,52 @@
         <v>44196</v>
       </c>
       <c r="B109" t="n">
-        <v>411.4204909948695</v>
+        <v>411.4205576212555</v>
       </c>
       <c r="C109" t="n">
         <v>-0</v>
       </c>
       <c r="D109" t="n">
-        <v>283.5149654670521</v>
+        <v>283.5149532918326</v>
       </c>
       <c r="E109" t="n">
         <v>-0</v>
       </c>
       <c r="F109" t="n">
-        <v>473.2200309553195</v>
+        <v>473.2195127600275</v>
       </c>
       <c r="G109" t="n">
         <v>-0</v>
       </c>
       <c r="H109" t="n">
-        <v>455.7753424984722</v>
+        <v>455.7745816849826</v>
       </c>
       <c r="I109" t="n">
         <v>-0</v>
       </c>
       <c r="J109" t="n">
-        <v>272.8650724044322</v>
+        <v>272.8652447187072</v>
       </c>
       <c r="K109" t="n">
         <v>-0</v>
       </c>
       <c r="L109" t="n">
-        <v>748.033476541215</v>
+        <v>748.0325606059846</v>
       </c>
       <c r="M109" t="n">
-        <v>-7.714564149061904</v>
+        <v>-7.714579612877362</v>
       </c>
       <c r="N109" t="n">
-        <v>1119.533872620785</v>
+        <v>1119.535278107645</v>
       </c>
       <c r="O109" t="n">
         <v>-0</v>
       </c>
       <c r="P109" t="n">
-        <v>291.8179649203023</v>
+        <v>291.8176749786957</v>
       </c>
       <c r="Q109" t="n">
-        <v>-10.89140229525149</v>
+        <v>-10.89142905753187</v>
       </c>
     </row>
     <row r="110">
@@ -6250,52 +6250,52 @@
         <v>44227</v>
       </c>
       <c r="B110" t="n">
-        <v>403.9484562475832</v>
+        <v>403.9485218978572</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.816155225817227</v>
+        <v>-1.816155168958991</v>
       </c>
       <c r="D110" t="n">
-        <v>276.852252567015</v>
+        <v>276.8522488930286</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.350039225993303</v>
+        <v>-2.350036328399877</v>
       </c>
       <c r="F110" t="n">
-        <v>493.0793266025586</v>
+        <v>493.0787866605255</v>
       </c>
       <c r="G110" t="n">
         <v>-0</v>
       </c>
       <c r="H110" t="n">
-        <v>483.6605358505684</v>
+        <v>483.6597284890775</v>
       </c>
       <c r="I110" t="n">
         <v>-0</v>
       </c>
       <c r="J110" t="n">
-        <v>279.4097710916184</v>
+        <v>279.409931750729</v>
       </c>
       <c r="K110" t="n">
         <v>-0</v>
       </c>
       <c r="L110" t="n">
-        <v>749.7230804057044</v>
+        <v>749.7221624016258</v>
       </c>
       <c r="M110" t="n">
-        <v>-7.506116487373279</v>
+        <v>-7.506131986117285</v>
       </c>
       <c r="N110" t="n">
-        <v>1270.616792311494</v>
+        <v>1270.618387471095</v>
       </c>
       <c r="O110" t="n">
         <v>-0</v>
       </c>
       <c r="P110" t="n">
-        <v>285.1095177460627</v>
+        <v>285.1092344697688</v>
       </c>
       <c r="Q110" t="n">
-        <v>-12.93987220571819</v>
+        <v>-12.9398983527748</v>
       </c>
     </row>
     <row r="111">
@@ -6303,52 +6303,52 @@
         <v>44255</v>
       </c>
       <c r="B111" t="n">
-        <v>412.8563499866401</v>
+        <v>412.8563969221509</v>
       </c>
       <c r="C111" t="n">
         <v>-0</v>
       </c>
       <c r="D111" t="n">
-        <v>282.7424351471384</v>
+        <v>282.7423985892415</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.2724830834383155</v>
+        <v>-0.2724916952778411</v>
       </c>
       <c r="F111" t="n">
-        <v>522.9728256761719</v>
+        <v>522.9722529995344</v>
       </c>
       <c r="G111" t="n">
         <v>-0</v>
       </c>
       <c r="H111" t="n">
-        <v>483.3804922164573</v>
+        <v>483.3796853224356</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.05790086503928864</v>
+        <v>-0.05790086503927523</v>
       </c>
       <c r="J111" t="n">
-        <v>274.2886081743646</v>
+        <v>274.2886728391332</v>
       </c>
       <c r="K111" t="n">
-        <v>-1.832850332057504</v>
+        <v>-1.832883634274201</v>
       </c>
       <c r="L111" t="n">
-        <v>735.6319802392358</v>
+        <v>735.630876259818</v>
       </c>
       <c r="M111" t="n">
-        <v>-9.244545797375077</v>
+        <v>-9.244586077391718</v>
       </c>
       <c r="N111" t="n">
-        <v>1496.481888985485</v>
+        <v>1496.483767700978</v>
       </c>
       <c r="O111" t="n">
         <v>-0</v>
       </c>
       <c r="P111" t="n">
-        <v>300.1875769787286</v>
+        <v>293.036810295097</v>
       </c>
       <c r="Q111" t="n">
-        <v>-8.335684404261439</v>
+        <v>-10.51915754985864</v>
       </c>
     </row>
     <row r="112">
@@ -6356,52 +6356,52 @@
         <v>44286</v>
       </c>
       <c r="B112" t="n">
-        <v>431.7945308210352</v>
+        <v>431.7946019749273</v>
       </c>
       <c r="C112" t="n">
         <v>-0</v>
       </c>
       <c r="D112" t="n">
-        <v>297.8918608623068</v>
+        <v>297.8918355093361</v>
       </c>
       <c r="E112" t="n">
         <v>-0</v>
       </c>
       <c r="F112" t="n">
-        <v>522.6581823837062</v>
+        <v>522.6576464549403</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.06016436744278177</v>
+        <v>-0.06015740659080659</v>
       </c>
       <c r="H112" t="n">
-        <v>483.1116779692785</v>
+        <v>483.1109579037365</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1134799804008673</v>
+        <v>-0.1134621207879416</v>
       </c>
       <c r="J112" t="n">
-        <v>272.0416738889166</v>
+        <v>272.0417630735031</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.637022024647019</v>
+        <v>-2.637046088898267</v>
       </c>
       <c r="L112" t="n">
-        <v>732.586894566264</v>
+        <v>732.5859595734245</v>
       </c>
       <c r="M112" t="n">
-        <v>-9.620220238889399</v>
+        <v>-9.620240067934532</v>
       </c>
       <c r="N112" t="n">
-        <v>1510.999315447005</v>
+        <v>1511.001212387986</v>
       </c>
       <c r="O112" t="n">
         <v>-0</v>
       </c>
       <c r="P112" t="n">
-        <v>327.0575087474663</v>
+        <v>319.2666995344043</v>
       </c>
       <c r="Q112" t="n">
-        <v>-0.1307682299319814</v>
+        <v>-2.509677156786032</v>
       </c>
     </row>
     <row r="113">
@@ -6409,49 +6409,49 @@
         <v>44316</v>
       </c>
       <c r="B113" t="n">
-        <v>462.6878545708769</v>
+        <v>462.6879190542793</v>
       </c>
       <c r="C113" t="n">
         <v>-0</v>
       </c>
       <c r="D113" t="n">
-        <v>322.059732137569</v>
+        <v>322.0597436755584</v>
       </c>
       <c r="E113" t="n">
         <v>-0</v>
       </c>
       <c r="F113" t="n">
-        <v>540.9567730008939</v>
+        <v>540.9562280654819</v>
       </c>
       <c r="G113" t="n">
         <v>-0</v>
       </c>
       <c r="H113" t="n">
-        <v>483.3861069099235</v>
+        <v>483.3854295761623</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.05673999020043363</v>
+        <v>-0.05671320078106196</v>
       </c>
       <c r="J113" t="n">
-        <v>281.3812936879776</v>
+        <v>281.3813836106044</v>
       </c>
       <c r="K113" t="n">
         <v>-0</v>
       </c>
       <c r="L113" t="n">
-        <v>758.6817718354121</v>
+        <v>758.6806706569004</v>
       </c>
       <c r="M113" t="n">
-        <v>-6.400876188413108</v>
+        <v>-6.400913117422887</v>
       </c>
       <c r="N113" t="n">
-        <v>1583.080216220661</v>
+        <v>1583.082203653552</v>
       </c>
       <c r="O113" t="n">
         <v>-0</v>
       </c>
       <c r="P113" t="n">
-        <v>361.7420366338626</v>
+        <v>353.1250340591724</v>
       </c>
       <c r="Q113" t="n">
         <v>-0</v>
@@ -6462,49 +6462,49 @@
         <v>44347</v>
       </c>
       <c r="B114" t="n">
-        <v>466.6796772350401</v>
+        <v>466.6797323299871</v>
       </c>
       <c r="C114" t="n">
         <v>-0</v>
       </c>
       <c r="D114" t="n">
-        <v>326.4987405416122</v>
+        <v>326.4987286729342</v>
       </c>
       <c r="E114" t="n">
         <v>-0</v>
       </c>
       <c r="F114" t="n">
-        <v>542.5086800725605</v>
+        <v>542.5081243446793</v>
       </c>
       <c r="G114" t="n">
         <v>-0</v>
       </c>
       <c r="H114" t="n">
-        <v>486.395865971333</v>
+        <v>486.3950960874179</v>
       </c>
       <c r="I114" t="n">
         <v>-0</v>
       </c>
       <c r="J114" t="n">
-        <v>286.5391636364533</v>
+        <v>286.5392256850901</v>
       </c>
       <c r="K114" t="n">
         <v>-0</v>
       </c>
       <c r="L114" t="n">
-        <v>773.6036279211959</v>
+        <v>773.6024383105949</v>
       </c>
       <c r="M114" t="n">
-        <v>-4.559955914431674</v>
+        <v>-4.560001807727212</v>
       </c>
       <c r="N114" t="n">
-        <v>1576.496757603467</v>
+        <v>1576.498736771343</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.4158638677773849</v>
+        <v>-0.4158638677773879</v>
       </c>
       <c r="P114" t="n">
-        <v>365.6740365285736</v>
+        <v>356.9633462781805</v>
       </c>
       <c r="Q114" t="n">
         <v>-0</v>
@@ -6515,49 +6515,49 @@
         <v>44377</v>
       </c>
       <c r="B115" t="n">
-        <v>481.797334497419</v>
+        <v>481.7974025408895</v>
       </c>
       <c r="C115" t="n">
         <v>-0</v>
       </c>
       <c r="D115" t="n">
-        <v>336.4874274840212</v>
+        <v>336.4874156566632</v>
       </c>
       <c r="E115" t="n">
         <v>-0</v>
       </c>
       <c r="F115" t="n">
-        <v>553.119972518075</v>
+        <v>553.1194059237575</v>
       </c>
       <c r="G115" t="n">
         <v>-0</v>
       </c>
       <c r="H115" t="n">
-        <v>497.1523319360356</v>
+        <v>497.151516352328</v>
       </c>
       <c r="I115" t="n">
         <v>-0</v>
       </c>
       <c r="J115" t="n">
-        <v>292.681385075504</v>
+        <v>292.6814555059293</v>
       </c>
       <c r="K115" t="n">
         <v>-0</v>
       </c>
       <c r="L115" t="n">
-        <v>786.3525763863609</v>
+        <v>786.3514356514423</v>
       </c>
       <c r="M115" t="n">
-        <v>-2.987108839205788</v>
+        <v>-2.987147040334091</v>
       </c>
       <c r="N115" t="n">
-        <v>1652.460227417734</v>
+        <v>1652.462301951781</v>
       </c>
       <c r="O115" t="n">
         <v>-0</v>
       </c>
       <c r="P115" t="n">
-        <v>381.6433643745304</v>
+        <v>372.5522701181717</v>
       </c>
       <c r="Q115" t="n">
         <v>-0</v>
@@ -6568,49 +6568,49 @@
         <v>44408</v>
       </c>
       <c r="B116" t="n">
-        <v>500.0289303330376</v>
+        <v>500.0290009172002</v>
       </c>
       <c r="C116" t="n">
         <v>-0</v>
       </c>
       <c r="D116" t="n">
-        <v>350.0694361072884</v>
+        <v>350.0694331408873</v>
       </c>
       <c r="E116" t="n">
         <v>-0</v>
       </c>
       <c r="F116" t="n">
-        <v>558.4802169607694</v>
+        <v>558.4796448756288</v>
       </c>
       <c r="G116" t="n">
         <v>-0</v>
       </c>
       <c r="H116" t="n">
-        <v>520.3561302910148</v>
+        <v>520.3552766412282</v>
       </c>
       <c r="I116" t="n">
         <v>-0</v>
       </c>
       <c r="J116" t="n">
-        <v>300.3790801572214</v>
+        <v>300.3791641705142</v>
       </c>
       <c r="K116" t="n">
         <v>-0</v>
       </c>
       <c r="L116" t="n">
-        <v>830.0449758574122</v>
+        <v>830.0437717394168</v>
       </c>
       <c r="M116" t="n">
         <v>-0</v>
       </c>
       <c r="N116" t="n">
-        <v>1729.586193532195</v>
+        <v>1729.588364891836</v>
       </c>
       <c r="O116" t="n">
         <v>-0</v>
       </c>
       <c r="P116" t="n">
-        <v>399.4559644602559</v>
+        <v>389.9405577660389</v>
       </c>
       <c r="Q116" t="n">
         <v>-0</v>
@@ -6621,49 +6621,49 @@
         <v>44439</v>
       </c>
       <c r="B117" t="n">
-        <v>519.4077650501006</v>
+        <v>519.4078388557485</v>
       </c>
       <c r="C117" t="n">
         <v>-0</v>
       </c>
       <c r="D117" t="n">
-        <v>365.2158961304569</v>
+        <v>365.2158706976469</v>
       </c>
       <c r="E117" t="n">
         <v>-0</v>
       </c>
       <c r="F117" t="n">
-        <v>573.5352530983604</v>
+        <v>573.5346655914335</v>
       </c>
       <c r="G117" t="n">
         <v>-0</v>
       </c>
       <c r="H117" t="n">
-        <v>518.566267948164</v>
+        <v>518.5654174428474</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.3439687242369505</v>
+        <v>-0.3439686842293523</v>
       </c>
       <c r="J117" t="n">
-        <v>298.2272676153005</v>
+        <v>298.2273701111889</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.7163656472996176</v>
+        <v>-0.7163592938503148</v>
       </c>
       <c r="L117" t="n">
-        <v>828.1851853641563</v>
+        <v>828.1840893062224</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.2240590025058313</v>
+        <v>-0.2240463089431135</v>
       </c>
       <c r="N117" t="n">
-        <v>1832.051220736531</v>
+        <v>1832.053520732967</v>
       </c>
       <c r="O117" t="n">
         <v>-0</v>
       </c>
       <c r="P117" t="n">
-        <v>423.1207383919705</v>
+        <v>413.0416151224078</v>
       </c>
       <c r="Q117" t="n">
         <v>-0</v>
@@ -6674,52 +6674,52 @@
         <v>44469</v>
       </c>
       <c r="B118" t="n">
-        <v>483.1415244927464</v>
+        <v>483.141560631757</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.98222918439735</v>
+        <v>-6.982235444094544</v>
       </c>
       <c r="D118" t="n">
-        <v>337.4927647114971</v>
+        <v>337.4927478597526</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.590888488889049</v>
+        <v>-7.590886667914168</v>
       </c>
       <c r="F118" t="n">
-        <v>518.5689682082292</v>
+        <v>518.5684370066</v>
       </c>
       <c r="G118" t="n">
-        <v>-9.583767448154495</v>
+        <v>-9.583767448154486</v>
       </c>
       <c r="H118" t="n">
-        <v>469.7595020882673</v>
+        <v>469.7587316313773</v>
       </c>
       <c r="I118" t="n">
-        <v>-9.72346154055122</v>
+        <v>-9.723461504309098</v>
       </c>
       <c r="J118" t="n">
-        <v>276.4039493951955</v>
+        <v>276.4040458677638</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.98162466889408</v>
+        <v>-7.981618288657528</v>
       </c>
       <c r="L118" t="n">
-        <v>733.5325033168297</v>
+        <v>733.5315325265593</v>
       </c>
       <c r="M118" t="n">
-        <v>-11.62737867799126</v>
+        <v>-11.62736743516658</v>
       </c>
       <c r="N118" t="n">
-        <v>1659.621002073014</v>
+        <v>1659.623085596852</v>
       </c>
       <c r="O118" t="n">
+        <v>-9.411866694108877</v>
+      </c>
+      <c r="P118" t="n">
+        <v>374.1666889158925</v>
+      </c>
+      <c r="Q118" t="n">
         <v>-9.41186669410888</v>
-      </c>
-      <c r="P118" t="n">
-        <v>383.2971785393891</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>-9.411866694108879</v>
       </c>
     </row>
     <row r="119">
@@ -6727,49 +6727,49 @@
         <v>44500</v>
       </c>
       <c r="B119" t="n">
-        <v>528.7376819444652</v>
+        <v>528.7377576883066</v>
       </c>
       <c r="C119" t="n">
         <v>-0</v>
       </c>
       <c r="D119" t="n">
-        <v>374.0914852889356</v>
+        <v>374.0914631614195</v>
       </c>
       <c r="E119" t="n">
         <v>-0</v>
       </c>
       <c r="F119" t="n">
-        <v>518.4281927706733</v>
+        <v>518.4276255984995</v>
       </c>
       <c r="G119" t="n">
-        <v>-9.608312659071414</v>
+        <v>-9.608318955944403</v>
       </c>
       <c r="H119" t="n">
-        <v>468.1834116691177</v>
+        <v>468.1826017917023</v>
       </c>
       <c r="I119" t="n">
-        <v>-10.02634841502086</v>
+        <v>-10.02635645136308</v>
       </c>
       <c r="J119" t="n">
-        <v>283.2572683550947</v>
+        <v>283.2573275980697</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.700067991807227</v>
+        <v>-5.700074643900785</v>
       </c>
       <c r="L119" t="n">
-        <v>764.5981150500529</v>
+        <v>764.5970559455967</v>
       </c>
       <c r="M119" t="n">
-        <v>-7.884736696316306</v>
+        <v>-7.88473066386267</v>
       </c>
       <c r="N119" t="n">
-        <v>1896.610593565205</v>
+        <v>1896.612974610864</v>
       </c>
       <c r="O119" t="n">
         <v>-0</v>
       </c>
       <c r="P119" t="n">
-        <v>438.0310253927942</v>
+        <v>427.5967254395337</v>
       </c>
       <c r="Q119" t="n">
         <v>-0</v>
@@ -6780,52 +6780,52 @@
         <v>44530</v>
       </c>
       <c r="B120" t="n">
-        <v>524.1063088336257</v>
+        <v>524.1063943123337</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.8759302143564521</v>
+        <v>-0.8759282477237271</v>
       </c>
       <c r="D120" t="n">
-        <v>370.1137089832719</v>
+        <v>370.1136937875839</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.063316451212843</v>
+        <v>-1.063314661131216</v>
       </c>
       <c r="F120" t="n">
-        <v>520.7930641442131</v>
+        <v>520.7925124340135</v>
       </c>
       <c r="G120" t="n">
-        <v>-9.195980311449501</v>
+        <v>-9.195983490035758</v>
       </c>
       <c r="H120" t="n">
-        <v>467.6281807276787</v>
+        <v>467.6274268661984</v>
       </c>
       <c r="I120" t="n">
-        <v>-10.13305051942933</v>
+        <v>-10.13304796587742</v>
       </c>
       <c r="J120" t="n">
-        <v>275.6920912061502</v>
+        <v>275.6921900074293</v>
       </c>
       <c r="K120" t="n">
-        <v>-8.21861127550889</v>
+        <v>-8.218604053732252</v>
       </c>
       <c r="L120" t="n">
-        <v>746.6843305301228</v>
+        <v>746.68345839963</v>
       </c>
       <c r="M120" t="n">
-        <v>-10.04290704141426</v>
+        <v>-10.04288161395382</v>
       </c>
       <c r="N120" t="n">
-        <v>1864.061060324621</v>
+        <v>1864.063400506897</v>
       </c>
       <c r="O120" t="n">
-        <v>-1.71619484521586</v>
+        <v>-1.716194845215872</v>
       </c>
       <c r="P120" t="n">
-        <v>430.5135595145569</v>
+        <v>420.2583324792285</v>
       </c>
       <c r="Q120" t="n">
-        <v>-1.716194845215862</v>
+        <v>-1.716194845215866</v>
       </c>
     </row>
     <row r="121">
@@ -6833,49 +6833,49 @@
         <v>44561</v>
       </c>
       <c r="B121" t="n">
-        <v>555.1722106516906</v>
+        <v>555.1722905606064</v>
       </c>
       <c r="C121" t="n">
         <v>-0</v>
       </c>
       <c r="D121" t="n">
-        <v>394.4578289591523</v>
+        <v>394.4578093605069</v>
       </c>
       <c r="E121" t="n">
         <v>-0</v>
       </c>
       <c r="F121" t="n">
-        <v>511.281592621693</v>
+        <v>511.2810509876181</v>
       </c>
       <c r="G121" t="n">
-        <v>-10.85437384020594</v>
+        <v>-10.85437696074029</v>
       </c>
       <c r="H121" t="n">
-        <v>465.1776645849929</v>
+        <v>465.1768836873338</v>
       </c>
       <c r="I121" t="n">
-        <v>-10.6039810994756</v>
+        <v>-10.60398451420692</v>
       </c>
       <c r="J121" t="n">
-        <v>280.3445248618577</v>
+        <v>280.3446254508227</v>
       </c>
       <c r="K121" t="n">
-        <v>-6.669757189774157</v>
+        <v>-6.669749806054679</v>
       </c>
       <c r="L121" t="n">
-        <v>765.3001731104238</v>
+        <v>765.2992788582774</v>
       </c>
       <c r="M121" t="n">
-        <v>-7.800155971079628</v>
+        <v>-7.800129955250751</v>
       </c>
       <c r="N121" t="n">
-        <v>2027.363646646721</v>
+        <v>2027.36619184257</v>
       </c>
       <c r="O121" t="n">
         <v>-0</v>
       </c>
       <c r="P121" t="n">
-        <v>468.2290502845948</v>
+        <v>457.0754057382554</v>
       </c>
       <c r="Q121" t="n">
         <v>-0</v>
@@ -6886,52 +6886,52 @@
         <v>44592</v>
       </c>
       <c r="B122" t="n">
-        <v>515.1827354870422</v>
+        <v>515.1828099559436</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.203075801958214</v>
+        <v>-7.203075745059579</v>
       </c>
       <c r="D122" t="n">
-        <v>360.229698912378</v>
+        <v>360.2296704547765</v>
       </c>
       <c r="E122" t="n">
-        <v>-8.677259654622997</v>
+        <v>-8.677262331609269</v>
       </c>
       <c r="F122" t="n">
-        <v>486.7641922792024</v>
+        <v>486.7636766180153</v>
       </c>
       <c r="G122" t="n">
-        <v>-15.12915907965589</v>
+        <v>-15.12916205055178</v>
       </c>
       <c r="H122" t="n">
-        <v>448.4689698288673</v>
+        <v>448.4681640368313</v>
       </c>
       <c r="I122" t="n">
-        <v>-13.81499251713316</v>
+        <v>-13.81500598368319</v>
       </c>
       <c r="J122" t="n">
-        <v>282.4391641433629</v>
+        <v>282.4392318063339</v>
       </c>
       <c r="K122" t="n">
-        <v>-5.972425244950008</v>
+        <v>-5.972429017745227</v>
       </c>
       <c r="L122" t="n">
-        <v>774.9291453310124</v>
+        <v>774.9281140255134</v>
       </c>
       <c r="M122" t="n">
-        <v>-6.640101696834774</v>
+        <v>-6.640090509733537</v>
       </c>
       <c r="N122" t="n">
-        <v>1812.535542978123</v>
+        <v>1812.537818474158</v>
       </c>
       <c r="O122" t="n">
-        <v>-10.59642674484794</v>
+        <v>-10.59642674484795</v>
       </c>
       <c r="P122" t="n">
-        <v>418.6135019730905</v>
+        <v>408.6417452004847</v>
       </c>
       <c r="Q122" t="n">
-        <v>-10.59642674484794</v>
+        <v>-10.59642674484793</v>
       </c>
     </row>
     <row r="123">
@@ -6939,52 +6939,52 @@
         <v>44620</v>
       </c>
       <c r="B123" t="n">
-        <v>495.8149075018749</v>
+        <v>495.8149792275619</v>
       </c>
       <c r="C123" t="n">
-        <v>-10.69169205716169</v>
+        <v>-10.69169199224734</v>
       </c>
       <c r="D123" t="n">
-        <v>344.0124213414042</v>
+        <v>344.0124015115598</v>
       </c>
       <c r="E123" t="n">
-        <v>-12.78854263099742</v>
+        <v>-12.7885433250083</v>
       </c>
       <c r="F123" t="n">
-        <v>486.5876896325173</v>
+        <v>486.5872081010917</v>
       </c>
       <c r="G123" t="n">
-        <v>-15.1599335866686</v>
+        <v>-15.15993063831302</v>
       </c>
       <c r="H123" t="n">
-        <v>446.5309660060174</v>
+        <v>446.5300826206163</v>
       </c>
       <c r="I123" t="n">
-        <v>-14.18743048990502</v>
+        <v>-14.18745947905752</v>
       </c>
       <c r="J123" t="n">
-        <v>289.3336023190917</v>
+        <v>289.3336777036772</v>
       </c>
       <c r="K123" t="n">
-        <v>-3.677179460150298</v>
+        <v>-3.677181304282122</v>
       </c>
       <c r="L123" t="n">
-        <v>810.5514691617003</v>
+        <v>810.5504071027235</v>
       </c>
       <c r="M123" t="n">
-        <v>-2.3484880051922</v>
+        <v>-2.348474297426926</v>
       </c>
       <c r="N123" t="n">
-        <v>1782.9364691018</v>
+        <v>1782.939291314639</v>
       </c>
       <c r="O123" t="n">
-        <v>-12.05640527042131</v>
+        <v>-12.05637647068503</v>
       </c>
       <c r="P123" t="n">
-        <v>392.3181962036606</v>
+        <v>382.9728176824923</v>
       </c>
       <c r="Q123" t="n">
-        <v>-16.21233326612152</v>
+        <v>-16.21233326612151</v>
       </c>
     </row>
     <row r="124">
@@ -6992,52 +6992,52 @@
         <v>44651</v>
       </c>
       <c r="B124" t="n">
-        <v>506.7239557132548</v>
+        <v>506.7239997030462</v>
       </c>
       <c r="C124" t="n">
-        <v>-8.726707498843417</v>
+        <v>-8.726712712667577</v>
       </c>
       <c r="D124" t="n">
-        <v>359.8863047084238</v>
+        <v>359.8862793466437</v>
       </c>
       <c r="E124" t="n">
-        <v>-8.764314386141518</v>
+        <v>-8.764316282623568</v>
       </c>
       <c r="F124" t="n">
-        <v>486.4112548714655</v>
+        <v>486.4107395841681</v>
       </c>
       <c r="G124" t="n">
-        <v>-15.19069625733246</v>
+        <v>-15.19069922607425</v>
       </c>
       <c r="H124" t="n">
-        <v>440.2715760386014</v>
+        <v>440.2707044668551</v>
       </c>
       <c r="I124" t="n">
-        <v>-15.39033550111635</v>
+        <v>-15.39036419334504</v>
       </c>
       <c r="J124" t="n">
-        <v>296.3732459524885</v>
+        <v>296.3733231712219</v>
       </c>
       <c r="K124" t="n">
-        <v>-1.33359293950705</v>
+        <v>-1.3335948285076</v>
       </c>
       <c r="L124" t="n">
-        <v>855.0611552062156</v>
+        <v>855.0600348265605</v>
       </c>
       <c r="M124" t="n">
         <v>-0</v>
       </c>
       <c r="N124" t="n">
-        <v>1685.866884163122</v>
+        <v>1685.86935486796</v>
       </c>
       <c r="O124" t="n">
-        <v>-16.84437634306199</v>
+        <v>-16.8443588705719</v>
       </c>
       <c r="P124" t="n">
-        <v>420.0232282984642</v>
+        <v>410.0178905544699</v>
       </c>
       <c r="Q124" t="n">
-        <v>-10.2953505248832</v>
+        <v>-10.29535052488319</v>
       </c>
     </row>
     <row r="125">
@@ -7045,49 +7045,49 @@
         <v>44681</v>
       </c>
       <c r="B125" t="n">
-        <v>445.967924543355</v>
+        <v>445.9679603800121</v>
       </c>
       <c r="C125" t="n">
-        <v>-19.67034444684215</v>
+        <v>-19.67034955406744</v>
       </c>
       <c r="D125" t="n">
-        <v>308.6781063746658</v>
+        <v>308.678087201811</v>
       </c>
       <c r="E125" t="n">
-        <v>-21.7462340171652</v>
+        <v>-21.74623498968409</v>
       </c>
       <c r="F125" t="n">
-        <v>486.269984868484</v>
+        <v>486.2695036736239</v>
       </c>
       <c r="G125" t="n">
-        <v>-15.21532769929149</v>
+        <v>-15.21532474899683</v>
       </c>
       <c r="H125" t="n">
-        <v>438.0838060011178</v>
+        <v>438.0829791839851</v>
       </c>
       <c r="I125" t="n">
-        <v>-15.81077256529778</v>
+        <v>-15.81079334647889</v>
       </c>
       <c r="J125" t="n">
-        <v>299.7892262310262</v>
+        <v>299.7893043397781</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.1963698423626841</v>
+        <v>-0.1963717531357385</v>
       </c>
       <c r="L125" t="n">
-        <v>880.9940646667146</v>
+        <v>880.9929103073797</v>
       </c>
       <c r="M125" t="n">
         <v>-0</v>
       </c>
       <c r="N125" t="n">
-        <v>1392.683821945265</v>
+        <v>1392.685862978688</v>
       </c>
       <c r="O125" t="n">
-        <v>-31.30567255416772</v>
+        <v>-31.3056581202557</v>
       </c>
       <c r="P125" t="n">
-        <v>346.9784953886631</v>
+        <v>338.713150040192</v>
       </c>
       <c r="Q125" t="n">
         <v>-25.89556432310945</v>
@@ -7098,52 +7098,52 @@
         <v>44712</v>
       </c>
       <c r="B126" t="n">
-        <v>445.9240731987635</v>
+        <v>445.9241238954827</v>
       </c>
       <c r="C126" t="n">
-        <v>-19.67824313913081</v>
+        <v>-19.67824556856146</v>
       </c>
       <c r="D126" t="n">
-        <v>306.1161434521619</v>
+        <v>306.1161280345968</v>
       </c>
       <c r="E126" t="n">
-        <v>-22.39572370514126</v>
+        <v>-22.39572375791703</v>
       </c>
       <c r="F126" t="n">
-        <v>486.5922719127677</v>
+        <v>486.5916885481457</v>
       </c>
       <c r="G126" t="n">
-        <v>-15.15913463312117</v>
+        <v>-15.15914943931621</v>
       </c>
       <c r="H126" t="n">
-        <v>440.695747972074</v>
+        <v>440.694875599767</v>
       </c>
       <c r="I126" t="n">
-        <v>-15.30881980277427</v>
+        <v>-15.30884851512421</v>
       </c>
       <c r="J126" t="n">
-        <v>304.3991290430778</v>
+        <v>304.3992083529195</v>
       </c>
       <c r="K126" t="n">
         <v>-0</v>
       </c>
       <c r="L126" t="n">
-        <v>908.0884140345474</v>
+        <v>908.0872241737078</v>
       </c>
       <c r="M126" t="n">
         <v>-0</v>
       </c>
       <c r="N126" t="n">
-        <v>1361.302350869881</v>
+        <v>1361.304612526808</v>
       </c>
       <c r="O126" t="n">
-        <v>-32.85356807489921</v>
+        <v>-32.85354081545637</v>
       </c>
       <c r="P126" t="n">
-        <v>349.6174404289848</v>
+        <v>341.2892586581653</v>
       </c>
       <c r="Q126" t="n">
-        <v>-25.3319630175694</v>
+        <v>-25.33195740275624</v>
       </c>
     </row>
     <row r="127">
@@ -7151,52 +7151,52 @@
         <v>44742</v>
       </c>
       <c r="B127" t="n">
-        <v>403.1141310118973</v>
+        <v>403.1141457646745</v>
       </c>
       <c r="C127" t="n">
-        <v>-27.38935355955578</v>
+        <v>-27.38936135346117</v>
       </c>
       <c r="D127" t="n">
-        <v>267.8180840698836</v>
+        <v>267.8180720175218</v>
       </c>
       <c r="E127" t="n">
-        <v>-32.10476141985325</v>
+        <v>-32.10476110190157</v>
       </c>
       <c r="F127" t="n">
-        <v>486.2256894927294</v>
+        <v>486.2251404592327</v>
       </c>
       <c r="G127" t="n">
-        <v>-15.22305091691679</v>
+        <v>-15.22305980270025</v>
       </c>
       <c r="H127" t="n">
-        <v>438.0764527667573</v>
+        <v>438.0756259635026</v>
       </c>
       <c r="I127" t="n">
-        <v>-15.8121856810338</v>
+        <v>-15.81220646186612</v>
       </c>
       <c r="J127" t="n">
-        <v>296.867954206193</v>
+        <v>296.8680486041378</v>
       </c>
       <c r="K127" t="n">
-        <v>-2.474111821725693</v>
+        <v>-2.474106220424222</v>
       </c>
       <c r="L127" t="n">
-        <v>862.9190818826723</v>
+        <v>862.9180020715431</v>
       </c>
       <c r="M127" t="n">
-        <v>-4.974111711346726</v>
+        <v>-4.974106110045247</v>
       </c>
       <c r="N127" t="n">
-        <v>1343.951669977124</v>
+        <v>1343.953813730942</v>
       </c>
       <c r="O127" t="n">
-        <v>-33.70939287581519</v>
+        <v>-33.70937035753316</v>
       </c>
       <c r="P127" t="n">
-        <v>344.1878790427443</v>
+        <v>335.989008525028</v>
       </c>
       <c r="Q127" t="n">
-        <v>-26.49155817360262</v>
+        <v>-26.49155821841958</v>
       </c>
     </row>
     <row r="128">
@@ -7204,52 +7204,52 @@
         <v>44773</v>
       </c>
       <c r="B128" t="n">
-        <v>447.2071102774025</v>
+        <v>447.2071608792744</v>
       </c>
       <c r="C128" t="n">
-        <v>-19.44713699692442</v>
+        <v>-19.44713947670372</v>
       </c>
       <c r="D128" t="n">
-        <v>302.7641001367998</v>
+        <v>302.7640853512489</v>
       </c>
       <c r="E128" t="n">
-        <v>-23.24550866801221</v>
+        <v>-23.24550860278603</v>
       </c>
       <c r="F128" t="n">
-        <v>486.6543872672742</v>
+        <v>486.65383777963</v>
       </c>
       <c r="G128" t="n">
-        <v>-15.14830437392246</v>
+        <v>-15.14831326232241</v>
       </c>
       <c r="H128" t="n">
-        <v>439.8719825956711</v>
+        <v>439.8711524036246</v>
       </c>
       <c r="I128" t="n">
-        <v>-15.46712780155622</v>
+        <v>-15.46714866756226</v>
       </c>
       <c r="J128" t="n">
-        <v>294.9349688137407</v>
+        <v>294.9350376550004</v>
       </c>
       <c r="K128" t="n">
-        <v>-3.109128550758039</v>
+        <v>-3.109131179784924</v>
       </c>
       <c r="L128" t="n">
-        <v>851.5778401701903</v>
+        <v>851.5767020508965</v>
       </c>
       <c r="M128" t="n">
-        <v>-6.22302553264459</v>
+        <v>-6.223027988774054</v>
       </c>
       <c r="N128" t="n">
-        <v>1376.623382584098</v>
+        <v>1376.625578452966</v>
       </c>
       <c r="O128" t="n">
-        <v>-32.09785600816873</v>
+        <v>-32.09783294246309</v>
       </c>
       <c r="P128" t="n">
-        <v>352.923655720354</v>
+        <v>344.516717117821</v>
       </c>
       <c r="Q128" t="n">
-        <v>-24.62585234601674</v>
+        <v>-24.62584667810616</v>
       </c>
     </row>
     <row r="129">
@@ -7257,52 +7257,52 @@
         <v>44804</v>
       </c>
       <c r="B129" t="n">
-        <v>418.2392295074146</v>
+        <v>418.239261521075</v>
       </c>
       <c r="C129" t="n">
-        <v>-24.66495593926375</v>
+        <v>-24.66496101620238</v>
       </c>
       <c r="D129" t="n">
-        <v>281.2451073322205</v>
+        <v>281.2450940395177</v>
       </c>
       <c r="E129" t="n">
-        <v>-28.70084285705873</v>
+        <v>-28.70084268442525</v>
       </c>
       <c r="F129" t="n">
-        <v>446.891309023358</v>
+        <v>446.89080443271</v>
       </c>
       <c r="G129" t="n">
-        <v>-22.08128330226339</v>
+        <v>-22.08129146441869</v>
       </c>
       <c r="H129" t="n">
-        <v>420.3894412320856</v>
+        <v>420.3886761199225</v>
       </c>
       <c r="I129" t="n">
-        <v>-19.21120617970268</v>
+        <v>-19.21122068110211</v>
       </c>
       <c r="J129" t="n">
-        <v>293.6569444276154</v>
+        <v>293.6570129705693</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.528980076004833</v>
+        <v>-3.528982693639508</v>
       </c>
       <c r="L129" t="n">
-        <v>843.6477829592289</v>
+        <v>843.6466554383218</v>
       </c>
       <c r="M129" t="n">
-        <v>-7.096294818806808</v>
+        <v>-7.096297252064321</v>
       </c>
       <c r="N129" t="n">
-        <v>1257.018060342498</v>
+        <v>1257.020065427447</v>
       </c>
       <c r="O129" t="n">
-        <v>-37.99740552605753</v>
+        <v>-37.99738446437216</v>
       </c>
       <c r="P129" t="n">
-        <v>342.1867466749358</v>
+        <v>334.0355702851725</v>
       </c>
       <c r="Q129" t="n">
-        <v>-26.91894138841857</v>
+        <v>-26.91893589294144</v>
       </c>
     </row>
     <row r="130">
@@ -7310,52 +7310,52 @@
         <v>44834</v>
       </c>
       <c r="B130" t="n">
-        <v>368.2134043529441</v>
+        <v>368.2134447421304</v>
       </c>
       <c r="C130" t="n">
-        <v>-33.67582215242446</v>
+        <v>-33.6758244237455</v>
       </c>
       <c r="D130" t="n">
-        <v>240.784082663375</v>
+        <v>240.7840718323479</v>
       </c>
       <c r="E130" t="n">
-        <v>-38.95821936181949</v>
+        <v>-38.95821907475836</v>
       </c>
       <c r="F130" t="n">
-        <v>447.0172902955048</v>
+        <v>447.0167855626098</v>
       </c>
       <c r="G130" t="n">
-        <v>-22.05931756058209</v>
+        <v>-22.05932572503834</v>
       </c>
       <c r="H130" t="n">
-        <v>415.3769060009293</v>
+        <v>415.3761108683857</v>
       </c>
       <c r="I130" t="n">
-        <v>-20.17449553854101</v>
+        <v>-20.17451738943795</v>
       </c>
       <c r="J130" t="n">
-        <v>286.9707976139695</v>
+        <v>286.9708645962987</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.725486627999505</v>
+        <v>-5.725489186034399</v>
       </c>
       <c r="L130" t="n">
-        <v>804.6490611839251</v>
+        <v>804.6479857841462</v>
       </c>
       <c r="M130" t="n">
-        <v>-11.39089005563362</v>
+        <v>-11.39089237641061</v>
       </c>
       <c r="N130" t="n">
-        <v>1153.501293095512</v>
+        <v>1153.503219377366</v>
       </c>
       <c r="O130" t="n">
-        <v>-43.10338478232976</v>
+        <v>-43.10336119746548</v>
       </c>
       <c r="P130" t="n">
-        <v>328.0030139318415</v>
+        <v>320.1897059971765</v>
       </c>
       <c r="Q130" t="n">
-        <v>-29.94817093632324</v>
+        <v>-29.94816566863511</v>
       </c>
     </row>
     <row r="131">
@@ -7363,52 +7363,52 @@
         <v>44865</v>
       </c>
       <c r="B131" t="n">
-        <v>393.9543197545302</v>
+        <v>393.9543640320928</v>
       </c>
       <c r="C131" t="n">
-        <v>-29.03925805434575</v>
+        <v>-29.03926029264133</v>
       </c>
       <c r="D131" t="n">
-        <v>264.5986135903962</v>
+        <v>264.5986011429486</v>
       </c>
       <c r="E131" t="n">
-        <v>-32.92093750843097</v>
+        <v>-32.92093733119022</v>
       </c>
       <c r="F131" t="n">
-        <v>447.7135025889477</v>
+        <v>447.7129970699505</v>
       </c>
       <c r="G131" t="n">
-        <v>-21.93792793550119</v>
+        <v>-21.93793611267327</v>
       </c>
       <c r="H131" t="n">
-        <v>414.8544994350909</v>
+        <v>414.8537443965664</v>
       </c>
       <c r="I131" t="n">
-        <v>-20.2748895832016</v>
+        <v>-20.27490389367233</v>
       </c>
       <c r="J131" t="n">
-        <v>291.9633349425196</v>
+        <v>291.9634030901652</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.085357977091445</v>
+        <v>-4.085360579629431</v>
       </c>
       <c r="L131" t="n">
-        <v>832.2213253798033</v>
+        <v>832.2202131301623</v>
       </c>
       <c r="M131" t="n">
-        <v>-8.354592733726687</v>
+        <v>-8.354595134027887</v>
       </c>
       <c r="N131" t="n">
-        <v>1084.701650678023</v>
+        <v>1084.70338089895</v>
       </c>
       <c r="O131" t="n">
-        <v>-46.49693692238542</v>
+        <v>-46.49691874790916</v>
       </c>
       <c r="P131" t="n">
-        <v>323.8095488990604</v>
+        <v>316.0961328319171</v>
       </c>
       <c r="Q131" t="n">
-        <v>-30.8437721447985</v>
+        <v>-30.84376694445691</v>
       </c>
     </row>
     <row r="132">
@@ -7416,52 +7416,52 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>377.7801441894931</v>
+        <v>381.3907987212145</v>
       </c>
       <c r="C132" t="n">
-        <v>-31.95261993642754</v>
+        <v>-31.30226324226473</v>
       </c>
       <c r="D132" t="n">
-        <v>251.0371022925426</v>
+        <v>254.7508428530219</v>
       </c>
       <c r="E132" t="n">
-        <v>-36.35895047261478</v>
+        <v>-35.41746751927089</v>
       </c>
       <c r="F132" t="n">
-        <v>448.0072721133483</v>
+        <v>448.0883567102597</v>
       </c>
       <c r="G132" t="n">
-        <v>-21.88670710420729</v>
+        <v>-21.87248939029911</v>
       </c>
       <c r="H132" t="n">
-        <v>413.4743455983683</v>
+        <v>413.9353658156879</v>
       </c>
       <c r="I132" t="n">
-        <v>-20.54012213383008</v>
+        <v>-20.45139457650088</v>
       </c>
       <c r="J132" t="n">
-        <v>294.5513579875528</v>
+        <v>297.7135275934002</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.235150864748836</v>
+        <v>-2.196352873483117</v>
       </c>
       <c r="L132" t="n">
-        <v>846.7764317039819</v>
+        <v>864.7336718877272</v>
       </c>
       <c r="M132" t="n">
-        <v>-6.75176352687537</v>
+        <v>-4.774161680936447</v>
       </c>
       <c r="N132" t="n">
-        <v>1083.185567763205</v>
+        <v>1065.99029232987</v>
       </c>
       <c r="O132" t="n">
-        <v>-46.57171792762465</v>
+        <v>-47.41994334230041</v>
       </c>
       <c r="P132" t="n">
-        <v>322.1884949603991</v>
+        <v>314.9476807785227</v>
       </c>
       <c r="Q132" t="n">
-        <v>-31.18998174834105</v>
+        <v>-31.09502790467843</v>
       </c>
     </row>
   </sheetData>
